--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -23,7 +23,7 @@
     <t>heap_4.o</t>
   </si>
   <si>
-    <t>bsp_ws2812.o</t>
+    <t>driver_ws2812b.o</t>
   </si>
   <si>
     <t>oled.o</t>
@@ -38,6 +38,9 @@
     <t>tasks.o</t>
   </si>
   <si>
+    <t>app_gameprocess.o</t>
+  </si>
+  <si>
     <t>queue.o</t>
   </si>
   <si>
@@ -62,57 +65,60 @@
     <t>system_gd32f4xx.o</t>
   </si>
   <si>
+    <t>event_groups.o</t>
+  </si>
+  <si>
+    <t>i2c1.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_usart.o</t>
+  </si>
+  <si>
+    <t>printf3.o</t>
+  </si>
+  <si>
+    <t>exti.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_dma.o</t>
+  </si>
+  <si>
+    <t>spi1.o</t>
+  </si>
+  <si>
+    <t>spi0.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_rcu.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_gpio.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_misc.o</t>
+  </si>
+  <si>
+    <t>list.o</t>
+  </si>
+  <si>
     <t>app_keys.o</t>
   </si>
   <si>
-    <t>i2c1.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_usart.o</t>
-  </si>
-  <si>
-    <t>printf3.o</t>
-  </si>
-  <si>
-    <t>exti.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_dma.o</t>
-  </si>
-  <si>
-    <t>spi1.o</t>
-  </si>
-  <si>
-    <t>spi0.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_rcu.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_gpio.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_misc.o</t>
-  </si>
-  <si>
-    <t>list.o</t>
+    <t>app_oled.o</t>
+  </si>
+  <si>
+    <t>app_ws2812.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_spi.o</t>
+  </si>
+  <si>
+    <t>systick.o</t>
   </si>
   <si>
     <t>delay.o</t>
   </si>
   <si>
-    <t>app_oled.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_spi.o</t>
-  </si>
-  <si>
-    <t>app_ws2812.o</t>
-  </si>
-  <si>
-    <t>systick.o</t>
-  </si>
-  <si>
     <t>init.o</t>
   </si>
   <si>
@@ -138,9 +144,6 @@
   </si>
   <si>
     <t>gd32f4xx_it.o</t>
-  </si>
-  <si>
-    <t>app_gameprocess.o</t>
   </si>
   <si>
     <t>entry9a.o</t>
@@ -272,14 +275,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$48</c:f>
+              <c:f>ram_percent!$A$3:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bsp_ws2812.o</c:v>
+                  <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>oled.o</c:v>
@@ -294,33 +297,33 @@
                   <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>app_keys.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -328,56 +331,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$48</c:f>
+              <c:f>ram_percent!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>91.28368377685547</c:v>
+                  <c:v>88.51457977294922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.742692947387695</c:v>
+                  <c:v>6.579720497131348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.368756294250488</c:v>
+                  <c:v>1.327234864234924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.22142481803894</c:v>
+                  <c:v>1.184372782707214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21667218208313</c:v>
+                  <c:v>1.179764270782471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.950525164604187</c:v>
+                  <c:v>0.921690821647644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07604201138019562</c:v>
+                  <c:v>0.08756063133478165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07128939032554627</c:v>
+                  <c:v>0.07373526692390442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03326838091015816</c:v>
+                  <c:v>0.06912681460380554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01069340854883194</c:v>
+                  <c:v>0.03225918114185333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.005940782371908426</c:v>
+                  <c:v>0.01036902237683535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.004752625711262226</c:v>
+                  <c:v>0.005760567728430033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004752625711262226</c:v>
+                  <c:v>0.004608454182744026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004752625711262226</c:v>
+                  <c:v>0.004608454182744026</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004752625711262226</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                  <c:v>0.004608454182744026</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -445,145 +448,148 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$48</c:f>
+              <c:f>flash_percent!$A$3:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>driver_ws2812b.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>tasks.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>event_groups.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>i2c1.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>usart0.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>bsp_ws2812.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>printf3.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>exti.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>startup_gd32f407_427.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>spi1.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>spi0.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>app_ws2812.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>gd32f4xx_spi.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>systick.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>app_oled.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>gd32f4xx_spi.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>app_ws2812.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>systick.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>app_keys.o</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>puts.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>gd32f4xx_exti.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>spi.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>app_gameprocess.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -591,146 +597,149 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$48</c:f>
+              <c:f>flash_percent!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>32.91096496582031</c:v>
+                  <c:v>28.1192684173584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.14860057830811</c:v>
+                  <c:v>13.315110206604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.600715637207031</c:v>
+                  <c:v>12.73603534698486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.952852010726929</c:v>
+                  <c:v>3.675862312316895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.860239982604981</c:v>
+                  <c:v>3.377333402633667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.056198596954346</c:v>
+                  <c:v>3.298205137252808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.795201063156128</c:v>
+                  <c:v>2.611228942871094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.525784015655518</c:v>
+                  <c:v>2.388231515884399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.492106914520264</c:v>
+                  <c:v>2.377441167831421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.374237060546875</c:v>
+                  <c:v>2.158040523529053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.247947692871094</c:v>
+                  <c:v>2.129266738891602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.231109142303467</c:v>
+                  <c:v>2.028558015823364</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.986950159072876</c:v>
+                  <c:v>1.920656085014343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.978530883789063</c:v>
+                  <c:v>1.866705060005188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.82698380947113</c:v>
+                  <c:v>1.697658538818359</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.80172598361969</c:v>
+                  <c:v>1.690465092658997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.759629607200623</c:v>
+                  <c:v>1.654497742652893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.464954733848572</c:v>
+                  <c:v>1.53940224647522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.397600531578064</c:v>
+                  <c:v>1.474660992622376</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.212376356124878</c:v>
+                  <c:v>1.366758942604065</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.203957080841065</c:v>
+                  <c:v>1.309211254119873</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.174489617347717</c:v>
+                  <c:v>1.03585946559906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7577351927757263</c:v>
+                  <c:v>1.028666019439697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6314460039138794</c:v>
+                  <c:v>1.003488779067993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4378025531768799</c:v>
+                  <c:v>0.647412121295929</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4335929155349731</c:v>
+                  <c:v>0.5395101308822632</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4209640026092529</c:v>
+                  <c:v>0.445995032787323</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3704483211040497</c:v>
+                  <c:v>0.3704636096954346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.311513364315033</c:v>
+                  <c:v>0.3165126144886017</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2694169580936432</c:v>
+                  <c:v>0.2877387404441834</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.202062726020813</c:v>
+                  <c:v>0.2661583423614502</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1852241605520248</c:v>
+                  <c:v>0.1942236423492432</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1515470445156097</c:v>
+                  <c:v>0.17264324426651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1515470445156097</c:v>
+                  <c:v>0.1582563072443008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1515470445156097</c:v>
+                  <c:v>0.1294824331998825</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1262892037630081</c:v>
+                  <c:v>0.1294824331998825</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1262892037630081</c:v>
+                  <c:v>0.1294824331998825</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.05893496051430702</c:v>
+                  <c:v>0.1079020276665688</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.05051568150520325</c:v>
+                  <c:v>0.1079020276665688</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.04209640249609947</c:v>
+                  <c:v>0.05035427957773209</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0336771197617054</c:v>
+                  <c:v>0.0431608110666275</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0336771197617054</c:v>
+                  <c:v>0.02877387404441834</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0168385598808527</c:v>
+                  <c:v>0.02877387404441834</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0168385598808527</c:v>
+                  <c:v>0.01438693702220917</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0168385598808527</c:v>
+                  <c:v>0.01438693702220917</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.01438693702220917</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -835,8 +844,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H48" totalsRowCount="1">
-  <autoFilter ref="A2:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H49" totalsRowCount="1">
+  <autoFilter ref="A2:H48"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -852,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H48" totalsRowCount="1">
-  <autoFilter ref="A2:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H49" totalsRowCount="1">
+  <autoFilter ref="A2:H48"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1153,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,28 +1178,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1198,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>91.28368377685547</v>
+        <v>88.51457977294922</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1224,25 +1233,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>3.742692947387695</v>
+        <v>6.579720497131348</v>
       </c>
       <c r="C4" s="1">
-        <v>3150</v>
+        <v>5711</v>
       </c>
       <c r="D4" s="1">
-        <v>530</v>
+        <v>3702</v>
       </c>
       <c r="E4" s="1">
-        <v>526</v>
+        <v>3702</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>3150</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.368756294250488</v>
+        <v>1.327234864234924</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1276,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.22142481803894</v>
+        <v>1.184372782707214</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1302,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.21667218208313</v>
+        <v>1.179764270782471</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1328,16 +1337,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.950525164604187</v>
+        <v>0.921690821647644</v>
       </c>
       <c r="C8" s="1">
         <v>800</v>
       </c>
       <c r="D8" s="1">
-        <v>3361</v>
+        <v>3541</v>
       </c>
       <c r="E8" s="1">
-        <v>3318</v>
+        <v>3498</v>
       </c>
       <c r="F8" s="1">
         <v>43</v>
@@ -1354,25 +1363,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.07604201138019562</v>
+        <v>0.08756063133478165</v>
       </c>
       <c r="C9" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>1568</v>
+        <v>519</v>
       </c>
       <c r="E9" s="1">
-        <v>1548</v>
+        <v>450</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1380,25 +1389,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.07128939032554627</v>
+        <v>0.07373526692390442</v>
       </c>
       <c r="C10" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="E10" s="1">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1406,25 +1415,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.03326838091015816</v>
+        <v>0.06912681460380554</v>
       </c>
       <c r="C11" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1">
-        <v>418</v>
+        <v>939</v>
       </c>
       <c r="E11" s="1">
-        <v>418</v>
+        <v>918</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1432,25 +1441,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.01069340854883194</v>
+        <v>0.03225918114185333</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>917</v>
+        <v>410</v>
       </c>
       <c r="E12" s="1">
-        <v>872</v>
+        <v>410</v>
       </c>
       <c r="F12" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1458,25 +1467,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.005940782371908426</v>
+        <v>0.01036902237683535</v>
       </c>
       <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>917</v>
+      </c>
+      <c r="E13" s="1">
+        <v>872</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>279</v>
-      </c>
-      <c r="E13" s="1">
-        <v>274</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1484,22 +1493,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.004752625711262226</v>
+        <v>0.005760567728430033</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>726</v>
+        <v>279</v>
       </c>
       <c r="E14" s="1">
-        <v>722</v>
+        <v>274</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1510,16 +1519,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.004752625711262226</v>
+        <v>0.004608454182744026</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>726</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1536,16 +1545,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.004752625711262226</v>
+        <v>0.004608454182744026</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1562,56 +1571,56 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.004752625711262226</v>
+        <v>0.004608454182744026</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>64</v>
+        <v>534</v>
       </c>
       <c r="E17" s="1">
-        <v>64</v>
+        <v>530</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1627,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,28 +1652,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1672,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>32.91096496582031</v>
+        <v>28.1192684173584</v>
       </c>
       <c r="C3" s="1">
         <v>7818</v>
@@ -1695,54 +1704,54 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>14.14860057830811</v>
+        <v>13.315110206604</v>
       </c>
       <c r="C4" s="1">
-        <v>3361</v>
+        <v>3702</v>
       </c>
       <c r="D4" s="1">
-        <v>800</v>
+        <v>5711</v>
       </c>
       <c r="E4" s="1">
-        <v>3318</v>
+        <v>3702</v>
       </c>
       <c r="F4" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>800</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>6.600715637207031</v>
+        <v>12.73603534698486</v>
       </c>
       <c r="C5" s="1">
-        <v>1568</v>
+        <v>3541</v>
       </c>
       <c r="D5" s="1">
-        <v>64</v>
+        <v>800</v>
       </c>
       <c r="E5" s="1">
-        <v>1548</v>
+        <v>3498</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>64</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1750,149 +1759,149 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>3.952852010726929</v>
+        <v>3.675862312316895</v>
       </c>
       <c r="C6" s="1">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="D6" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>3.860239982604981</v>
+        <v>3.377333402633667</v>
       </c>
       <c r="C7" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="D7" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F7" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>3.056198596954346</v>
+        <v>3.298205137252808</v>
       </c>
       <c r="C8" s="1">
-        <v>726</v>
+        <v>917</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>722</v>
+        <v>872</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>2.795201063156128</v>
+        <v>2.611228942871094</v>
       </c>
       <c r="C9" s="1">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="D9" s="1">
-        <v>76828</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>626</v>
+        <v>722</v>
       </c>
       <c r="F9" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>2.525784015655518</v>
+        <v>2.388231515884399</v>
       </c>
       <c r="C10" s="1">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
       <c r="E10" s="1">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>2.492106914520264</v>
+        <v>2.377441167831421</v>
       </c>
       <c r="C11" s="1">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1903,19 +1912,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>2.374237060546875</v>
+        <v>2.158040523529053</v>
       </c>
       <c r="C12" s="1">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="D12" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1924,30 +1933,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>2.247947692871094</v>
+        <v>2.129266738891602</v>
       </c>
       <c r="C13" s="1">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1955,51 +1964,51 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.231109142303467</v>
+        <v>2.028558015823364</v>
       </c>
       <c r="C14" s="1">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="D14" s="1">
-        <v>3150</v>
+        <v>1028</v>
       </c>
       <c r="E14" s="1">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>3150</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1.986950159072876</v>
+        <v>1.920656085014343</v>
       </c>
       <c r="C15" s="1">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2007,45 +2016,45 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>1.978530883789063</v>
+        <v>1.866705060005188</v>
       </c>
       <c r="C16" s="1">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>1.82698380947113</v>
+        <v>1.697658538818359</v>
       </c>
       <c r="C17" s="1">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2059,45 +2068,45 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>1.80172598361969</v>
+        <v>1.690465092658997</v>
       </c>
       <c r="C18" s="1">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="D18" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>36</v>
+        <v>470</v>
       </c>
       <c r="F18" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>1.759629607200623</v>
+        <v>1.654497742652893</v>
       </c>
       <c r="C19" s="1">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2106,50 +2115,50 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>1.464954733848572</v>
+        <v>1.53940224647522</v>
       </c>
       <c r="C20" s="1">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E20" s="1">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>1.397600531578064</v>
+        <v>1.474660992622376</v>
       </c>
       <c r="C21" s="1">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2158,27 +2167,27 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1.212376356124878</v>
+        <v>1.366758942604065</v>
       </c>
       <c r="C22" s="1">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -2189,19 +2198,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1.203957080841065</v>
+        <v>1.309211254119873</v>
       </c>
       <c r="C23" s="1">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2215,25 +2224,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1.174489617347717</v>
+        <v>1.03585946559906</v>
       </c>
       <c r="C24" s="1">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2244,16 +2253,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>0.7577351927757263</v>
+        <v>1.028666019439697</v>
       </c>
       <c r="C25" s="1">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2267,25 +2276,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
-        <v>0.6314460039138794</v>
+        <v>1.003488779067993</v>
       </c>
       <c r="C26" s="1">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2293,19 +2302,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>0.4378025531768799</v>
+        <v>0.647412121295929</v>
       </c>
       <c r="C27" s="1">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2319,22 +2328,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>0.4335929155349731</v>
+        <v>0.5395101308822632</v>
       </c>
       <c r="C28" s="1">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2345,19 +2354,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>0.4209640026092529</v>
+        <v>0.445995032787323</v>
       </c>
       <c r="C29" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2371,22 +2380,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>0.3704483211040497</v>
+        <v>0.3704636096954346</v>
       </c>
       <c r="C30" s="1">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2397,19 +2406,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>0.311513364315033</v>
+        <v>0.3165126144886017</v>
       </c>
       <c r="C31" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2423,19 +2432,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>0.2694169580936432</v>
+        <v>0.2877387404441834</v>
       </c>
       <c r="C32" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2444,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2452,16 +2461,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>0.202062726020813</v>
+        <v>0.2661583423614502</v>
       </c>
       <c r="C33" s="1">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2478,16 +2487,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>0.1852241605520248</v>
+        <v>0.1942236423492432</v>
       </c>
       <c r="C34" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2504,16 +2513,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>0.1515470445156097</v>
+        <v>0.17264324426651</v>
       </c>
       <c r="C35" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2530,16 +2539,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>0.1515470445156097</v>
+        <v>0.1582563072443008</v>
       </c>
       <c r="C36" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2556,7 +2565,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>0.1515470445156097</v>
+        <v>0.1294824331998825</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -2582,16 +2591,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>0.1262892037630081</v>
+        <v>0.1294824331998825</v>
       </c>
       <c r="C38" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2608,16 +2617,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>0.1262892037630081</v>
+        <v>0.1294824331998825</v>
       </c>
       <c r="C39" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2634,16 +2643,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>0.05893496051430702</v>
+        <v>0.1079020276665688</v>
       </c>
       <c r="C40" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2660,16 +2669,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>0.05051568150520325</v>
+        <v>0.1079020276665688</v>
       </c>
       <c r="C41" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2686,16 +2695,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>0.04209640249609947</v>
+        <v>0.05035427957773209</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2712,16 +2721,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>0.0336771197617054</v>
+        <v>0.0431608110666275</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2738,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>0.0336771197617054</v>
+        <v>0.02877387404441834</v>
       </c>
       <c r="C44" s="1">
         <v>8</v>
@@ -2761,25 +2770,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>0.0168385598808527</v>
+        <v>0.02877387404441834</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2787,25 +2796,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
-        <v>0.0168385598808527</v>
+        <v>0.01438693702220917</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <v>4</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2816,7 +2825,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>0.0168385598808527</v>
+        <v>0.01438693702220917</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -2838,34 +2847,60 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.01438693702220917</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -32,12 +32,21 @@
     <t>usart0.o</t>
   </si>
   <si>
+    <t>u8g2_d_memory.o</t>
+  </si>
+  <si>
     <t>startup_gd32f407_427.o</t>
   </si>
   <si>
     <t>tasks.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>app_oled.o</t>
+  </si>
+  <si>
     <t>app_gameprocess.o</t>
   </si>
   <si>
@@ -47,9 +56,6 @@
     <t>timers.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
     <t>port.o</t>
   </si>
   <si>
@@ -65,6 +71,21 @@
     <t>system_gd32f4xx.o</t>
   </si>
   <si>
+    <t>app_levelconfig.o</t>
+  </si>
+  <si>
+    <t>u8x8_cad.o</t>
+  </si>
+  <si>
+    <t>u8g2_fonts.o</t>
+  </si>
+  <si>
+    <t>u8g2_font.o</t>
+  </si>
+  <si>
+    <t>u8x8_byte.o</t>
+  </si>
+  <si>
     <t>event_groups.o</t>
   </si>
   <si>
@@ -74,12 +95,18 @@
     <t>gd32f4xx_usart.o</t>
   </si>
   <si>
+    <t>app_keys.o</t>
+  </si>
+  <si>
     <t>printf3.o</t>
   </si>
   <si>
     <t>exti.o</t>
   </si>
   <si>
+    <t>u8g2_hvline.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_dma.o</t>
   </si>
   <si>
@@ -89,22 +116,34 @@
     <t>spi0.o</t>
   </si>
   <si>
+    <t>u8g2_setup.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_rcu.o</t>
   </si>
   <si>
     <t>gd32f4xx_gpio.o</t>
   </si>
   <si>
+    <t>u8x8_display.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_misc.o</t>
   </si>
   <si>
+    <t>systick.o</t>
+  </si>
+  <si>
+    <t>u8g2_ll_hvline.o</t>
+  </si>
+  <si>
     <t>list.o</t>
   </si>
   <si>
-    <t>app_keys.o</t>
-  </si>
-  <si>
-    <t>app_oled.o</t>
+    <t>u8g2_intersection.o</t>
+  </si>
+  <si>
+    <t>u8g2_buffer.o</t>
   </si>
   <si>
     <t>app_ws2812.o</t>
@@ -113,7 +152,7 @@
     <t>gd32f4xx_spi.o</t>
   </si>
   <si>
-    <t>systick.o</t>
+    <t>u8g2_d_setup.o</t>
   </si>
   <si>
     <t>delay.o</t>
@@ -122,6 +161,9 @@
     <t>init.o</t>
   </si>
   <si>
+    <t>u8x8_setup.o</t>
+  </si>
+  <si>
     <t>uidiv.o</t>
   </si>
   <si>
@@ -140,6 +182,9 @@
     <t>gd32f4xx_exti.o</t>
   </si>
   <si>
+    <t>u8x8_8x8.o</t>
+  </si>
+  <si>
     <t>spi.o</t>
   </si>
   <si>
@@ -150,6 +195,9 @@
   </si>
   <si>
     <t>entry2.o</t>
+  </si>
+  <si>
+    <t>u8x8_gpio.o</t>
   </si>
   <si>
     <t>entry5.o</t>
@@ -275,9 +323,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$49</c:f>
+              <c:f>ram_percent!$A$3:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -291,39 +339,51 @@
                   <c:v>usart0.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>u8g2_d_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>startup_gd32f407_427.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>tasks.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>app_gameprocess.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="17">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>u8x8_cad.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -331,56 +391,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$49</c:f>
+              <c:f>ram_percent!$B$3:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>88.51457977294922</c:v>
+                  <c:v>87.15895080566406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.579720497131348</c:v>
+                  <c:v>6.478950023651123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.327234864234924</c:v>
+                  <c:v>1.306907773017883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.184372782707214</c:v>
+                  <c:v>1.166233658790588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.179764270782471</c:v>
+                  <c:v>1.161695837974548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.921690821647644</c:v>
+                  <c:v>1.161695837974548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08756063133478165</c:v>
+                  <c:v>0.9075748324394226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07373526692390442</c:v>
+                  <c:v>0.2132800817489624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.06912681460380554</c:v>
+                  <c:v>0.1758426278829575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03225918114185333</c:v>
+                  <c:v>0.09302642196416855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01036902237683535</c:v>
+                  <c:v>0.07260598987340927</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.005760567728430033</c:v>
+                  <c:v>0.06806811690330505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004608454182744026</c:v>
+                  <c:v>0.01021021697670221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004608454182744026</c:v>
+                  <c:v>0.005672342609614134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004608454182744026</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                  <c:v>0.00453787436708808</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00453787436708808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00453787436708808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00453787436708808</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00113446859177202</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -448,148 +520,196 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$49</c:f>
+              <c:f>flash_percent!$A$3:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>oled.o</c:v>
+                  <c:v>u8g2_fonts.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>tasks.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>driver_ws2812b.o</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>queue.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>u8g2_font.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>u8x8_byte.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>event_groups.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>i2c1.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>usart0.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>app_gameprocess.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>printf3.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>exti.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>u8g2_hvline.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>u8x8_cad.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>startup_gd32f407_427.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>spi1.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>spi0.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
+                  <c:v>u8g2_setup.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="30">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="31">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="32">
+                  <c:v>u8x8_display.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
+                  <c:v>systick.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>u8g2_ll_hvline.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>app_keys.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>app_oled.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
+                  <c:v>u8g2_intersection.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>u8g2_buffer.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>app_ws2812.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>systick.o</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>u8g2_d_setup.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="44">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="45">
+                  <c:v>u8x8_setup.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
                   <c:v>puts.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="48">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="49">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
                   <c:v>gd32f4xx_exti.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
+                  <c:v>u8x8_8x8.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>u8g2_d_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>spi.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="55">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="56">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="57">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="58">
+                  <c:v>u8x8_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="60">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="61">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="62">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -597,149 +717,197 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$49</c:f>
+              <c:f>flash_percent!$B$3:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>28.1192684173584</c:v>
+                  <c:v>29.77586936950684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.315110206604</c:v>
+                  <c:v>10.00238418579102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.73603534698486</c:v>
+                  <c:v>8.826895713806152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.675862312316895</c:v>
+                  <c:v>4.835479259490967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.377333402633667</c:v>
+                  <c:v>4.129709243774414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.298205137252808</c:v>
+                  <c:v>3.962804079055786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.611228942871094</c:v>
+                  <c:v>2.23891282081604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.388231515884399</c:v>
+                  <c:v>2.186456918716431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.377441167831421</c:v>
+                  <c:v>1.85503101348877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.158040523529053</c:v>
+                  <c:v>1.85026228427887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.129266738891602</c:v>
+                  <c:v>1.726275682449341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.028558015823364</c:v>
+                  <c:v>1.652360558509827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.920656085014343</c:v>
+                  <c:v>1.583214163780212</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.866705060005188</c:v>
+                  <c:v>1.576061010360718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.697658538818359</c:v>
+                  <c:v>1.430615186691284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.690465092658997</c:v>
+                  <c:v>1.411540269851685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.654497742652893</c:v>
+                  <c:v>1.344778299331665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53940224647522</c:v>
+                  <c:v>1.301859855651856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.474660992622376</c:v>
+                  <c:v>1.278016209602356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.366758942604065</c:v>
+                  <c:v>1.273247480392456</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.309211254119873</c:v>
+                  <c:v>1.244635224342346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.03585946559906</c:v>
+                  <c:v>1.120648503303528</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.028666019439697</c:v>
+                  <c:v>1.111111164093018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.003488779067993</c:v>
+                  <c:v>1.096804976463318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.647412121295929</c:v>
+                  <c:v>1.096804976463318</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5395101308822632</c:v>
+                  <c:v>1.020505428314209</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.445995032787323</c:v>
+                  <c:v>0.90605628490448</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3704636096954346</c:v>
+                  <c:v>0.8679065108299255</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3165126144886017</c:v>
+                  <c:v>0.7343824505805969</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2877387404441834</c:v>
+                  <c:v>0.6866952776908875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2661583423614502</c:v>
+                  <c:v>0.6819265484809876</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1942236423492432</c:v>
+                  <c:v>0.6652360558509827</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17264324426651</c:v>
+                  <c:v>0.4721029996871948</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1582563072443008</c:v>
+                  <c:v>0.4291845560073853</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1294824331998825</c:v>
+                  <c:v>0.4053409695625305</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1294824331998825</c:v>
+                  <c:v>0.3814973831176758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1294824331998825</c:v>
+                  <c:v>0.357653796672821</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1079020276665688</c:v>
+                  <c:v>0.3147353231906891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1079020276665688</c:v>
+                  <c:v>0.3051978945732117</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.05035427957773209</c:v>
+                  <c:v>0.2098235636949539</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0431608110666275</c:v>
+                  <c:v>0.1907486915588379</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.02877387404441834</c:v>
+                  <c:v>0.1812112480401993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.02877387404441834</c:v>
+                  <c:v>0.1669051051139832</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.01438693702220917</c:v>
+                  <c:v>0.1287553608417511</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.01438693702220917</c:v>
+                  <c:v>0.1144492104649544</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.01438693702220917</c:v>
+                  <c:v>0.1144492104649544</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0.104911781847477</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.08583690971136093</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.08583690971136093</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.08583690971136093</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.07153075933456421</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.07153075933456421</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0619933232665062</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.03814973682165146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.03338101878762245</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.02861230261623859</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.01907486841082573</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.01907486841082573</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.01907486841082573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.009537434205412865</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.009537434205412865</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.009537434205412865</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -844,8 +1012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H49" totalsRowCount="1">
-  <autoFilter ref="A2:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H65" totalsRowCount="1">
+  <autoFilter ref="A2:H64"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -861,8 +1029,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H49" totalsRowCount="1">
-  <autoFilter ref="A2:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H65" totalsRowCount="1">
+  <autoFilter ref="A2:H64"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1162,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1178,28 +1346,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1207,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>88.51457977294922</v>
+        <v>87.15895080566406</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1233,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.579720497131348</v>
+        <v>6.478950023651123</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1259,19 +1427,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.327234864234924</v>
+        <v>1.306907773017883</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
       </c>
       <c r="D5" s="1">
-        <v>7818</v>
+        <v>778</v>
       </c>
       <c r="E5" s="1">
-        <v>1186</v>
+        <v>778</v>
       </c>
       <c r="F5" s="1">
-        <v>6632</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1285,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.184372782707214</v>
+        <v>1.166233658790588</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1311,19 +1479,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.179764270782471</v>
+        <v>1.161695837974548</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
       </c>
       <c r="D7" s="1">
-        <v>428</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1337,25 +1505,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.921690821647644</v>
+        <v>1.161695837974548</v>
       </c>
       <c r="C8" s="1">
-        <v>800</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="1">
-        <v>3541</v>
+        <v>428</v>
       </c>
       <c r="E8" s="1">
-        <v>3498</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>800</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1363,25 +1531,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.08756063133478165</v>
+        <v>0.9075748324394226</v>
       </c>
       <c r="C9" s="1">
-        <v>76</v>
+        <v>800</v>
       </c>
       <c r="D9" s="1">
-        <v>519</v>
+        <v>4195</v>
       </c>
       <c r="E9" s="1">
-        <v>450</v>
+        <v>4152</v>
       </c>
       <c r="F9" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>43</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1389,25 +1557,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.07373526692390442</v>
+        <v>0.2132800817489624</v>
       </c>
       <c r="C10" s="1">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1">
-        <v>1022</v>
+        <v>546</v>
       </c>
       <c r="E10" s="1">
-        <v>1002</v>
+        <v>546</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>64</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1415,25 +1583,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.06912681460380554</v>
+        <v>0.1758426278829575</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1">
-        <v>939</v>
+        <v>1662</v>
       </c>
       <c r="E11" s="1">
-        <v>918</v>
+        <v>1588</v>
       </c>
       <c r="F11" s="1">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1441,25 +1609,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.03225918114185333</v>
+        <v>0.09302642196416855</v>
       </c>
       <c r="C12" s="1">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1">
-        <v>410</v>
+        <v>693</v>
       </c>
       <c r="E12" s="1">
-        <v>410</v>
+        <v>578</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1467,25 +1635,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.01036902237683535</v>
+        <v>0.07260598987340927</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
-        <v>917</v>
+        <v>2028</v>
       </c>
       <c r="E13" s="1">
-        <v>872</v>
+        <v>2008</v>
       </c>
       <c r="F13" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1493,25 +1661,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.005760567728430033</v>
+        <v>0.06806811690330505</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
-        <v>279</v>
+        <v>939</v>
       </c>
       <c r="E14" s="1">
-        <v>274</v>
+        <v>918</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1519,25 +1687,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.004608454182744026</v>
+        <v>0.01021021697670221</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>726</v>
+        <v>917</v>
       </c>
       <c r="E15" s="1">
-        <v>722</v>
+        <v>872</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1545,22 +1713,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.004608454182744026</v>
+        <v>0.005672342609614134</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1571,16 +1739,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.004608454182744026</v>
+        <v>0.00453787436708808</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>534</v>
+        <v>776</v>
       </c>
       <c r="E17" s="1">
-        <v>530</v>
+        <v>772</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1592,35 +1760,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.00453787436708808</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.00453787436708808</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>534</v>
+      </c>
+      <c r="E19" s="1">
+        <v>530</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.00453787436708808</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.00113446859177202</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>460</v>
+      </c>
+      <c r="E21" s="1">
+        <v>460</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C65">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="D65">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E65">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F65">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G65">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="H65">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1636,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1652,123 +1924,123 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>28.1192684173584</v>
+        <v>29.77586936950684</v>
       </c>
       <c r="C3" s="1">
-        <v>7818</v>
+        <v>12488</v>
       </c>
       <c r="D3" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6632</v>
+        <v>12488</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>13.315110206604</v>
+        <v>10.00238418579102</v>
       </c>
       <c r="C4" s="1">
-        <v>3702</v>
+        <v>4195</v>
       </c>
       <c r="D4" s="1">
-        <v>5711</v>
+        <v>800</v>
       </c>
       <c r="E4" s="1">
-        <v>3702</v>
+        <v>4152</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>5711</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>12.73603534698486</v>
+        <v>8.826895713806152</v>
       </c>
       <c r="C5" s="1">
-        <v>3541</v>
+        <v>3702</v>
       </c>
       <c r="D5" s="1">
-        <v>800</v>
+        <v>5711</v>
       </c>
       <c r="E5" s="1">
-        <v>3498</v>
+        <v>3702</v>
       </c>
       <c r="F5" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>800</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>3.675862312316895</v>
+        <v>4.835479259490967</v>
       </c>
       <c r="C6" s="1">
-        <v>1022</v>
+        <v>2028</v>
       </c>
       <c r="D6" s="1">
         <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>1002</v>
+        <v>2008</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1782,155 +2054,155 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>3.377333402633667</v>
+        <v>4.129709243774414</v>
       </c>
       <c r="C7" s="1">
-        <v>939</v>
+        <v>1732</v>
       </c>
       <c r="D7" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>918</v>
+        <v>1732</v>
       </c>
       <c r="F7" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>3.298205137252808</v>
+        <v>3.962804079055786</v>
       </c>
       <c r="C8" s="1">
-        <v>917</v>
+        <v>1662</v>
       </c>
       <c r="D8" s="1">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1">
-        <v>872</v>
+        <v>1588</v>
       </c>
       <c r="F8" s="1">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>2.611228942871094</v>
+        <v>2.23891282081604</v>
       </c>
       <c r="C9" s="1">
-        <v>726</v>
+        <v>939</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>722</v>
+        <v>918</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>2.388231515884399</v>
+        <v>2.186456918716431</v>
       </c>
       <c r="C10" s="1">
-        <v>664</v>
+        <v>917</v>
       </c>
       <c r="D10" s="1">
-        <v>76828</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>626</v>
+        <v>872</v>
       </c>
       <c r="F10" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
-        <v>76828</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>2.377441167831421</v>
+        <v>1.85503101348877</v>
       </c>
       <c r="C11" s="1">
-        <v>661</v>
+        <v>778</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E11" s="1">
-        <v>634</v>
+        <v>778</v>
       </c>
       <c r="F11" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>2.158040523529053</v>
+        <v>1.85026228427887</v>
       </c>
       <c r="C12" s="1">
-        <v>600</v>
+        <v>776</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1938,19 +2210,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.129266738891602</v>
+        <v>1.726275682449341</v>
       </c>
       <c r="C13" s="1">
-        <v>592</v>
+        <v>724</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>592</v>
+        <v>724</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1964,97 +2236,97 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>2.028558015823364</v>
+        <v>1.652360558509827</v>
       </c>
       <c r="C14" s="1">
-        <v>564</v>
+        <v>693</v>
       </c>
       <c r="D14" s="1">
-        <v>1028</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1">
-        <v>1028</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>1.920656085014343</v>
+        <v>1.583214163780212</v>
       </c>
       <c r="C15" s="1">
-        <v>534</v>
+        <v>664</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>76828</v>
       </c>
       <c r="E15" s="1">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1.866705060005188</v>
+        <v>1.576061010360718</v>
       </c>
       <c r="C16" s="1">
-        <v>519</v>
+        <v>661</v>
       </c>
       <c r="D16" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>450</v>
+        <v>634</v>
       </c>
       <c r="F16" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1.697658538818359</v>
+        <v>1.430615186691284</v>
       </c>
       <c r="C17" s="1">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2068,19 +2340,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.690465092658997</v>
+        <v>1.411540269851685</v>
       </c>
       <c r="C18" s="1">
-        <v>470</v>
+        <v>592</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>470</v>
+        <v>592</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2094,19 +2366,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>1.654497742652893</v>
+        <v>1.344778299331665</v>
       </c>
       <c r="C19" s="1">
-        <v>460</v>
+        <v>564</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="E19" s="1">
-        <v>460</v>
+        <v>564</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2115,50 +2387,50 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>1.53940224647522</v>
+        <v>1.301859855651856</v>
       </c>
       <c r="C20" s="1">
-        <v>428</v>
+        <v>546</v>
       </c>
       <c r="D20" s="1">
-        <v>1024</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1">
-        <v>36</v>
+        <v>546</v>
       </c>
       <c r="F20" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1024</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.474660992622376</v>
+        <v>1.278016209602356</v>
       </c>
       <c r="C21" s="1">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D21" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2167,30 +2439,30 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>1.366758942604065</v>
+        <v>1.273247480392456</v>
       </c>
       <c r="C22" s="1">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2198,19 +2470,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>1.309211254119873</v>
+        <v>1.244635224342346</v>
       </c>
       <c r="C23" s="1">
-        <v>364</v>
+        <v>522</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>364</v>
+        <v>522</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2224,22 +2496,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1.03585946559906</v>
+        <v>1.120648503303528</v>
       </c>
       <c r="C24" s="1">
-        <v>288</v>
+        <v>470</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -2250,19 +2522,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.028666019439697</v>
+        <v>1.111111164093018</v>
       </c>
       <c r="C25" s="1">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2276,45 +2548,45 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>1.003488779067993</v>
+        <v>1.096804976463318</v>
       </c>
       <c r="C26" s="1">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.647412121295929</v>
+        <v>1.096804976463318</v>
       </c>
       <c r="C27" s="1">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2328,45 +2600,45 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>0.5395101308822632</v>
+        <v>1.020505428314209</v>
       </c>
       <c r="C28" s="1">
-        <v>150</v>
+        <v>428</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E28" s="1">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>0.445995032787323</v>
+        <v>0.90605628490448</v>
       </c>
       <c r="C29" s="1">
-        <v>124</v>
+        <v>380</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>124</v>
+        <v>380</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2380,22 +2652,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.3704636096954346</v>
+        <v>0.8679065108299255</v>
       </c>
       <c r="C30" s="1">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="F30" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2406,22 +2678,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.3165126144886017</v>
+        <v>0.7343824505805969</v>
       </c>
       <c r="C31" s="1">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2432,22 +2704,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.2877387404441834</v>
+        <v>0.6866952776908875</v>
       </c>
       <c r="C32" s="1">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -2458,19 +2730,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.2661583423614502</v>
+        <v>0.6819265484809876</v>
       </c>
       <c r="C33" s="1">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2484,25 +2756,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>0.1942236423492432</v>
+        <v>0.6652360558509827</v>
       </c>
       <c r="C34" s="1">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2510,19 +2782,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.17264324426651</v>
+        <v>0.4721029996871948</v>
       </c>
       <c r="C35" s="1">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2536,19 +2808,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.1582563072443008</v>
+        <v>0.4291845560073853</v>
       </c>
       <c r="C36" s="1">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2562,19 +2834,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.1294824331998825</v>
+        <v>0.4053409695625305</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2588,19 +2860,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.1294824331998825</v>
+        <v>0.3814973831176758</v>
       </c>
       <c r="C38" s="1">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2614,19 +2886,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.1294824331998825</v>
+        <v>0.357653796672821</v>
       </c>
       <c r="C39" s="1">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2640,19 +2912,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.1079020276665688</v>
+        <v>0.3147353231906891</v>
       </c>
       <c r="C40" s="1">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2666,19 +2938,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.1079020276665688</v>
+        <v>0.3051978945732117</v>
       </c>
       <c r="C41" s="1">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2692,19 +2964,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.05035427957773209</v>
+        <v>0.2098235636949539</v>
       </c>
       <c r="C42" s="1">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2718,19 +2990,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.0431608110666275</v>
+        <v>0.1907486915588379</v>
       </c>
       <c r="C43" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2744,19 +3016,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2">
-        <v>0.02877387404441834</v>
+        <v>0.1812112480401993</v>
       </c>
       <c r="C44" s="1">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2765,24 +3037,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.02877387404441834</v>
+        <v>0.1669051051139832</v>
       </c>
       <c r="C45" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2796,25 +3068,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.01438693702220917</v>
+        <v>0.1287553608417511</v>
       </c>
       <c r="C46" s="1">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2822,19 +3094,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.01438693702220917</v>
+        <v>0.1144492104649544</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2848,59 +3120,475 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.01438693702220917</v>
+        <v>0.1144492104649544</v>
       </c>
       <c r="C48" s="1">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>48</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.104911781847477</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.08583690971136093</v>
+      </c>
+      <c r="C50" s="1">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.08583690971136093</v>
+      </c>
+      <c r="C51" s="1">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>36</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.08583690971136093</v>
+      </c>
+      <c r="C52" s="1">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.07153075933456421</v>
+      </c>
+      <c r="C53" s="1">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.07153075933456421</v>
+      </c>
+      <c r="C54" s="1">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.0619933232665062</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>26</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.03814973682165146</v>
+      </c>
+      <c r="C56" s="1">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E56" s="1">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.03338101878762245</v>
+      </c>
+      <c r="C57" s="1">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.02861230261623859</v>
+      </c>
+      <c r="C58" s="1">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.01907486841082573</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.01907486841082573</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.01907486841082573</v>
+      </c>
+      <c r="C61" s="1">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.009537434205412865</v>
+      </c>
+      <c r="C62" s="1">
         <v>4</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D62" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.009537434205412865</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.009537434205412865</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C65">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="D65">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E65">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F65">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G65">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="H65">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -77,6 +77,9 @@
     <t>u8x8_cad.o</t>
   </si>
   <si>
+    <t>app_keys.o</t>
+  </si>
+  <si>
     <t>u8g2_fonts.o</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>gd32f4xx_usart.o</t>
-  </si>
-  <si>
-    <t>app_keys.o</t>
   </si>
   <si>
     <t>printf3.o</t>
@@ -383,6 +383,9 @@
                 <c:pt idx="18">
                   <c:v>u8x8_cad.o</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
                 <c:pt idx="62">
                   <c:v>Totals</c:v>
                 </c:pt>
@@ -396,61 +399,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>87.15895080566406</c:v>
+                  <c:v>87.16092681884766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.478950023651123</c:v>
+                  <c:v>6.47909688949585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.306907773017883</c:v>
+                  <c:v>1.306937456130981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.166233658790588</c:v>
+                  <c:v>1.166260123252869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.161695837974548</c:v>
+                  <c:v>1.161722183227539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.161695837974548</c:v>
+                  <c:v>1.161722183227539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9075748324394226</c:v>
+                  <c:v>0.9075954556465149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2132800817489624</c:v>
+                  <c:v>0.2087469547986984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1758426278829575</c:v>
+                  <c:v>0.1758466213941574</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09302642196416855</c:v>
+                  <c:v>0.09416303038597107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07260598987340927</c:v>
+                  <c:v>0.07260763645172119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06806811690330505</c:v>
+                  <c:v>0.06806965917348862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01021021697670221</c:v>
+                  <c:v>0.01021044887602329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005672342609614134</c:v>
+                  <c:v>0.005672471597790718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00453787436708808</c:v>
+                  <c:v>0.004537977278232575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00453787436708808</c:v>
+                  <c:v>0.004537977278232575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00453787436708808</c:v>
+                  <c:v>0.004537977278232575</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00453787436708808</c:v>
+                  <c:v>0.004537977278232575</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00113446859177202</c:v>
+                  <c:v>0.001134494319558144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.001134494319558144</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -530,34 +536,34 @@
                   <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>u8g2_font.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>u8g2_font.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>app_oled.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>u8x8_byte.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>app_gameprocess.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>heap_4.o</c:v>
@@ -566,25 +572,25 @@
                   <c:v>event_groups.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>i2c1.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>usart0.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>system_gd32f4xx.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>printf3.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>app_keys.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>system_gd32f4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>printf3.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>exti.o</c:v>
@@ -641,13 +647,13 @@
                   <c:v>u8g2_buffer.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>app_ws2812.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>gd32f4xx_spi.o</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>u8g2_d_setup.o</c:v>
@@ -722,190 +728,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>29.77586936950684</c:v>
+                  <c:v>38.82948684692383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.00238418579102</c:v>
+                  <c:v>8.339613914489746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.826895713806152</c:v>
+                  <c:v>4.0791335105896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.835479259490967</c:v>
+                  <c:v>3.845972776412964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.129709243774414</c:v>
+                  <c:v>3.264248609542847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.962804079055786</c:v>
+                  <c:v>2.720207214355469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.23891282081604</c:v>
+                  <c:v>2.406971216201782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.186456918716431</c:v>
+                  <c:v>2.211493253707886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.85503101348877</c:v>
+                  <c:v>2.159679651260376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.85026228427887</c:v>
+                  <c:v>1.832312822341919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.726275682449341</c:v>
+                  <c:v>1.827602505683899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.652360558509827</c:v>
+                  <c:v>1.705134272575378</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.583214163780212</c:v>
+                  <c:v>1.563824772834778</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.576061010360718</c:v>
+                  <c:v>1.556759357452393</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.430615186691284</c:v>
+                  <c:v>1.422515273094177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.411540269851685</c:v>
+                  <c:v>1.413094639778137</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.344778299331665</c:v>
+                  <c:v>1.394253373146057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.301859855651856</c:v>
+                  <c:v>1.328308939933777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.278016209602356</c:v>
+                  <c:v>1.257654309272766</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.273247480392456</c:v>
+                  <c:v>1.229392409324646</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.244635224342346</c:v>
+                  <c:v>1.229392409324646</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.120648503303528</c:v>
+                  <c:v>1.106924176216126</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.111111164093018</c:v>
+                  <c:v>1.097503542900085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.096804976463318</c:v>
+                  <c:v>1.083372592926025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.096804976463318</c:v>
+                  <c:v>1.083372592926025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.020505428314209</c:v>
+                  <c:v>1.008007526397705</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.90605628490448</c:v>
+                  <c:v>0.8949599862098694</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8679065108299255</c:v>
+                  <c:v>0.8572774529457092</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7343824505805969</c:v>
+                  <c:v>0.7253885865211487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6866952776908875</c:v>
+                  <c:v>0.6782854199409485</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6819265484809876</c:v>
+                  <c:v>0.6735751032829285</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6652360558509827</c:v>
+                  <c:v>0.6570890545845032</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4721029996871948</c:v>
+                  <c:v>0.4663212299346924</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4291845560073853</c:v>
+                  <c:v>0.4239284098148346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4053409695625305</c:v>
+                  <c:v>0.4003768265247345</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3814973831176758</c:v>
+                  <c:v>0.3768252432346344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.357653796672821</c:v>
+                  <c:v>0.3532736599445343</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3147353231906891</c:v>
+                  <c:v>0.3108808398246765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3051978945732117</c:v>
+                  <c:v>0.3014602065086365</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2098235636949539</c:v>
+                  <c:v>0.2260951548814774</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1907486915588379</c:v>
+                  <c:v>0.2072538882493973</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1812112480401993</c:v>
+                  <c:v>0.1884126216173172</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1669051051139832</c:v>
+                  <c:v>0.1648610383272171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1287553608417511</c:v>
+                  <c:v>0.1271785199642181</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1144492104649544</c:v>
+                  <c:v>0.1130475774407387</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1144492104649544</c:v>
+                  <c:v>0.1130475774407387</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.104911781847477</c:v>
+                  <c:v>0.1036269441246986</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.08583690971136093</c:v>
+                  <c:v>0.08478567749261856</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08583690971136093</c:v>
+                  <c:v>0.08478567749261856</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08583690971136093</c:v>
+                  <c:v>0.08478567749261856</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.07153075933456421</c:v>
+                  <c:v>0.0706547349691391</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07153075933456421</c:v>
+                  <c:v>0.0706547349691391</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0619933232665062</c:v>
+                  <c:v>0.06123410165309906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.03814973682165146</c:v>
+                  <c:v>0.03768252581357956</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03338101878762245</c:v>
+                  <c:v>0.03297220915555954</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.02861230261623859</c:v>
+                  <c:v>0.02826189436018467</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.01907486841082573</c:v>
+                  <c:v>0.01884126290678978</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01907486841082573</c:v>
+                  <c:v>0.01884126290678978</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01907486841082573</c:v>
+                  <c:v>0.01884126290678978</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.009537434205412865</c:v>
+                  <c:v>0.00942063145339489</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.009537434205412865</c:v>
+                  <c:v>0.00942063145339489</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009537434205412865</c:v>
+                  <c:v>0.00942063145339489</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -1375,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.15895080566406</v>
+        <v>87.16092681884766</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1401,16 +1407,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.478950023651123</v>
+        <v>6.47909688949585</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
       </c>
       <c r="D4" s="1">
-        <v>3702</v>
+        <v>1386</v>
       </c>
       <c r="E4" s="1">
-        <v>3702</v>
+        <v>1386</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1427,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.306907773017883</v>
+        <v>1.306937456130981</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1453,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.166233658790588</v>
+        <v>1.166260123252869</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1479,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.161695837974548</v>
+        <v>1.161722183227539</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1505,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.161695837974548</v>
+        <v>1.161722183227539</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1531,16 +1537,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9075748324394226</v>
+        <v>0.9075954556465149</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
       </c>
       <c r="D9" s="1">
-        <v>4195</v>
+        <v>3541</v>
       </c>
       <c r="E9" s="1">
-        <v>4152</v>
+        <v>3498</v>
       </c>
       <c r="F9" s="1">
         <v>43</v>
@@ -1557,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2132800817489624</v>
+        <v>0.2087469547986984</v>
       </c>
       <c r="C10" s="1">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D10" s="1">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="E10" s="1">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1583,19 +1589,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1758426278829575</v>
+        <v>0.1758466213941574</v>
       </c>
       <c r="C11" s="1">
         <v>155</v>
       </c>
       <c r="D11" s="1">
-        <v>1662</v>
+        <v>1633</v>
       </c>
       <c r="E11" s="1">
-        <v>1588</v>
+        <v>1544</v>
       </c>
       <c r="F11" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -1609,16 +1615,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09302642196416855</v>
+        <v>0.09416303038597107</v>
       </c>
       <c r="C12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>693</v>
+        <v>1155</v>
       </c>
       <c r="E12" s="1">
-        <v>578</v>
+        <v>1040</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
@@ -1627,7 +1633,7 @@
         <v>79</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1635,16 +1641,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07260598987340927</v>
+        <v>0.07260763645172119</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
       </c>
       <c r="D13" s="1">
-        <v>2028</v>
+        <v>1022</v>
       </c>
       <c r="E13" s="1">
-        <v>2008</v>
+        <v>1002</v>
       </c>
       <c r="F13" s="1">
         <v>20</v>
@@ -1661,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.06806811690330505</v>
+        <v>0.06806965917348862</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -1687,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.01021021697670221</v>
+        <v>0.01021044887602329</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -1713,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.005672342609614134</v>
+        <v>0.005672471597790718</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1739,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.00453787436708808</v>
+        <v>0.004537977278232575</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1765,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.00453787436708808</v>
+        <v>0.004537977278232575</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1791,7 +1797,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.00453787436708808</v>
+        <v>0.004537977278232575</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1817,16 +1823,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.00453787436708808</v>
+        <v>0.004537977278232575</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1843,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.00113446859177202</v>
+        <v>0.001134494319558144</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1861,6 +1867,32 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.001134494319558144</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>604</v>
+      </c>
+      <c r="E22" s="1">
+        <v>604</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1950,13 +1982,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>29.77586936950684</v>
+        <v>38.82948684692383</v>
       </c>
       <c r="C3" s="1">
-        <v>12488</v>
+        <v>16487</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1965,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>12488</v>
+        <v>16487</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1979,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>10.00238418579102</v>
+        <v>8.339613914489746</v>
       </c>
       <c r="C4" s="1">
-        <v>4195</v>
+        <v>3541</v>
       </c>
       <c r="D4" s="1">
         <v>800</v>
       </c>
       <c r="E4" s="1">
-        <v>4152</v>
+        <v>3498</v>
       </c>
       <c r="F4" s="1">
         <v>43</v>
@@ -2002,19 +2034,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>8.826895713806152</v>
+        <v>4.0791335105896</v>
       </c>
       <c r="C5" s="1">
-        <v>3702</v>
+        <v>1732</v>
       </c>
       <c r="D5" s="1">
-        <v>5711</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>3702</v>
+        <v>1732</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2023,50 +2055,50 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>5711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>4.835479259490967</v>
+        <v>3.845972776412964</v>
       </c>
       <c r="C6" s="1">
-        <v>2028</v>
+        <v>1633</v>
       </c>
       <c r="D6" s="1">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1">
-        <v>2008</v>
+        <v>1544</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>4.129709243774414</v>
+        <v>3.264248609542847</v>
       </c>
       <c r="C7" s="1">
-        <v>1732</v>
+        <v>1386</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E7" s="1">
-        <v>1732</v>
+        <v>1386</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2075,160 +2107,160 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>3.962804079055786</v>
+        <v>2.720207214355469</v>
       </c>
       <c r="C8" s="1">
-        <v>1662</v>
+        <v>1155</v>
       </c>
       <c r="D8" s="1">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1">
-        <v>1588</v>
+        <v>1040</v>
       </c>
       <c r="F8" s="1">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1">
         <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>2.23891282081604</v>
+        <v>2.406971216201782</v>
       </c>
       <c r="C9" s="1">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.186456918716431</v>
+        <v>2.211493253707886</v>
       </c>
       <c r="C10" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="D10" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F10" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>1.85503101348877</v>
+        <v>2.159679651260376</v>
       </c>
       <c r="C11" s="1">
-        <v>778</v>
+        <v>917</v>
       </c>
       <c r="D11" s="1">
-        <v>1152</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>778</v>
+        <v>872</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>1152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>1.85026228427887</v>
+        <v>1.832312822341919</v>
       </c>
       <c r="C12" s="1">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="E12" s="1">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>1.726275682449341</v>
+        <v>1.827602505683899</v>
       </c>
       <c r="C13" s="1">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -2236,28 +2268,28 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>1.652360558509827</v>
+        <v>1.705134272575378</v>
       </c>
       <c r="C14" s="1">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="D14" s="1">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>578</v>
+        <v>724</v>
       </c>
       <c r="F14" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2265,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>1.583214163780212</v>
+        <v>1.563824772834778</v>
       </c>
       <c r="C15" s="1">
         <v>664</v>
@@ -2288,10 +2320,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.576061010360718</v>
+        <v>1.556759357452393</v>
       </c>
       <c r="C16" s="1">
         <v>661</v>
@@ -2314,19 +2346,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>1.430615186691284</v>
+        <v>1.422515273094177</v>
       </c>
       <c r="C17" s="1">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2335,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2343,16 +2375,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.411540269851685</v>
+        <v>1.413094639778137</v>
       </c>
       <c r="C18" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2366,19 +2398,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.344778299331665</v>
+        <v>1.394253373146057</v>
       </c>
       <c r="C19" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D19" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2387,24 +2419,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>1.301859855651856</v>
+        <v>1.328308939933777</v>
       </c>
       <c r="C20" s="1">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="D20" s="1">
-        <v>188</v>
+        <v>1028</v>
       </c>
       <c r="E20" s="1">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2413,30 +2445,30 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>188</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1.278016209602356</v>
+        <v>1.257654309272766</v>
       </c>
       <c r="C21" s="1">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2444,25 +2476,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.273247480392456</v>
+        <v>1.229392409324646</v>
       </c>
       <c r="C22" s="1">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2470,16 +2502,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1.244635224342346</v>
+        <v>1.229392409324646</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E23" s="1">
         <v>522</v>
@@ -2491,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2499,7 +2531,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1.120648503303528</v>
+        <v>1.106924176216126</v>
       </c>
       <c r="C24" s="1">
         <v>470</v>
@@ -2525,7 +2557,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.111111164093018</v>
+        <v>1.097503542900085</v>
       </c>
       <c r="C25" s="1">
         <v>466</v>
@@ -2551,7 +2583,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>1.096804976463318</v>
+        <v>1.083372592926025</v>
       </c>
       <c r="C26" s="1">
         <v>460</v>
@@ -2577,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>1.096804976463318</v>
+        <v>1.083372592926025</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
@@ -2603,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>1.020505428314209</v>
+        <v>1.008007526397705</v>
       </c>
       <c r="C28" s="1">
         <v>428</v>
@@ -2629,7 +2661,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>0.90605628490448</v>
+        <v>0.8949599862098694</v>
       </c>
       <c r="C29" s="1">
         <v>380</v>
@@ -2655,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8679065108299255</v>
+        <v>0.8572774529457092</v>
       </c>
       <c r="C30" s="1">
         <v>364</v>
@@ -2681,7 +2713,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7343824505805969</v>
+        <v>0.7253885865211487</v>
       </c>
       <c r="C31" s="1">
         <v>308</v>
@@ -2707,7 +2739,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6866952776908875</v>
+        <v>0.6782854199409485</v>
       </c>
       <c r="C32" s="1">
         <v>288</v>
@@ -2733,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6819265484809876</v>
+        <v>0.6735751032829285</v>
       </c>
       <c r="C33" s="1">
         <v>286</v>
@@ -2759,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6652360558509827</v>
+        <v>0.6570890545845032</v>
       </c>
       <c r="C34" s="1">
         <v>279</v>
@@ -2785,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4721029996871948</v>
+        <v>0.4663212299346924</v>
       </c>
       <c r="C35" s="1">
         <v>198</v>
@@ -2811,7 +2843,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4291845560073853</v>
+        <v>0.4239284098148346</v>
       </c>
       <c r="C36" s="1">
         <v>180</v>
@@ -2837,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4053409695625305</v>
+        <v>0.4003768265247345</v>
       </c>
       <c r="C37" s="1">
         <v>170</v>
@@ -2863,7 +2895,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3814973831176758</v>
+        <v>0.3768252432346344</v>
       </c>
       <c r="C38" s="1">
         <v>160</v>
@@ -2889,7 +2921,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.357653796672821</v>
+        <v>0.3532736599445343</v>
       </c>
       <c r="C39" s="1">
         <v>150</v>
@@ -2915,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3147353231906891</v>
+        <v>0.3108808398246765</v>
       </c>
       <c r="C40" s="1">
         <v>132</v>
@@ -2941,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3051978945732117</v>
+        <v>0.3014602065086365</v>
       </c>
       <c r="C41" s="1">
         <v>128</v>
@@ -2964,19 +2996,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
-        <v>0.2098235636949539</v>
+        <v>0.2260951548814774</v>
       </c>
       <c r="C42" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2985,24 +3017,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.1907486915588379</v>
+        <v>0.2072538882493973</v>
       </c>
       <c r="C43" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3016,19 +3048,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.1812112480401993</v>
+        <v>0.1884126216173172</v>
       </c>
       <c r="C44" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3037,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3045,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.1669051051139832</v>
+        <v>0.1648610383272171</v>
       </c>
       <c r="C45" s="1">
         <v>70</v>
@@ -3071,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1287553608417511</v>
+        <v>0.1271785199642181</v>
       </c>
       <c r="C46" s="1">
         <v>54</v>
@@ -3097,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1144492104649544</v>
+        <v>0.1130475774407387</v>
       </c>
       <c r="C47" s="1">
         <v>48</v>
@@ -3123,7 +3155,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1144492104649544</v>
+        <v>0.1130475774407387</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3149,7 +3181,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.104911781847477</v>
+        <v>0.1036269441246986</v>
       </c>
       <c r="C49" s="1">
         <v>44</v>
@@ -3175,7 +3207,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.08583690971136093</v>
+        <v>0.08478567749261856</v>
       </c>
       <c r="C50" s="1">
         <v>36</v>
@@ -3201,7 +3233,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08583690971136093</v>
+        <v>0.08478567749261856</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3227,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08583690971136093</v>
+        <v>0.08478567749261856</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3253,7 +3285,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.07153075933456421</v>
+        <v>0.0706547349691391</v>
       </c>
       <c r="C53" s="1">
         <v>30</v>
@@ -3279,7 +3311,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.07153075933456421</v>
+        <v>0.0706547349691391</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3305,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.0619933232665062</v>
+        <v>0.06123410165309906</v>
       </c>
       <c r="C55" s="1">
         <v>26</v>
@@ -3331,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>0.03814973682165146</v>
+        <v>0.03768252581357956</v>
       </c>
       <c r="C56" s="1">
         <v>16</v>
@@ -3357,7 +3389,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03338101878762245</v>
+        <v>0.03297220915555954</v>
       </c>
       <c r="C57" s="1">
         <v>14</v>
@@ -3383,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.02861230261623859</v>
+        <v>0.02826189436018467</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3409,7 +3441,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.01907486841082573</v>
+        <v>0.01884126290678978</v>
       </c>
       <c r="C59" s="1">
         <v>8</v>
@@ -3435,7 +3467,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01907486841082573</v>
+        <v>0.01884126290678978</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3461,7 +3493,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01907486841082573</v>
+        <v>0.01884126290678978</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3487,7 +3519,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="2">
-        <v>0.009537434205412865</v>
+        <v>0.00942063145339489</v>
       </c>
       <c r="C62" s="1">
         <v>4</v>
@@ -3513,7 +3545,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.009537434205412865</v>
+        <v>0.00942063145339489</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -3539,7 +3571,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009537434205412865</v>
+        <v>0.00942063145339489</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -399,64 +399,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>87.16092681884766</c:v>
+                  <c:v>87.13917541503906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.47909688949585</c:v>
+                  <c:v>6.477480411529541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.306937456130981</c:v>
+                  <c:v>1.306611299514771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.166260123252869</c:v>
+                  <c:v>1.165969133377075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.161722183227539</c:v>
+                  <c:v>1.161432266235352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.161722183227539</c:v>
+                  <c:v>1.161432266235352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9075954556465149</c:v>
+                  <c:v>0.9073689579963684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2087469547986984</c:v>
+                  <c:v>0.2086948603391647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1758466213941574</c:v>
+                  <c:v>0.1758027374744415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09416303038597107</c:v>
+                  <c:v>0.1190921738743782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07260763645172119</c:v>
+                  <c:v>0.07258951663970947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06806965917348862</c:v>
+                  <c:v>0.06805267184972763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01021044887602329</c:v>
+                  <c:v>0.01020790077745915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005672471597790718</c:v>
+                  <c:v>0.005671055987477303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004537977278232575</c:v>
+                  <c:v>0.004536844789981842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004537977278232575</c:v>
+                  <c:v>0.004536844789981842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004537977278232575</c:v>
+                  <c:v>0.004536844789981842</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004537977278232575</c:v>
+                  <c:v>0.004536844789981842</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001134494319558144</c:v>
+                  <c:v>0.001134211197495461</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001134494319558144</c:v>
+                  <c:v>0.001134211197495461</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -557,22 +557,22 @@
                   <c:v>port.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>u8x8_byte.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>event_groups.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>app_keys.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>i2c1.o</c:v>
@@ -728,190 +728,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>38.82948684692383</c:v>
+                  <c:v>38.4832649230957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.339613914489746</c:v>
+                  <c:v>8.265254020690918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0791335105896</c:v>
+                  <c:v>4.04276180267334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.845972776412964</c:v>
+                  <c:v>3.858363389968872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.264248609542847</c:v>
+                  <c:v>3.235143184661865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.720207214355469</c:v>
+                  <c:v>3.07408618927002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.406971216201782</c:v>
+                  <c:v>2.385509490966797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.211493253707886</c:v>
+                  <c:v>2.191774368286133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.159679651260376</c:v>
+                  <c:v>2.140423059463501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.832312822341919</c:v>
+                  <c:v>1.876663088798523</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.827602505683899</c:v>
+                  <c:v>1.815974950790405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.705134272575378</c:v>
+                  <c:v>1.811306715011597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.563824772834778</c:v>
+                  <c:v>1.689930438995361</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.556759357452393</c:v>
+                  <c:v>1.549880981445313</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.422515273094177</c:v>
+                  <c:v>1.54287850856781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.413094639778137</c:v>
+                  <c:v>1.400494813919067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.394253373146057</c:v>
+                  <c:v>1.381821632385254</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.328308939933777</c:v>
+                  <c:v>1.316465139389038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.257654309272766</c:v>
+                  <c:v>1.246440410614014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.229392409324646</c:v>
+                  <c:v>1.218430519104004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.229392409324646</c:v>
+                  <c:v>1.218430519104004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.106924176216126</c:v>
+                  <c:v>1.097054243087769</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.097503542900085</c:v>
+                  <c:v>1.087717652320862</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.083372592926025</c:v>
+                  <c:v>1.073712706565857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.083372592926025</c:v>
+                  <c:v>1.073712706565857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.008007526397705</c:v>
+                  <c:v>0.9990196824073792</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8949599862098694</c:v>
+                  <c:v>0.8869800567626953</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8572774529457092</c:v>
+                  <c:v>0.849633514881134</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7253885865211487</c:v>
+                  <c:v>0.7189207077026367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6782854199409485</c:v>
+                  <c:v>0.6722375154495239</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6735751032829285</c:v>
+                  <c:v>0.6675692200660706</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6570890545845032</c:v>
+                  <c:v>0.6512300968170166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4663212299346924</c:v>
+                  <c:v>0.4621632993221283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4239284098148346</c:v>
+                  <c:v>0.4201484620571137</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4003768265247345</c:v>
+                  <c:v>0.3968068659305573</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3768252432346344</c:v>
+                  <c:v>0.3734652996063232</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3532736599445343</c:v>
+                  <c:v>0.3501237034797669</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3108808398246765</c:v>
+                  <c:v>0.3081088662147522</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3014602065086365</c:v>
+                  <c:v>0.2987722456455231</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2260951548814774</c:v>
+                  <c:v>0.2240791767835617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2072538882493973</c:v>
+                  <c:v>0.2054059058427811</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1884126216173172</c:v>
+                  <c:v>0.1867326498031616</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1648610383272171</c:v>
+                  <c:v>0.1633910685777664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1271785199642181</c:v>
+                  <c:v>0.1260445415973663</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1130475774407387</c:v>
+                  <c:v>0.1120395883917809</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1130475774407387</c:v>
+                  <c:v>0.1120395883917809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1036269441246986</c:v>
+                  <c:v>0.1027029529213905</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.08478567749261856</c:v>
+                  <c:v>0.08402968943119049</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08478567749261856</c:v>
+                  <c:v>0.08402968943119049</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08478567749261856</c:v>
+                  <c:v>0.08402968943119049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0706547349691391</c:v>
+                  <c:v>0.07002474367618561</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0706547349691391</c:v>
+                  <c:v>0.07002474367618561</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.06123410165309906</c:v>
+                  <c:v>0.06068810820579529</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.03768252581357956</c:v>
+                  <c:v>0.03734653070569038</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03297220915555954</c:v>
+                  <c:v>0.03267821297049522</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.02826189436018467</c:v>
+                  <c:v>0.02800989709794521</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.01884126290678978</c:v>
+                  <c:v>0.01867326535284519</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01884126290678978</c:v>
+                  <c:v>0.01867326535284519</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01884126290678978</c:v>
+                  <c:v>0.01867326535284519</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00942063145339489</c:v>
+                  <c:v>0.009336632676422596</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00942063145339489</c:v>
+                  <c:v>0.009336632676422596</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.00942063145339489</c:v>
+                  <c:v>0.009336632676422596</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.16092681884766</v>
+        <v>87.13917541503906</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.47909688949585</v>
+        <v>6.477480411529541</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.306937456130981</v>
+        <v>1.306611299514771</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.166260123252869</v>
+        <v>1.165969133377075</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.161722183227539</v>
+        <v>1.161432266235352</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.161722183227539</v>
+        <v>1.161432266235352</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9075954556465149</v>
+        <v>0.9073689579963684</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2087469547986984</v>
+        <v>0.2086948603391647</v>
       </c>
       <c r="C10" s="1">
         <v>184</v>
@@ -1589,25 +1589,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1758466213941574</v>
+        <v>0.1758027374744415</v>
       </c>
       <c r="C11" s="1">
         <v>155</v>
       </c>
       <c r="D11" s="1">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="E11" s="1">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="F11" s="1">
         <v>85</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1615,25 +1615,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09416303038597107</v>
+        <v>0.1190921738743782</v>
       </c>
       <c r="C12" s="1">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>1155</v>
+        <v>1317</v>
       </c>
       <c r="E12" s="1">
-        <v>1040</v>
+        <v>1186</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
       </c>
       <c r="G12" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07260763645172119</v>
+        <v>0.07258951663970947</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
@@ -1667,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.06806965917348862</v>
+        <v>0.06805267184972763</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -1693,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.01021044887602329</v>
+        <v>0.01020790077745915</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -1719,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.005672471597790718</v>
+        <v>0.005671055987477303</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1745,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.004537977278232575</v>
+        <v>0.004536844789981842</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.004537977278232575</v>
+        <v>0.004536844789981842</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1797,7 +1797,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004537977278232575</v>
+        <v>0.004536844789981842</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1823,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004537977278232575</v>
+        <v>0.004536844789981842</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.001134494319558144</v>
+        <v>0.001134211197495461</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1875,16 +1875,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.001134494319558144</v>
+        <v>0.001134211197495461</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>604</v>
+        <v>804</v>
       </c>
       <c r="E22" s="1">
-        <v>604</v>
+        <v>804</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>38.82948684692383</v>
+        <v>38.4832649230957</v>
       </c>
       <c r="C3" s="1">
         <v>16487</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.339613914489746</v>
+        <v>8.265254020690918</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2037,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>4.0791335105896</v>
+        <v>4.04276180267334</v>
       </c>
       <c r="C5" s="1">
         <v>1732</v>
@@ -2063,25 +2063,25 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>3.845972776412964</v>
+        <v>3.858363389968872</v>
       </c>
       <c r="C6" s="1">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="D6" s="1">
         <v>155</v>
       </c>
       <c r="E6" s="1">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="F6" s="1">
         <v>85</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3.264248609542847</v>
+        <v>3.235143184661865</v>
       </c>
       <c r="C7" s="1">
         <v>1386</v>
@@ -2115,25 +2115,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>2.720207214355469</v>
+        <v>3.07408618927002</v>
       </c>
       <c r="C8" s="1">
-        <v>1155</v>
+        <v>1317</v>
       </c>
       <c r="D8" s="1">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1">
-        <v>1040</v>
+        <v>1186</v>
       </c>
       <c r="F8" s="1">
         <v>36</v>
       </c>
       <c r="G8" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2141,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>2.406971216201782</v>
+        <v>2.385509490966797</v>
       </c>
       <c r="C9" s="1">
         <v>1022</v>
@@ -2167,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.211493253707886</v>
+        <v>2.191774368286133</v>
       </c>
       <c r="C10" s="1">
         <v>939</v>
@@ -2193,7 +2193,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.159679651260376</v>
+        <v>2.140423059463501</v>
       </c>
       <c r="C11" s="1">
         <v>917</v>
@@ -2216,19 +2216,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>1.832312822341919</v>
+        <v>1.876663088798523</v>
       </c>
       <c r="C12" s="1">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="D12" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2237,56 +2237,56 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>1.827602505683899</v>
+        <v>1.815974950790405</v>
       </c>
       <c r="C13" s="1">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="E13" s="1">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>1.705134272575378</v>
+        <v>1.811306715011597</v>
       </c>
       <c r="C14" s="1">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2294,80 +2294,80 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.563824772834778</v>
+        <v>1.689930438995361</v>
       </c>
       <c r="C15" s="1">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="D15" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="F15" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>1.556759357452393</v>
+        <v>1.549880981445313</v>
       </c>
       <c r="C16" s="1">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
       <c r="E16" s="1">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="F16" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1.422515273094177</v>
+        <v>1.54287850856781</v>
       </c>
       <c r="C17" s="1">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2375,7 +2375,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.413094639778137</v>
+        <v>1.400494813919067</v>
       </c>
       <c r="C18" s="1">
         <v>600</v>
@@ -2401,7 +2401,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.394253373146057</v>
+        <v>1.381821632385254</v>
       </c>
       <c r="C19" s="1">
         <v>592</v>
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>1.328308939933777</v>
+        <v>1.316465139389038</v>
       </c>
       <c r="C20" s="1">
         <v>564</v>
@@ -2453,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1.257654309272766</v>
+        <v>1.246440410614014</v>
       </c>
       <c r="C21" s="1">
         <v>534</v>
@@ -2479,7 +2479,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.229392409324646</v>
+        <v>1.218430519104004</v>
       </c>
       <c r="C22" s="1">
         <v>522</v>
@@ -2505,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1.229392409324646</v>
+        <v>1.218430519104004</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
@@ -2531,7 +2531,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1.106924176216126</v>
+        <v>1.097054243087769</v>
       </c>
       <c r="C24" s="1">
         <v>470</v>
@@ -2557,7 +2557,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.097503542900085</v>
+        <v>1.087717652320862</v>
       </c>
       <c r="C25" s="1">
         <v>466</v>
@@ -2583,7 +2583,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>1.083372592926025</v>
+        <v>1.073712706565857</v>
       </c>
       <c r="C26" s="1">
         <v>460</v>
@@ -2609,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>1.083372592926025</v>
+        <v>1.073712706565857</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
@@ -2635,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>1.008007526397705</v>
+        <v>0.9990196824073792</v>
       </c>
       <c r="C28" s="1">
         <v>428</v>
@@ -2661,7 +2661,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8949599862098694</v>
+        <v>0.8869800567626953</v>
       </c>
       <c r="C29" s="1">
         <v>380</v>
@@ -2687,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8572774529457092</v>
+        <v>0.849633514881134</v>
       </c>
       <c r="C30" s="1">
         <v>364</v>
@@ -2713,7 +2713,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7253885865211487</v>
+        <v>0.7189207077026367</v>
       </c>
       <c r="C31" s="1">
         <v>308</v>
@@ -2739,7 +2739,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6782854199409485</v>
+        <v>0.6722375154495239</v>
       </c>
       <c r="C32" s="1">
         <v>288</v>
@@ -2765,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6735751032829285</v>
+        <v>0.6675692200660706</v>
       </c>
       <c r="C33" s="1">
         <v>286</v>
@@ -2791,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6570890545845032</v>
+        <v>0.6512300968170166</v>
       </c>
       <c r="C34" s="1">
         <v>279</v>
@@ -2817,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4663212299346924</v>
+        <v>0.4621632993221283</v>
       </c>
       <c r="C35" s="1">
         <v>198</v>
@@ -2843,7 +2843,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4239284098148346</v>
+        <v>0.4201484620571137</v>
       </c>
       <c r="C36" s="1">
         <v>180</v>
@@ -2869,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4003768265247345</v>
+        <v>0.3968068659305573</v>
       </c>
       <c r="C37" s="1">
         <v>170</v>
@@ -2895,7 +2895,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3768252432346344</v>
+        <v>0.3734652996063232</v>
       </c>
       <c r="C38" s="1">
         <v>160</v>
@@ -2921,7 +2921,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3532736599445343</v>
+        <v>0.3501237034797669</v>
       </c>
       <c r="C39" s="1">
         <v>150</v>
@@ -2947,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3108808398246765</v>
+        <v>0.3081088662147522</v>
       </c>
       <c r="C40" s="1">
         <v>132</v>
@@ -2973,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3014602065086365</v>
+        <v>0.2987722456455231</v>
       </c>
       <c r="C41" s="1">
         <v>128</v>
@@ -2999,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="2">
-        <v>0.2260951548814774</v>
+        <v>0.2240791767835617</v>
       </c>
       <c r="C42" s="1">
         <v>96</v>
@@ -3025,7 +3025,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2072538882493973</v>
+        <v>0.2054059058427811</v>
       </c>
       <c r="C43" s="1">
         <v>88</v>
@@ -3051,7 +3051,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.1884126216173172</v>
+        <v>0.1867326498031616</v>
       </c>
       <c r="C44" s="1">
         <v>80</v>
@@ -3077,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.1648610383272171</v>
+        <v>0.1633910685777664</v>
       </c>
       <c r="C45" s="1">
         <v>70</v>
@@ -3103,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1271785199642181</v>
+        <v>0.1260445415973663</v>
       </c>
       <c r="C46" s="1">
         <v>54</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1130475774407387</v>
+        <v>0.1120395883917809</v>
       </c>
       <c r="C47" s="1">
         <v>48</v>
@@ -3155,7 +3155,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1130475774407387</v>
+        <v>0.1120395883917809</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3181,7 +3181,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1036269441246986</v>
+        <v>0.1027029529213905</v>
       </c>
       <c r="C49" s="1">
         <v>44</v>
@@ -3207,7 +3207,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.08478567749261856</v>
+        <v>0.08402968943119049</v>
       </c>
       <c r="C50" s="1">
         <v>36</v>
@@ -3233,7 +3233,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08478567749261856</v>
+        <v>0.08402968943119049</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3259,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08478567749261856</v>
+        <v>0.08402968943119049</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3285,7 +3285,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.0706547349691391</v>
+        <v>0.07002474367618561</v>
       </c>
       <c r="C53" s="1">
         <v>30</v>
@@ -3311,7 +3311,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.0706547349691391</v>
+        <v>0.07002474367618561</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3337,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.06123410165309906</v>
+        <v>0.06068810820579529</v>
       </c>
       <c r="C55" s="1">
         <v>26</v>
@@ -3363,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>0.03768252581357956</v>
+        <v>0.03734653070569038</v>
       </c>
       <c r="C56" s="1">
         <v>16</v>
@@ -3389,7 +3389,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03297220915555954</v>
+        <v>0.03267821297049522</v>
       </c>
       <c r="C57" s="1">
         <v>14</v>
@@ -3415,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.02826189436018467</v>
+        <v>0.02800989709794521</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3441,7 +3441,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.01884126290678978</v>
+        <v>0.01867326535284519</v>
       </c>
       <c r="C59" s="1">
         <v>8</v>
@@ -3467,7 +3467,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01884126290678978</v>
+        <v>0.01867326535284519</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3493,7 +3493,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01884126290678978</v>
+        <v>0.01867326535284519</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3519,7 +3519,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="2">
-        <v>0.00942063145339489</v>
+        <v>0.009336632676422596</v>
       </c>
       <c r="C62" s="1">
         <v>4</v>
@@ -3545,7 +3545,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.00942063145339489</v>
+        <v>0.009336632676422596</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -3571,7 +3571,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.00942063145339489</v>
+        <v>0.009336632676422596</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -41,12 +41,12 @@
     <t>tasks.o</t>
   </si>
   <si>
+    <t>app_oled.o</t>
+  </si>
+  <si>
     <t>main.o</t>
   </si>
   <si>
-    <t>app_oled.o</t>
-  </si>
-  <si>
     <t>app_gameprocess.o</t>
   </si>
   <si>
@@ -56,6 +56,9 @@
     <t>timers.o</t>
   </si>
   <si>
+    <t>app_levelconfig.o</t>
+  </si>
+  <si>
     <t>port.o</t>
   </si>
   <si>
@@ -71,7 +74,7 @@
     <t>system_gd32f4xx.o</t>
   </si>
   <si>
-    <t>app_levelconfig.o</t>
+    <t>app_countdown.o</t>
   </si>
   <si>
     <t>u8x8_cad.o</t>
@@ -323,9 +326,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$65</c:f>
+              <c:f>ram_percent!$A$3:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -348,10 +351,10 @@
                   <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>app_oled.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>app_gameprocess.o</c:v>
@@ -363,30 +366,33 @@
                   <c:v>timers.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>app_levelconfig.o</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>app_countdown.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>u8x8_cad.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>app_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -394,71 +400,74 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$65</c:f>
+              <c:f>ram_percent!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>87.13917541503906</c:v>
+                  <c:v>87.08583831787109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.477480411529541</c:v>
+                  <c:v>6.473515510559082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.306611299514771</c:v>
+                  <c:v>1.305811524391174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.165969133377075</c:v>
+                  <c:v>1.165255427360535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.161432266235352</c:v>
+                  <c:v>1.16072142124176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.161432266235352</c:v>
+                  <c:v>1.16072142124176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9073689579963684</c:v>
+                  <c:v>0.9068135619163513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2086948603391647</c:v>
+                  <c:v>0.2142347097396851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1758027374744415</c:v>
+                  <c:v>0.2085671275854111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1190921738743782</c:v>
+                  <c:v>0.09068135917186737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07258951663970947</c:v>
+                  <c:v>0.07254508882761002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06805267184972763</c:v>
+                  <c:v>0.06801101565361023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01020790077745915</c:v>
+                  <c:v>0.05100826174020767</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005671055987477303</c:v>
+                  <c:v>0.01020165253430605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004536844789981842</c:v>
+                  <c:v>0.005667584948241711</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004536844789981842</c:v>
+                  <c:v>0.004534068051725626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004536844789981842</c:v>
+                  <c:v>0.004534068051725626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004536844789981842</c:v>
+                  <c:v>0.004534068051725626</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001134211197495461</c:v>
+                  <c:v>0.004534068051725626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001134211197495461</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                  <c:v>0.001133517012931407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.001133517012931407</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -526,9 +535,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$65</c:f>
+              <c:f>flash_percent!$A$3:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>u8g2_fonts.o</c:v>
                 </c:pt>
@@ -536,19 +545,19 @@
                   <c:v>tasks.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>app_oled.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>u8g2_font.o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>app_oled.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>queue.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>app_gameprocess.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>queue.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>timers.o</c:v>
@@ -557,165 +566,168 @@
                   <c:v>port.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>app_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>u8x8_byte.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>event_groups.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>i2c1.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>usart0.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>printf3.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>exti.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>u8g2_hvline.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>u8x8_cad.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>startup_gd32f407_427.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>spi1.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>spi0.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>u8g2_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>u8x8_display.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>u8g2_ll_hvline.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>u8g2_intersection.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>u8g2_buffer.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>app_levelconfig.o</c:v>
-                </c:pt>
                 <c:pt idx="40">
+                  <c:v>app_countdown.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>app_ws2812.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>u8g2_d_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>u8x8_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>puts.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>gd32f4xx_exti.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>u8x8_8x8.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>u8g2_d_memory.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>spi.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>u8x8_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -723,197 +735,200 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$65</c:f>
+              <c:f>flash_percent!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>38.4832649230957</c:v>
+                  <c:v>37.89679336547852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.265254020690918</c:v>
+                  <c:v>8.139294624328613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.04276180267334</c:v>
+                  <c:v>4.01563024520874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.858363389968872</c:v>
+                  <c:v>3.981151580810547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.235143184661865</c:v>
+                  <c:v>3.185840606689453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.07408618927002</c:v>
+                  <c:v>2.349155187606812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.385509490966797</c:v>
+                  <c:v>2.259510517120361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.191774368286133</c:v>
+                  <c:v>2.158372640609741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.140423059463501</c:v>
+                  <c:v>2.107803583145142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.876663088798523</c:v>
+                  <c:v>2.038846015930176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.815974950790405</c:v>
+                  <c:v>1.848063468933106</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.811306715011597</c:v>
+                  <c:v>1.788300156593323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.689930438995361</c:v>
+                  <c:v>1.783702969551086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.549880981445313</c:v>
+                  <c:v>1.6641765832901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.54287850856781</c:v>
+                  <c:v>1.526261329650879</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.400494813919067</c:v>
+                  <c:v>1.519365549087524</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.381821632385254</c:v>
+                  <c:v>1.379151821136475</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.316465139389038</c:v>
+                  <c:v>1.360763072967529</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.246440410614014</c:v>
+                  <c:v>1.2964026927948</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.218430519104004</c:v>
+                  <c:v>1.227445125579834</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.218430519104004</c:v>
+                  <c:v>1.199862122535706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.097054243087769</c:v>
+                  <c:v>1.199862122535706</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.087717652320862</c:v>
+                  <c:v>1.08033561706543</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.073712706565857</c:v>
+                  <c:v>1.071141242980957</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.073712706565857</c:v>
+                  <c:v>1.057349681854248</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9990196824073792</c:v>
+                  <c:v>1.057349681854248</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8869800567626953</c:v>
+                  <c:v>0.9837949872016907</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.849633514881134</c:v>
+                  <c:v>0.8734627962112427</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7189207077026367</c:v>
+                  <c:v>0.8366854190826416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6722375154495239</c:v>
+                  <c:v>0.7079645991325378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6675692200660706</c:v>
+                  <c:v>0.6619928479194641</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6512300968170166</c:v>
+                  <c:v>0.6573957204818726</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4621632993221283</c:v>
+                  <c:v>0.6413056254386902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4201484620571137</c:v>
+                  <c:v>0.4551200866699219</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3968068659305573</c:v>
+                  <c:v>0.4137455523014069</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3734652996063232</c:v>
+                  <c:v>0.39075967669487</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3501237034797669</c:v>
+                  <c:v>0.3677738308906555</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3081088662147522</c:v>
+                  <c:v>0.3447879552841187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2987722456455231</c:v>
+                  <c:v>0.3034133911132813</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2240791767835617</c:v>
+                  <c:v>0.294219046831131</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2054059058427811</c:v>
+                  <c:v>0.2574416697025299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1867326498031616</c:v>
+                  <c:v>0.2022756040096283</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1633910685777664</c:v>
+                  <c:v>0.1838869154453278</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1260445415973663</c:v>
+                  <c:v>0.1609010398387909</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1120395883917809</c:v>
+                  <c:v>0.1241236627101898</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1120395883917809</c:v>
+                  <c:v>0.1103321462869644</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1027029529213905</c:v>
+                  <c:v>0.1103321462869644</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.08402968943119049</c:v>
+                  <c:v>0.1011378020048142</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08402968943119049</c:v>
+                  <c:v>0.08274910598993301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08402968943119049</c:v>
+                  <c:v>0.08274910598993301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.07002474367618561</c:v>
+                  <c:v>0.08274910598993301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07002474367618561</c:v>
+                  <c:v>0.06895758956670761</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.06068810820579529</c:v>
+                  <c:v>0.06895758956670761</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.03734653070569038</c:v>
+                  <c:v>0.05976324528455734</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03267821297049522</c:v>
+                  <c:v>0.03677738085389137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.02800989709794521</c:v>
+                  <c:v>0.03218020871281624</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.01867326535284519</c:v>
+                  <c:v>0.0275830365717411</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01867326535284519</c:v>
+                  <c:v>0.01838869042694569</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01867326535284519</c:v>
+                  <c:v>0.01838869042694569</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.009336632676422596</c:v>
+                  <c:v>0.01838869042694569</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.009336632676422596</c:v>
+                  <c:v>0.009194345213472843</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009336632676422596</c:v>
+                  <c:v>0.009194345213472843</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>0.009194345213472843</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1018,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H65" totalsRowCount="1">
-  <autoFilter ref="A2:H64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H66" totalsRowCount="1">
+  <autoFilter ref="A2:H65"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1035,8 +1050,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H65" totalsRowCount="1">
-  <autoFilter ref="A2:H64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H66" totalsRowCount="1">
+  <autoFilter ref="A2:H65"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1336,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1352,28 +1367,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1381,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.13917541503906</v>
+        <v>87.08583831787109</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1407,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.477480411529541</v>
+        <v>6.473515510559082</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1433,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.306611299514771</v>
+        <v>1.305811524391174</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1459,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.165969133377075</v>
+        <v>1.165255427360535</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1485,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.161432266235352</v>
+        <v>1.16072142124176</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1511,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.161432266235352</v>
+        <v>1.16072142124176</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1537,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9073689579963684</v>
+        <v>0.9068135619163513</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1563,25 +1578,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2086948603391647</v>
+        <v>0.2142347097396851</v>
       </c>
       <c r="C10" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1">
-        <v>522</v>
+        <v>1747</v>
       </c>
       <c r="E10" s="1">
-        <v>522</v>
+        <v>1632</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1589,25 +1604,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1758027374744415</v>
+        <v>0.2085671275854111</v>
       </c>
       <c r="C11" s="1">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1">
-        <v>1653</v>
+        <v>522</v>
       </c>
       <c r="E11" s="1">
-        <v>1560</v>
+        <v>522</v>
       </c>
       <c r="F11" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1615,25 +1630,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1190921738743782</v>
+        <v>0.09068135917186737</v>
       </c>
       <c r="C12" s="1">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>1317</v>
+        <v>983</v>
       </c>
       <c r="E12" s="1">
-        <v>1186</v>
+        <v>872</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
       </c>
       <c r="G12" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1641,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07258951663970947</v>
+        <v>0.07254508882761002</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
@@ -1667,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.06805267184972763</v>
+        <v>0.06801101565361023</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -1693,22 +1708,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.01020790077745915</v>
+        <v>0.05100826174020767</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="E15" s="1">
-        <v>872</v>
+        <v>814</v>
       </c>
       <c r="F15" s="1">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1719,25 +1734,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.005671055987477303</v>
+        <v>0.01020165253430605</v>
       </c>
       <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>917</v>
+      </c>
+      <c r="E16" s="1">
+        <v>872</v>
+      </c>
+      <c r="F16" s="1">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
         <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>279</v>
-      </c>
-      <c r="E16" s="1">
-        <v>274</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1745,22 +1760,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.004536844789981842</v>
+        <v>0.005667584948241711</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>776</v>
+        <v>279</v>
       </c>
       <c r="E17" s="1">
-        <v>772</v>
+        <v>274</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1771,16 +1786,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.004536844789981842</v>
+        <v>0.004534068051725626</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>776</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1797,16 +1812,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004536844789981842</v>
+        <v>0.004534068051725626</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1823,25 +1838,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004536844789981842</v>
+        <v>0.004534068051725626</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>96</v>
+        <v>534</v>
       </c>
       <c r="E20" s="1">
-        <v>96</v>
+        <v>530</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1849,16 +1864,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.001134211197495461</v>
+        <v>0.004534068051725626</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1867,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1875,16 +1890,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.001134211197495461</v>
+        <v>0.001133517012931407</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>804</v>
+        <v>460</v>
       </c>
       <c r="E22" s="1">
-        <v>804</v>
+        <v>460</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1896,35 +1911,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.001133517012931407</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>804</v>
+      </c>
+      <c r="E23" s="1">
+        <v>804</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1940,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1956,36 +1997,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>38.4832649230957</v>
+        <v>37.89679336547852</v>
       </c>
       <c r="C3" s="1">
         <v>16487</v>
@@ -2011,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.265254020690918</v>
+        <v>8.139294624328613</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2034,54 +2075,54 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.04276180267334</v>
+        <v>4.01563024520874</v>
       </c>
       <c r="C5" s="1">
-        <v>1732</v>
+        <v>1747</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1">
-        <v>1732</v>
+        <v>1632</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>3.858363389968872</v>
+        <v>3.981151580810547</v>
       </c>
       <c r="C6" s="1">
-        <v>1653</v>
+        <v>1732</v>
       </c>
       <c r="D6" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1560</v>
+        <v>1732</v>
       </c>
       <c r="F6" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2089,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3.235143184661865</v>
+        <v>3.185840606689453</v>
       </c>
       <c r="C7" s="1">
         <v>1386</v>
@@ -2112,54 +2153,54 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>3.07408618927002</v>
+        <v>2.349155187606812</v>
       </c>
       <c r="C8" s="1">
-        <v>1317</v>
+        <v>1022</v>
       </c>
       <c r="D8" s="1">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1">
-        <v>1186</v>
+        <v>1002</v>
       </c>
       <c r="F8" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>2.385509490966797</v>
+        <v>2.259510517120361</v>
       </c>
       <c r="C9" s="1">
-        <v>1022</v>
+        <v>983</v>
       </c>
       <c r="D9" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>1002</v>
+        <v>872</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2167,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.191774368286133</v>
+        <v>2.158372640609741</v>
       </c>
       <c r="C10" s="1">
         <v>939</v>
@@ -2190,10 +2231,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>2.140423059463501</v>
+        <v>2.107803583145142</v>
       </c>
       <c r="C11" s="1">
         <v>917</v>
@@ -2216,45 +2257,45 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>1.876663088798523</v>
+        <v>2.038846015930176</v>
       </c>
       <c r="C12" s="1">
-        <v>804</v>
+        <v>887</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.815974950790405</v>
+        <v>1.848063468933106</v>
       </c>
       <c r="C13" s="1">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="D13" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2263,56 +2304,56 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1.811306715011597</v>
+        <v>1.788300156593323</v>
       </c>
       <c r="C14" s="1">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="E14" s="1">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1.689930438995361</v>
+        <v>1.783702969551086</v>
       </c>
       <c r="C15" s="1">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2320,54 +2361,54 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.549880981445313</v>
+        <v>1.6641765832901</v>
       </c>
       <c r="C16" s="1">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="D16" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.54287850856781</v>
+        <v>1.526261329650879</v>
       </c>
       <c r="C17" s="1">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
       <c r="E17" s="1">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2375,19 +2416,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.400494813919067</v>
+        <v>1.519365549087524</v>
       </c>
       <c r="C18" s="1">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2401,16 +2442,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.381821632385254</v>
+        <v>1.379151821136475</v>
       </c>
       <c r="C19" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2424,19 +2465,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.316465139389038</v>
+        <v>1.360763072967529</v>
       </c>
       <c r="C20" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D20" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2445,56 +2486,56 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>1.246440410614014</v>
+        <v>1.2964026927948</v>
       </c>
       <c r="C21" s="1">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>1028</v>
       </c>
       <c r="E21" s="1">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1.218430519104004</v>
+        <v>1.227445125579834</v>
       </c>
       <c r="C22" s="1">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2502,16 +2543,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.218430519104004</v>
+        <v>1.199862122535706</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
       </c>
       <c r="D23" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>522</v>
@@ -2523,24 +2564,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.097054243087769</v>
+        <v>1.199862122535706</v>
       </c>
       <c r="C24" s="1">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2549,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2557,16 +2598,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.087717652320862</v>
+        <v>1.08033561706543</v>
       </c>
       <c r="C25" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2580,19 +2621,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.073712706565857</v>
+        <v>1.071141242980957</v>
       </c>
       <c r="C26" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2601,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>1.073712706565857</v>
+        <v>1.057349681854248</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>460</v>
@@ -2627,59 +2668,59 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9990196824073792</v>
+        <v>1.057349681854248</v>
       </c>
       <c r="C28" s="1">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D28" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="F28" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8869800567626953</v>
+        <v>0.9837949872016907</v>
       </c>
       <c r="C29" s="1">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E29" s="1">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2687,16 +2728,16 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.849633514881134</v>
+        <v>0.8734627962112427</v>
       </c>
       <c r="C30" s="1">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2713,19 +2754,19 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7189207077026367</v>
+        <v>0.8366854190826416</v>
       </c>
       <c r="C31" s="1">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="F31" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2739,19 +2780,19 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6722375154495239</v>
+        <v>0.7079645991325378</v>
       </c>
       <c r="C32" s="1">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -2765,19 +2806,19 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6675692200660706</v>
+        <v>0.6619928479194641</v>
       </c>
       <c r="C33" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -2788,25 +2829,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6512300968170166</v>
+        <v>0.6573957204818726</v>
       </c>
       <c r="C34" s="1">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2814,25 +2855,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4621632993221283</v>
+        <v>0.6413056254386902</v>
       </c>
       <c r="C35" s="1">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2843,16 +2884,16 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4201484620571137</v>
+        <v>0.4551200866699219</v>
       </c>
       <c r="C36" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2869,16 +2910,16 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.3968068659305573</v>
+        <v>0.4137455523014069</v>
       </c>
       <c r="C37" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2895,16 +2936,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3734652996063232</v>
+        <v>0.39075967669487</v>
       </c>
       <c r="C38" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2921,16 +2962,16 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3501237034797669</v>
+        <v>0.3677738308906555</v>
       </c>
       <c r="C39" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2947,16 +2988,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3081088662147522</v>
+        <v>0.3447879552841187</v>
       </c>
       <c r="C40" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2973,16 +3014,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.2987722456455231</v>
+        <v>0.3034133911132813</v>
       </c>
       <c r="C41" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2996,19 +3037,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.2240791767835617</v>
+        <v>0.294219046831131</v>
       </c>
       <c r="C42" s="1">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3017,24 +3058,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2054059058427811</v>
+        <v>0.2574416697025299</v>
       </c>
       <c r="C43" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3043,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3051,16 +3092,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.1867326498031616</v>
+        <v>0.2022756040096283</v>
       </c>
       <c r="C44" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3077,16 +3118,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.1633910685777664</v>
+        <v>0.1838869154453278</v>
       </c>
       <c r="C45" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3103,16 +3144,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1260445415973663</v>
+        <v>0.1609010398387909</v>
       </c>
       <c r="C46" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3129,16 +3170,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1120395883917809</v>
+        <v>0.1241236627101898</v>
       </c>
       <c r="C47" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3155,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1120395883917809</v>
+        <v>0.1103321462869644</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3181,16 +3222,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1027029529213905</v>
+        <v>0.1103321462869644</v>
       </c>
       <c r="C49" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3207,16 +3248,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.08402968943119049</v>
+        <v>0.1011378020048142</v>
       </c>
       <c r="C50" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3233,7 +3274,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08402968943119049</v>
+        <v>0.08274910598993301</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3259,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08402968943119049</v>
+        <v>0.08274910598993301</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3285,16 +3326,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.07002474367618561</v>
+        <v>0.08274910598993301</v>
       </c>
       <c r="C53" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3311,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.07002474367618561</v>
+        <v>0.06895758956670761</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3337,16 +3378,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.06068810820579529</v>
+        <v>0.06895758956670761</v>
       </c>
       <c r="C55" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3360,19 +3401,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.03734653070569038</v>
+        <v>0.05976324528455734</v>
       </c>
       <c r="C56" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3381,24 +3422,24 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03267821297049522</v>
+        <v>0.03677738085389137</v>
       </c>
       <c r="C57" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E57" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3407,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3415,16 +3456,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.02800989709794521</v>
+        <v>0.03218020871281624</v>
       </c>
       <c r="C58" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3441,16 +3482,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.01867326535284519</v>
+        <v>0.0275830365717411</v>
       </c>
       <c r="C59" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3467,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01867326535284519</v>
+        <v>0.01838869042694569</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3493,7 +3534,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01867326535284519</v>
+        <v>0.01838869042694569</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3516,25 +3557,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.009336632676422596</v>
+        <v>0.01838869042694569</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3542,25 +3583,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B63" s="2">
-        <v>0.009336632676422596</v>
+        <v>0.009194345213472843</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
         <v>4</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3571,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009336632676422596</v>
+        <v>0.009194345213472843</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3593,34 +3634,60 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.009194345213472843</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -740,193 +740,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>37.89679336547852</c:v>
+                  <c:v>31.59359359741211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.139294624328613</c:v>
+                  <c:v>8.958433151245117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.01563024520874</c:v>
+                  <c:v>4.412173748016357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.981151580810547</c:v>
+                  <c:v>4.381814956665039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.185840606689453</c:v>
+                  <c:v>3.506464004516602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.349155187606812</c:v>
+                  <c:v>2.585574388504028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.259510517120361</c:v>
+                  <c:v>2.542565822601318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.158372640609741</c:v>
+                  <c:v>2.375591278076172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.107803583145142</c:v>
+                  <c:v>2.319933176040649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.038846015930176</c:v>
+                  <c:v>2.249095439910889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.848063468933106</c:v>
+                  <c:v>2.034052610397339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.788300156593323</c:v>
+                  <c:v>1.968274831771851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.783702969551086</c:v>
+                  <c:v>1.963214993476868</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6641765832901</c:v>
+                  <c:v>1.831659317016602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.526261329650879</c:v>
+                  <c:v>1.679864406585693</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.519365549087524</c:v>
+                  <c:v>1.672274589538574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.379151821136475</c:v>
+                  <c:v>1.51794970035553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.360763072967529</c:v>
+                  <c:v>1.497710466384888</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2964026927948</c:v>
+                  <c:v>1.426872730255127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.227445125579834</c:v>
+                  <c:v>1.350975275039673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.199862122535706</c:v>
+                  <c:v>1.320616245269775</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.199862122535706</c:v>
+                  <c:v>1.320616245269775</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.08033561706543</c:v>
+                  <c:v>1.189060688018799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.071141242980957</c:v>
+                  <c:v>1.178941011428833</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.057349681854248</c:v>
+                  <c:v>1.163761496543884</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.057349681854248</c:v>
+                  <c:v>1.163761496543884</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9837949872016907</c:v>
+                  <c:v>1.082804203033447</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8734627962112427</c:v>
+                  <c:v>0.961368203163147</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8366854190826416</c:v>
+                  <c:v>0.9208894968032837</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7079645991325378</c:v>
+                  <c:v>0.7792142033576965</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6619928479194641</c:v>
+                  <c:v>0.7286158800125122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6573957204818726</c:v>
+                  <c:v>0.7235560417175293</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6413056254386902</c:v>
+                  <c:v>0.7058466076850891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4551200866699219</c:v>
+                  <c:v>0.5009233951568604</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4137455523014069</c:v>
+                  <c:v>0.4553849399089813</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.39075967669487</c:v>
+                  <c:v>0.4300857782363892</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3677738308906555</c:v>
+                  <c:v>0.4047865867614746</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3447879552841187</c:v>
+                  <c:v>0.3794874250888825</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3034133911132813</c:v>
+                  <c:v>0.333948940038681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.294219046831131</c:v>
+                  <c:v>0.3238292932510376</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2574416697025299</c:v>
+                  <c:v>0.2833506166934967</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2022756040096283</c:v>
+                  <c:v>0.2226326316595078</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1838869154453278</c:v>
+                  <c:v>0.2023932933807373</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1609010398387909</c:v>
+                  <c:v>0.1770941317081451</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1241236627101898</c:v>
+                  <c:v>0.1366154849529266</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1103321462869644</c:v>
+                  <c:v>0.1214359775185585</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1103321462869644</c:v>
+                  <c:v>0.1214359775185585</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1011378020048142</c:v>
+                  <c:v>0.1113163158297539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08274910598993301</c:v>
+                  <c:v>0.09107698500156403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08274910598993301</c:v>
+                  <c:v>0.09107698500156403</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.08274910598993301</c:v>
+                  <c:v>0.09107698500156403</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.06895758956670761</c:v>
+                  <c:v>0.07589748501777649</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.06895758956670761</c:v>
+                  <c:v>0.07589748501777649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.05976324528455734</c:v>
+                  <c:v>0.06577782332897186</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03677738085389137</c:v>
+                  <c:v>0.0404786616563797</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03218020871281624</c:v>
+                  <c:v>0.03541882708668709</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0275830365717411</c:v>
+                  <c:v>0.03035899437963963</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01838869042694569</c:v>
+                  <c:v>0.02023933082818985</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01838869042694569</c:v>
+                  <c:v>0.02023933082818985</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01838869042694569</c:v>
+                  <c:v>0.02023933082818985</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.009194345213472843</c:v>
+                  <c:v>0.01011966541409493</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009194345213472843</c:v>
+                  <c:v>0.01011966541409493</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009194345213472843</c:v>
+                  <c:v>0.01011966541409493</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -1584,13 +1584,13 @@
         <v>189</v>
       </c>
       <c r="D10" s="1">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="E10" s="1">
-        <v>1632</v>
+        <v>1644</v>
       </c>
       <c r="F10" s="1">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -1636,10 +1636,10 @@
         <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="E12" s="1">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
@@ -1714,10 +1714,10 @@
         <v>45</v>
       </c>
       <c r="D15" s="1">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E15" s="1">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F15" s="1">
         <v>33</v>
@@ -2026,10 +2026,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>37.89679336547852</v>
+        <v>31.59359359741211</v>
       </c>
       <c r="C3" s="1">
-        <v>16487</v>
+        <v>12488</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>16487</v>
+        <v>12488</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.139294624328613</v>
+        <v>8.958433151245117</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2078,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.01563024520874</v>
+        <v>4.412173748016357</v>
       </c>
       <c r="C5" s="1">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D5" s="1">
         <v>189</v>
       </c>
       <c r="E5" s="1">
-        <v>1632</v>
+        <v>1644</v>
       </c>
       <c r="F5" s="1">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>3.981151580810547</v>
+        <v>4.381814956665039</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3.185840606689453</v>
+        <v>3.506464004516602</v>
       </c>
       <c r="C7" s="1">
         <v>1386</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>2.349155187606812</v>
+        <v>2.585574388504028</v>
       </c>
       <c r="C8" s="1">
         <v>1022</v>
@@ -2182,16 +2182,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>2.259510517120361</v>
+        <v>2.542565822601318</v>
       </c>
       <c r="C9" s="1">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="F9" s="1">
         <v>36</v>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.158372640609741</v>
+        <v>2.375591278076172</v>
       </c>
       <c r="C10" s="1">
         <v>939</v>
@@ -2234,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>2.107803583145142</v>
+        <v>2.319933176040649</v>
       </c>
       <c r="C11" s="1">
         <v>917</v>
@@ -2260,16 +2260,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>2.038846015930176</v>
+        <v>2.249095439910889</v>
       </c>
       <c r="C12" s="1">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F12" s="1">
         <v>33</v>
@@ -2286,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.848063468933106</v>
+        <v>2.034052610397339</v>
       </c>
       <c r="C13" s="1">
         <v>804</v>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1.788300156593323</v>
+        <v>1.968274831771851</v>
       </c>
       <c r="C14" s="1">
         <v>778</v>
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1.783702969551086</v>
+        <v>1.963214993476868</v>
       </c>
       <c r="C15" s="1">
         <v>776</v>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.6641765832901</v>
+        <v>1.831659317016602</v>
       </c>
       <c r="C16" s="1">
         <v>724</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.526261329650879</v>
+        <v>1.679864406585693</v>
       </c>
       <c r="C17" s="1">
         <v>664</v>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.519365549087524</v>
+        <v>1.672274589538574</v>
       </c>
       <c r="C18" s="1">
         <v>661</v>
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.379151821136475</v>
+        <v>1.51794970035553</v>
       </c>
       <c r="C19" s="1">
         <v>600</v>
@@ -2468,7 +2468,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.360763072967529</v>
+        <v>1.497710466384888</v>
       </c>
       <c r="C20" s="1">
         <v>592</v>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>1.2964026927948</v>
+        <v>1.426872730255127</v>
       </c>
       <c r="C21" s="1">
         <v>564</v>
@@ -2520,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1.227445125579834</v>
+        <v>1.350975275039673</v>
       </c>
       <c r="C22" s="1">
         <v>534</v>
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.199862122535706</v>
+        <v>1.320616245269775</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
@@ -2572,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.199862122535706</v>
+        <v>1.320616245269775</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -2598,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.08033561706543</v>
+        <v>1.189060688018799</v>
       </c>
       <c r="C25" s="1">
         <v>470</v>
@@ -2624,7 +2624,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.071141242980957</v>
+        <v>1.178941011428833</v>
       </c>
       <c r="C26" s="1">
         <v>466</v>
@@ -2650,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>1.057349681854248</v>
+        <v>1.163761496543884</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
@@ -2676,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>1.057349681854248</v>
+        <v>1.163761496543884</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9837949872016907</v>
+        <v>1.082804203033447</v>
       </c>
       <c r="C29" s="1">
         <v>428</v>
@@ -2728,7 +2728,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8734627962112427</v>
+        <v>0.961368203163147</v>
       </c>
       <c r="C30" s="1">
         <v>380</v>
@@ -2754,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8366854190826416</v>
+        <v>0.9208894968032837</v>
       </c>
       <c r="C31" s="1">
         <v>364</v>
@@ -2780,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7079645991325378</v>
+        <v>0.7792142033576965</v>
       </c>
       <c r="C32" s="1">
         <v>308</v>
@@ -2806,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6619928479194641</v>
+        <v>0.7286158800125122</v>
       </c>
       <c r="C33" s="1">
         <v>288</v>
@@ -2832,7 +2832,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6573957204818726</v>
+        <v>0.7235560417175293</v>
       </c>
       <c r="C34" s="1">
         <v>286</v>
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6413056254386902</v>
+        <v>0.7058466076850891</v>
       </c>
       <c r="C35" s="1">
         <v>279</v>
@@ -2884,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4551200866699219</v>
+        <v>0.5009233951568604</v>
       </c>
       <c r="C36" s="1">
         <v>198</v>
@@ -2910,7 +2910,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4137455523014069</v>
+        <v>0.4553849399089813</v>
       </c>
       <c r="C37" s="1">
         <v>180</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.39075967669487</v>
+        <v>0.4300857782363892</v>
       </c>
       <c r="C38" s="1">
         <v>170</v>
@@ -2962,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3677738308906555</v>
+        <v>0.4047865867614746</v>
       </c>
       <c r="C39" s="1">
         <v>160</v>
@@ -2988,7 +2988,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3447879552841187</v>
+        <v>0.3794874250888825</v>
       </c>
       <c r="C40" s="1">
         <v>150</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3034133911132813</v>
+        <v>0.333948940038681</v>
       </c>
       <c r="C41" s="1">
         <v>132</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.294219046831131</v>
+        <v>0.3238292932510376</v>
       </c>
       <c r="C42" s="1">
         <v>128</v>
@@ -3066,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2574416697025299</v>
+        <v>0.2833506166934967</v>
       </c>
       <c r="C43" s="1">
         <v>112</v>
@@ -3092,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2022756040096283</v>
+        <v>0.2226326316595078</v>
       </c>
       <c r="C44" s="1">
         <v>88</v>
@@ -3118,7 +3118,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.1838869154453278</v>
+        <v>0.2023932933807373</v>
       </c>
       <c r="C45" s="1">
         <v>80</v>
@@ -3144,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1609010398387909</v>
+        <v>0.1770941317081451</v>
       </c>
       <c r="C46" s="1">
         <v>70</v>
@@ -3170,7 +3170,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1241236627101898</v>
+        <v>0.1366154849529266</v>
       </c>
       <c r="C47" s="1">
         <v>54</v>
@@ -3196,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1103321462869644</v>
+        <v>0.1214359775185585</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3222,7 +3222,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1103321462869644</v>
+        <v>0.1214359775185585</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3248,7 +3248,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1011378020048142</v>
+        <v>0.1113163158297539</v>
       </c>
       <c r="C50" s="1">
         <v>44</v>
@@ -3274,7 +3274,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08274910598993301</v>
+        <v>0.09107698500156403</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3300,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08274910598993301</v>
+        <v>0.09107698500156403</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.08274910598993301</v>
+        <v>0.09107698500156403</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.06895758956670761</v>
+        <v>0.07589748501777649</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3378,7 +3378,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.06895758956670761</v>
+        <v>0.07589748501777649</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3404,7 +3404,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.05976324528455734</v>
+        <v>0.06577782332897186</v>
       </c>
       <c r="C56" s="1">
         <v>26</v>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03677738085389137</v>
+        <v>0.0404786616563797</v>
       </c>
       <c r="C57" s="1">
         <v>16</v>
@@ -3456,7 +3456,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03218020871281624</v>
+        <v>0.03541882708668709</v>
       </c>
       <c r="C58" s="1">
         <v>14</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.0275830365717411</v>
+        <v>0.03035899437963963</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -3508,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01838869042694569</v>
+        <v>0.02023933082818985</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01838869042694569</v>
+        <v>0.02023933082818985</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3560,7 +3560,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01838869042694569</v>
+        <v>0.02023933082818985</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3586,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="2">
-        <v>0.009194345213472843</v>
+        <v>0.01011966541409493</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009194345213472843</v>
+        <v>0.01011966541409493</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3638,7 +3638,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009194345213472843</v>
+        <v>0.01011966541409493</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -50,13 +50,13 @@
     <t>app_gameprocess.o</t>
   </si>
   <si>
+    <t>app_levelconfig.o</t>
+  </si>
+  <si>
     <t>queue.o</t>
   </si>
   <si>
     <t>timers.o</t>
-  </si>
-  <si>
-    <t>app_levelconfig.o</t>
   </si>
   <si>
     <t>port.o</t>
@@ -360,13 +360,13 @@
                   <c:v>app_gameprocess.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>timers.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>port.o</c:v>
@@ -405,67 +405,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>87.08583831787109</c:v>
+                  <c:v>87.06610107421875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.473515510559082</c:v>
+                  <c:v>6.472048282623291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305811524391174</c:v>
+                  <c:v>1.30551552772522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.165255427360535</c:v>
+                  <c:v>1.16499137878418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.16072142124176</c:v>
+                  <c:v>1.160458326339722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.16072142124176</c:v>
+                  <c:v>1.160458326339722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9068135619163513</c:v>
+                  <c:v>0.9066080451011658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2142347097396851</c:v>
+                  <c:v>0.2141861468553543</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2085671275854111</c:v>
+                  <c:v>0.208519846200943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09068135917186737</c:v>
+                  <c:v>0.09066080302000046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07254508882761002</c:v>
+                  <c:v>0.07366190105676651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06801101565361023</c:v>
+                  <c:v>0.07252864539623261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.05100826174020767</c:v>
+                  <c:v>0.06799560040235519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01020165253430605</c:v>
+                  <c:v>0.01019934006035328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.005667584948241711</c:v>
+                  <c:v>0.005666300188750029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004534068051725626</c:v>
+                  <c:v>0.004533040337264538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004534068051725626</c:v>
+                  <c:v>0.004533040337264538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004534068051725626</c:v>
+                  <c:v>0.004533040337264538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004534068051725626</c:v>
+                  <c:v>0.004533040337264538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001133517012931407</c:v>
+                  <c:v>0.001133260084316135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001133517012931407</c:v>
+                  <c:v>0.001133260084316135</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -551,22 +551,22 @@
                   <c:v>u8g2_font.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>app_gameprocess.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>port.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>app_keys.o</c:v>
@@ -740,193 +740,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>31.59359359741211</c:v>
+                  <c:v>30.84980201721191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.958433151245117</c:v>
+                  <c:v>8.747529983520508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.412173748016357</c:v>
+                  <c:v>4.594861507415772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.381814956665039</c:v>
+                  <c:v>4.278656005859375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.506464004516602</c:v>
+                  <c:v>4.263833999633789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.585574388504028</c:v>
+                  <c:v>3.42391300201416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.542565822601318</c:v>
+                  <c:v>2.524703502655029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.375591278076172</c:v>
+                  <c:v>2.482707500457764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.319933176040649</c:v>
+                  <c:v>2.319664001464844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.249095439910889</c:v>
+                  <c:v>2.265316247940064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.034052610397339</c:v>
+                  <c:v>1.986166000366211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.968274831771851</c:v>
+                  <c:v>1.921936750411987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.963214993476868</c:v>
+                  <c:v>1.916996002197266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.831659317016602</c:v>
+                  <c:v>1.788537502288818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.679864406585693</c:v>
+                  <c:v>1.640316247940064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.672274589538574</c:v>
+                  <c:v>1.632905125617981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.51794970035553</c:v>
+                  <c:v>1.482213497161865</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.497710466384888</c:v>
+                  <c:v>1.462450623512268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.426872730255127</c:v>
+                  <c:v>1.393280625343323</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.350975275039673</c:v>
+                  <c:v>1.319169998168945</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.320616245269775</c:v>
+                  <c:v>1.289525747299194</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.320616245269775</c:v>
+                  <c:v>1.289525747299194</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.189060688018799</c:v>
+                  <c:v>1.161067247390747</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.178941011428833</c:v>
+                  <c:v>1.151185750961304</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.163761496543884</c:v>
+                  <c:v>1.136363625526428</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.163761496543884</c:v>
+                  <c:v>1.136363625526428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.082804203033447</c:v>
+                  <c:v>1.057312250137329</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.961368203163147</c:v>
+                  <c:v>0.9387351870536804</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9208894968032837</c:v>
+                  <c:v>0.8992094993591309</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7792142033576965</c:v>
+                  <c:v>0.760869562625885</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7286158800125122</c:v>
+                  <c:v>0.7114624381065369</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7235560417175293</c:v>
+                  <c:v>0.70652174949646</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7058466076850891</c:v>
+                  <c:v>0.6892292499542236</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5009233951568604</c:v>
+                  <c:v>0.489130437374115</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4553849399089813</c:v>
+                  <c:v>0.4446640312671661</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4300857782363892</c:v>
+                  <c:v>0.4199604690074921</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4047865867614746</c:v>
+                  <c:v>0.395256906747818</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3794874250888825</c:v>
+                  <c:v>0.3705533742904663</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.333948940038681</c:v>
+                  <c:v>0.3260869681835175</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3238292932510376</c:v>
+                  <c:v>0.3162055313587189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2833506166934967</c:v>
+                  <c:v>0.2766798436641693</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2226326316595078</c:v>
+                  <c:v>0.2173912972211838</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2023932933807373</c:v>
+                  <c:v>0.197628453373909</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1770941317081451</c:v>
+                  <c:v>0.1729249060153961</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1366154849529266</c:v>
+                  <c:v>0.1333992034196854</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1214359775185585</c:v>
+                  <c:v>0.1185770779848099</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1214359775185585</c:v>
+                  <c:v>0.1185770779848099</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1113163158297539</c:v>
+                  <c:v>0.1086956486105919</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.09107698500156403</c:v>
+                  <c:v>0.08893280476331711</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.09107698500156403</c:v>
+                  <c:v>0.08893280476331711</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.09107698500156403</c:v>
+                  <c:v>0.08893280476331711</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07589748501777649</c:v>
+                  <c:v>0.07411067187786102</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07589748501777649</c:v>
+                  <c:v>0.07411067187786102</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06577782332897186</c:v>
+                  <c:v>0.06422924995422363</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0404786616563797</c:v>
+                  <c:v>0.03952569141983986</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03541882708668709</c:v>
+                  <c:v>0.03458498045802116</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.03035899437963963</c:v>
+                  <c:v>0.02964426949620247</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02023933082818985</c:v>
+                  <c:v>0.01976284570991993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.02023933082818985</c:v>
+                  <c:v>0.01976284570991993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.02023933082818985</c:v>
+                  <c:v>0.01976284570991993</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01011966541409493</c:v>
+                  <c:v>0.009881422854959965</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.01011966541409493</c:v>
+                  <c:v>0.009881422854959965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.01011966541409493</c:v>
+                  <c:v>0.009881422854959965</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.08583831787109</v>
+        <v>87.06610107421875</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.473515510559082</v>
+        <v>6.472048282623291</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.305811524391174</v>
+        <v>1.30551552772522</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1474,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.165255427360535</v>
+        <v>1.16499137878418</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.16072142124176</v>
+        <v>1.160458326339722</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.16072142124176</v>
+        <v>1.160458326339722</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9068135619163513</v>
+        <v>0.9066080451011658</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1578,25 +1578,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2142347097396851</v>
+        <v>0.2141861468553543</v>
       </c>
       <c r="C10" s="1">
         <v>189</v>
       </c>
       <c r="D10" s="1">
-        <v>1744</v>
+        <v>1860</v>
       </c>
       <c r="E10" s="1">
-        <v>1644</v>
+        <v>1720</v>
       </c>
       <c r="F10" s="1">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1604,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2085671275854111</v>
+        <v>0.208519846200943</v>
       </c>
       <c r="C11" s="1">
         <v>184</v>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09068135917186737</v>
+        <v>0.09066080302000046</v>
       </c>
       <c r="C12" s="1">
         <v>80</v>
@@ -1656,25 +1656,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07254508882761002</v>
+        <v>0.07366190105676651</v>
       </c>
       <c r="C13" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>1022</v>
+        <v>1726</v>
       </c>
       <c r="E13" s="1">
-        <v>1002</v>
+        <v>1582</v>
       </c>
       <c r="F13" s="1">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1682,25 +1682,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.06801101565361023</v>
+        <v>0.07252864539623261</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="E14" s="1">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="F14" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1708,25 +1708,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.05100826174020767</v>
+        <v>0.06799560040235519</v>
       </c>
       <c r="C15" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
-        <v>889</v>
+        <v>939</v>
       </c>
       <c r="E15" s="1">
-        <v>816</v>
+        <v>918</v>
       </c>
       <c r="F15" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1734,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.01020165253430605</v>
+        <v>0.01019934006035328</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
@@ -1760,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.005667584948241711</v>
+        <v>0.005666300188750029</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.004534068051725626</v>
+        <v>0.004533040337264538</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1812,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004534068051725626</v>
+        <v>0.004533040337264538</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004534068051725626</v>
+        <v>0.004533040337264538</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1864,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.004534068051725626</v>
+        <v>0.004533040337264538</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.001133517012931407</v>
+        <v>0.001133260084316135</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.001133517012931407</v>
+        <v>0.001133260084316135</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>31.59359359741211</v>
+        <v>30.84980201721191</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.958433151245117</v>
+        <v>8.747529983520508</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2078,25 +2078,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.412173748016357</v>
+        <v>4.594861507415772</v>
       </c>
       <c r="C5" s="1">
-        <v>1744</v>
+        <v>1860</v>
       </c>
       <c r="D5" s="1">
         <v>189</v>
       </c>
       <c r="E5" s="1">
-        <v>1644</v>
+        <v>1720</v>
       </c>
       <c r="F5" s="1">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>4.381814956665039</v>
+        <v>4.278656005859375</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2127,155 +2127,155 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>3.506464004516602</v>
+        <v>4.263833999633789</v>
       </c>
       <c r="C7" s="1">
-        <v>1386</v>
+        <v>1726</v>
       </c>
       <c r="D7" s="1">
-        <v>5711</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>1386</v>
+        <v>1582</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
-        <v>5711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>2.585574388504028</v>
+        <v>3.42391300201416</v>
       </c>
       <c r="C8" s="1">
-        <v>1022</v>
+        <v>1386</v>
       </c>
       <c r="D8" s="1">
-        <v>64</v>
+        <v>5711</v>
       </c>
       <c r="E8" s="1">
-        <v>1002</v>
+        <v>1386</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>64</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>2.542565822601318</v>
+        <v>2.524703502655029</v>
       </c>
       <c r="C9" s="1">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
-        <v>894</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2.375591278076172</v>
+        <v>2.482707500457764</v>
       </c>
       <c r="C10" s="1">
-        <v>939</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="F10" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.319933176040649</v>
+        <v>2.319664001464844</v>
       </c>
       <c r="C11" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F11" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>2.249095439910889</v>
+        <v>2.265316247940064</v>
       </c>
       <c r="C12" s="1">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="D12" s="1">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>816</v>
+        <v>872</v>
       </c>
       <c r="F12" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -2286,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>2.034052610397339</v>
+        <v>1.986166000366211</v>
       </c>
       <c r="C13" s="1">
         <v>804</v>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1.968274831771851</v>
+        <v>1.921936750411987</v>
       </c>
       <c r="C14" s="1">
         <v>778</v>
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1.963214993476868</v>
+        <v>1.916996002197266</v>
       </c>
       <c r="C15" s="1">
         <v>776</v>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.831659317016602</v>
+        <v>1.788537502288818</v>
       </c>
       <c r="C16" s="1">
         <v>724</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.679864406585693</v>
+        <v>1.640316247940064</v>
       </c>
       <c r="C17" s="1">
         <v>664</v>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.672274589538574</v>
+        <v>1.632905125617981</v>
       </c>
       <c r="C18" s="1">
         <v>661</v>
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.51794970035553</v>
+        <v>1.482213497161865</v>
       </c>
       <c r="C19" s="1">
         <v>600</v>
@@ -2468,7 +2468,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.497710466384888</v>
+        <v>1.462450623512268</v>
       </c>
       <c r="C20" s="1">
         <v>592</v>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>1.426872730255127</v>
+        <v>1.393280625343323</v>
       </c>
       <c r="C21" s="1">
         <v>564</v>
@@ -2520,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1.350975275039673</v>
+        <v>1.319169998168945</v>
       </c>
       <c r="C22" s="1">
         <v>534</v>
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.320616245269775</v>
+        <v>1.289525747299194</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
@@ -2572,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.320616245269775</v>
+        <v>1.289525747299194</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -2598,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.189060688018799</v>
+        <v>1.161067247390747</v>
       </c>
       <c r="C25" s="1">
         <v>470</v>
@@ -2624,7 +2624,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.178941011428833</v>
+        <v>1.151185750961304</v>
       </c>
       <c r="C26" s="1">
         <v>466</v>
@@ -2650,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>1.163761496543884</v>
+        <v>1.136363625526428</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
@@ -2676,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>1.163761496543884</v>
+        <v>1.136363625526428</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>1.082804203033447</v>
+        <v>1.057312250137329</v>
       </c>
       <c r="C29" s="1">
         <v>428</v>
@@ -2728,7 +2728,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.961368203163147</v>
+        <v>0.9387351870536804</v>
       </c>
       <c r="C30" s="1">
         <v>380</v>
@@ -2754,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9208894968032837</v>
+        <v>0.8992094993591309</v>
       </c>
       <c r="C31" s="1">
         <v>364</v>
@@ -2780,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7792142033576965</v>
+        <v>0.760869562625885</v>
       </c>
       <c r="C32" s="1">
         <v>308</v>
@@ -2806,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7286158800125122</v>
+        <v>0.7114624381065369</v>
       </c>
       <c r="C33" s="1">
         <v>288</v>
@@ -2832,7 +2832,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7235560417175293</v>
+        <v>0.70652174949646</v>
       </c>
       <c r="C34" s="1">
         <v>286</v>
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>0.7058466076850891</v>
+        <v>0.6892292499542236</v>
       </c>
       <c r="C35" s="1">
         <v>279</v>
@@ -2884,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5009233951568604</v>
+        <v>0.489130437374115</v>
       </c>
       <c r="C36" s="1">
         <v>198</v>
@@ -2910,7 +2910,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4553849399089813</v>
+        <v>0.4446640312671661</v>
       </c>
       <c r="C37" s="1">
         <v>180</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4300857782363892</v>
+        <v>0.4199604690074921</v>
       </c>
       <c r="C38" s="1">
         <v>170</v>
@@ -2962,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4047865867614746</v>
+        <v>0.395256906747818</v>
       </c>
       <c r="C39" s="1">
         <v>160</v>
@@ -2988,7 +2988,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3794874250888825</v>
+        <v>0.3705533742904663</v>
       </c>
       <c r="C40" s="1">
         <v>150</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.333948940038681</v>
+        <v>0.3260869681835175</v>
       </c>
       <c r="C41" s="1">
         <v>132</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3238292932510376</v>
+        <v>0.3162055313587189</v>
       </c>
       <c r="C42" s="1">
         <v>128</v>
@@ -3066,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2833506166934967</v>
+        <v>0.2766798436641693</v>
       </c>
       <c r="C43" s="1">
         <v>112</v>
@@ -3092,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2226326316595078</v>
+        <v>0.2173912972211838</v>
       </c>
       <c r="C44" s="1">
         <v>88</v>
@@ -3118,7 +3118,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2023932933807373</v>
+        <v>0.197628453373909</v>
       </c>
       <c r="C45" s="1">
         <v>80</v>
@@ -3144,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1770941317081451</v>
+        <v>0.1729249060153961</v>
       </c>
       <c r="C46" s="1">
         <v>70</v>
@@ -3170,7 +3170,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1366154849529266</v>
+        <v>0.1333992034196854</v>
       </c>
       <c r="C47" s="1">
         <v>54</v>
@@ -3196,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1214359775185585</v>
+        <v>0.1185770779848099</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3222,7 +3222,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1214359775185585</v>
+        <v>0.1185770779848099</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3248,7 +3248,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1113163158297539</v>
+        <v>0.1086956486105919</v>
       </c>
       <c r="C50" s="1">
         <v>44</v>
@@ -3274,7 +3274,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.09107698500156403</v>
+        <v>0.08893280476331711</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3300,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.09107698500156403</v>
+        <v>0.08893280476331711</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.09107698500156403</v>
+        <v>0.08893280476331711</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.07589748501777649</v>
+        <v>0.07411067187786102</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3378,7 +3378,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.07589748501777649</v>
+        <v>0.07411067187786102</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3404,7 +3404,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.06577782332897186</v>
+        <v>0.06422924995422363</v>
       </c>
       <c r="C56" s="1">
         <v>26</v>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>0.0404786616563797</v>
+        <v>0.03952569141983986</v>
       </c>
       <c r="C57" s="1">
         <v>16</v>
@@ -3456,7 +3456,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03541882708668709</v>
+        <v>0.03458498045802116</v>
       </c>
       <c r="C58" s="1">
         <v>14</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.03035899437963963</v>
+        <v>0.02964426949620247</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -3508,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.02023933082818985</v>
+        <v>0.01976284570991993</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.02023933082818985</v>
+        <v>0.01976284570991993</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3560,7 +3560,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.02023933082818985</v>
+        <v>0.01976284570991993</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3586,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="2">
-        <v>0.01011966541409493</v>
+        <v>0.009881422854959965</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.01011966541409493</v>
+        <v>0.009881422854959965</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3638,7 +3638,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.01011966541409493</v>
+        <v>0.009881422854959965</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -405,67 +405,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>87.06610107421875</c:v>
+                  <c:v>87.06511688232422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.472048282623291</c:v>
+                  <c:v>6.471974849700928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.30551552772522</c:v>
+                  <c:v>1.305500745773315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16499137878418</c:v>
+                  <c:v>1.16497814655304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.160458326339722</c:v>
+                  <c:v>1.160445094108582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.160458326339722</c:v>
+                  <c:v>1.160445094108582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9066080451011658</c:v>
+                  <c:v>0.9065977931022644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2141861468553543</c:v>
+                  <c:v>0.215316966176033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.208519846200943</c:v>
+                  <c:v>0.2085174918174744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09066080302000046</c:v>
+                  <c:v>0.09065977483987808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07366190105676651</c:v>
+                  <c:v>0.07366106659173966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07252864539623261</c:v>
+                  <c:v>0.07252781838178635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.06799560040235519</c:v>
+                  <c:v>0.06799483299255371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01019934006035328</c:v>
+                  <c:v>0.01019922457635403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.005666300188750029</c:v>
+                  <c:v>0.00566623592749238</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004533040337264538</c:v>
+                  <c:v>0.004532988648861647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004533040337264538</c:v>
+                  <c:v>0.004532988648861647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004533040337264538</c:v>
+                  <c:v>0.004532988648861647</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004533040337264538</c:v>
+                  <c:v>0.004532988648861647</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001133260084316135</c:v>
+                  <c:v>0.001133247162215412</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001133260084316135</c:v>
+                  <c:v>0.001133247162215412</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -557,10 +557,10 @@
                   <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>queue.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>app_gameprocess.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>timers.o</c:v>
@@ -740,193 +740,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>30.84980201721191</c:v>
+                  <c:v>30.6724967956543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.747529983520508</c:v>
+                  <c:v>8.697254180908203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.594861507415772</c:v>
+                  <c:v>4.568453311920166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.278656005859375</c:v>
+                  <c:v>4.254065036773682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.263833999633789</c:v>
+                  <c:v>4.239327907562256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.42391300201416</c:v>
+                  <c:v>3.404234409332275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.524703502655029</c:v>
+                  <c:v>3.048091650009155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.482707500457764</c:v>
+                  <c:v>2.510193109512329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.319664001464844</c:v>
+                  <c:v>2.306331872940064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.265316247940064</c:v>
+                  <c:v>2.252296447753906</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.986166000366211</c:v>
+                  <c:v>1.969838380813599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.921936750411987</c:v>
+                  <c:v>1.910890579223633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.916996002197266</c:v>
+                  <c:v>1.905978322029114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.788537502288818</c:v>
+                  <c:v>1.778258085250855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.640316247940064</c:v>
+                  <c:v>1.63088858127594</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.632905125617981</c:v>
+                  <c:v>1.623520135879517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.482213497161865</c:v>
+                  <c:v>1.473694562911987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.462450623512268</c:v>
+                  <c:v>1.454045295715332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.393280625343323</c:v>
+                  <c:v>1.385272860527039</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.319169998168945</c:v>
+                  <c:v>1.311588168144226</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.289525747299194</c:v>
+                  <c:v>1.282114267349243</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.289525747299194</c:v>
+                  <c:v>1.282114267349243</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.161067247390747</c:v>
+                  <c:v>1.154394030570984</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.151185750961304</c:v>
+                  <c:v>1.144569396972656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.136363625526428</c:v>
+                  <c:v>1.12983250617981</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.136363625526428</c:v>
+                  <c:v>1.12983250617981</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.057312250137329</c:v>
+                  <c:v>1.051235437393189</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9387351870536804</c:v>
+                  <c:v>0.9333398938179016</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8992094993591309</c:v>
+                  <c:v>0.8940413594245911</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.760869562625885</c:v>
+                  <c:v>0.7564965486526489</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7114624381065369</c:v>
+                  <c:v>0.7073733806610107</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.70652174949646</c:v>
+                  <c:v>0.7024610638618469</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6892292499542236</c:v>
+                  <c:v>0.685267984867096</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.489130437374115</c:v>
+                  <c:v>0.4863192141056061</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4446640312671661</c:v>
+                  <c:v>0.4421083629131317</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4199604690074921</c:v>
+                  <c:v>0.4175467789173126</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.395256906747818</c:v>
+                  <c:v>0.3929852247238159</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3705533742904663</c:v>
+                  <c:v>0.3684236407279968</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3260869681835175</c:v>
+                  <c:v>0.3242127895355225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3162055313587189</c:v>
+                  <c:v>0.3143881857395172</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2766798436641693</c:v>
+                  <c:v>0.2750896513462067</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2173912972211838</c:v>
+                  <c:v>0.216141864657402</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.197628453373909</c:v>
+                  <c:v>0.196492612361908</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1729249060153961</c:v>
+                  <c:v>0.1719310283660889</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1333992034196854</c:v>
+                  <c:v>0.1326325088739395</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1185770779848099</c:v>
+                  <c:v>0.1178955659270287</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1185770779848099</c:v>
+                  <c:v>0.1178955659270287</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1086956486105919</c:v>
+                  <c:v>0.108070932328701</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08893280476331711</c:v>
+                  <c:v>0.08842167258262634</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08893280476331711</c:v>
+                  <c:v>0.08842167258262634</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.08893280476331711</c:v>
+                  <c:v>0.08842167258262634</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07411067187786102</c:v>
+                  <c:v>0.07368472963571549</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07411067187786102</c:v>
+                  <c:v>0.07368472963571549</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06422924995422363</c:v>
+                  <c:v>0.06386009603738785</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03952569141983986</c:v>
+                  <c:v>0.03929852321743965</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03458498045802116</c:v>
+                  <c:v>0.03438620641827583</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.02964426949620247</c:v>
+                  <c:v>0.02947389148175716</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01976284570991993</c:v>
+                  <c:v>0.01964926160871983</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01976284570991993</c:v>
+                  <c:v>0.01964926160871983</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01976284570991993</c:v>
+                  <c:v>0.01964926160871983</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.009881422854959965</c:v>
+                  <c:v>0.009824630804359913</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009881422854959965</c:v>
+                  <c:v>0.009824630804359913</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009881422854959965</c:v>
+                  <c:v>0.009824630804359913</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.06610107421875</v>
+        <v>87.06511688232422</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.472048282623291</v>
+        <v>6.471974849700928</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.30551552772522</v>
+        <v>1.305500745773315</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1474,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.16499137878418</v>
+        <v>1.16497814655304</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.160458326339722</v>
+        <v>1.160445094108582</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.160458326339722</v>
+        <v>1.160445094108582</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9066080451011658</v>
+        <v>0.9065977931022644</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1578,10 +1578,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2141861468553543</v>
+        <v>0.215316966176033</v>
       </c>
       <c r="C10" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1">
         <v>1860</v>
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1604,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.208519846200943</v>
+        <v>0.2085174918174744</v>
       </c>
       <c r="C11" s="1">
         <v>184</v>
@@ -1630,16 +1630,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09066080302000046</v>
+        <v>0.09065977483987808</v>
       </c>
       <c r="C12" s="1">
         <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>1005</v>
+        <v>1241</v>
       </c>
       <c r="E12" s="1">
-        <v>894</v>
+        <v>1130</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
@@ -1656,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07366190105676651</v>
+        <v>0.07366106659173966</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1682,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.07252864539623261</v>
+        <v>0.07252781838178635</v>
       </c>
       <c r="C14" s="1">
         <v>64</v>
@@ -1708,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.06799560040235519</v>
+        <v>0.06799483299255371</v>
       </c>
       <c r="C15" s="1">
         <v>60</v>
@@ -1734,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.01019934006035328</v>
+        <v>0.01019922457635403</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
@@ -1760,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.005666300188750029</v>
+        <v>0.00566623592749238</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.004533040337264538</v>
+        <v>0.004532988648861647</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1812,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004533040337264538</v>
+        <v>0.004532988648861647</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004533040337264538</v>
+        <v>0.004532988648861647</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1864,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.004533040337264538</v>
+        <v>0.004532988648861647</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.001133260084316135</v>
+        <v>0.001133247162215412</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1916,16 +1916,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.001133260084316135</v>
+        <v>0.001133247162215412</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E23" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>30.84980201721191</v>
+        <v>30.6724967956543</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.747529983520508</v>
+        <v>8.697254180908203</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2078,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.594861507415772</v>
+        <v>4.568453311920166</v>
       </c>
       <c r="C5" s="1">
         <v>1860</v>
       </c>
       <c r="D5" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1">
         <v>1720</v>
@@ -2096,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>4.278656005859375</v>
+        <v>4.254065036773682</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2130,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>4.263833999633789</v>
+        <v>4.239327907562256</v>
       </c>
       <c r="C7" s="1">
         <v>1726</v>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>3.42391300201416</v>
+        <v>3.404234409332275</v>
       </c>
       <c r="C8" s="1">
         <v>1386</v>
@@ -2179,54 +2179,54 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>2.524703502655029</v>
+        <v>3.048091650009155</v>
       </c>
       <c r="C9" s="1">
-        <v>1022</v>
+        <v>1241</v>
       </c>
       <c r="D9" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.482707500457764</v>
+        <v>2.510193109512329</v>
       </c>
       <c r="C10" s="1">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="D10" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
-        <v>894</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2234,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.319664001464844</v>
+        <v>2.306331872940064</v>
       </c>
       <c r="C11" s="1">
         <v>939</v>
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>2.265316247940064</v>
+        <v>2.252296447753906</v>
       </c>
       <c r="C12" s="1">
         <v>917</v>
@@ -2286,16 +2286,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.986166000366211</v>
+        <v>1.969838380813599</v>
       </c>
       <c r="C13" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1.921936750411987</v>
+        <v>1.910890579223633</v>
       </c>
       <c r="C14" s="1">
         <v>778</v>
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1.916996002197266</v>
+        <v>1.905978322029114</v>
       </c>
       <c r="C15" s="1">
         <v>776</v>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.788537502288818</v>
+        <v>1.778258085250855</v>
       </c>
       <c r="C16" s="1">
         <v>724</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.640316247940064</v>
+        <v>1.63088858127594</v>
       </c>
       <c r="C17" s="1">
         <v>664</v>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.632905125617981</v>
+        <v>1.623520135879517</v>
       </c>
       <c r="C18" s="1">
         <v>661</v>
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.482213497161865</v>
+        <v>1.473694562911987</v>
       </c>
       <c r="C19" s="1">
         <v>600</v>
@@ -2468,7 +2468,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.462450623512268</v>
+        <v>1.454045295715332</v>
       </c>
       <c r="C20" s="1">
         <v>592</v>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>1.393280625343323</v>
+        <v>1.385272860527039</v>
       </c>
       <c r="C21" s="1">
         <v>564</v>
@@ -2520,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1.319169998168945</v>
+        <v>1.311588168144226</v>
       </c>
       <c r="C22" s="1">
         <v>534</v>
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.289525747299194</v>
+        <v>1.282114267349243</v>
       </c>
       <c r="C23" s="1">
         <v>522</v>
@@ -2572,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.289525747299194</v>
+        <v>1.282114267349243</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -2598,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.161067247390747</v>
+        <v>1.154394030570984</v>
       </c>
       <c r="C25" s="1">
         <v>470</v>
@@ -2624,7 +2624,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.151185750961304</v>
+        <v>1.144569396972656</v>
       </c>
       <c r="C26" s="1">
         <v>466</v>
@@ -2650,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>1.136363625526428</v>
+        <v>1.12983250617981</v>
       </c>
       <c r="C27" s="1">
         <v>460</v>
@@ -2676,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>1.136363625526428</v>
+        <v>1.12983250617981</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>1.057312250137329</v>
+        <v>1.051235437393189</v>
       </c>
       <c r="C29" s="1">
         <v>428</v>
@@ -2728,7 +2728,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9387351870536804</v>
+        <v>0.9333398938179016</v>
       </c>
       <c r="C30" s="1">
         <v>380</v>
@@ -2754,7 +2754,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8992094993591309</v>
+        <v>0.8940413594245911</v>
       </c>
       <c r="C31" s="1">
         <v>364</v>
@@ -2780,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.760869562625885</v>
+        <v>0.7564965486526489</v>
       </c>
       <c r="C32" s="1">
         <v>308</v>
@@ -2806,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7114624381065369</v>
+        <v>0.7073733806610107</v>
       </c>
       <c r="C33" s="1">
         <v>288</v>
@@ -2832,7 +2832,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.70652174949646</v>
+        <v>0.7024610638618469</v>
       </c>
       <c r="C34" s="1">
         <v>286</v>
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6892292499542236</v>
+        <v>0.685267984867096</v>
       </c>
       <c r="C35" s="1">
         <v>279</v>
@@ -2884,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.489130437374115</v>
+        <v>0.4863192141056061</v>
       </c>
       <c r="C36" s="1">
         <v>198</v>
@@ -2910,7 +2910,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4446640312671661</v>
+        <v>0.4421083629131317</v>
       </c>
       <c r="C37" s="1">
         <v>180</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4199604690074921</v>
+        <v>0.4175467789173126</v>
       </c>
       <c r="C38" s="1">
         <v>170</v>
@@ -2962,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.395256906747818</v>
+        <v>0.3929852247238159</v>
       </c>
       <c r="C39" s="1">
         <v>160</v>
@@ -2988,7 +2988,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3705533742904663</v>
+        <v>0.3684236407279968</v>
       </c>
       <c r="C40" s="1">
         <v>150</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3260869681835175</v>
+        <v>0.3242127895355225</v>
       </c>
       <c r="C41" s="1">
         <v>132</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3162055313587189</v>
+        <v>0.3143881857395172</v>
       </c>
       <c r="C42" s="1">
         <v>128</v>
@@ -3066,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2766798436641693</v>
+        <v>0.2750896513462067</v>
       </c>
       <c r="C43" s="1">
         <v>112</v>
@@ -3092,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2173912972211838</v>
+        <v>0.216141864657402</v>
       </c>
       <c r="C44" s="1">
         <v>88</v>
@@ -3118,7 +3118,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.197628453373909</v>
+        <v>0.196492612361908</v>
       </c>
       <c r="C45" s="1">
         <v>80</v>
@@ -3144,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1729249060153961</v>
+        <v>0.1719310283660889</v>
       </c>
       <c r="C46" s="1">
         <v>70</v>
@@ -3170,7 +3170,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1333992034196854</v>
+        <v>0.1326325088739395</v>
       </c>
       <c r="C47" s="1">
         <v>54</v>
@@ -3196,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1185770779848099</v>
+        <v>0.1178955659270287</v>
       </c>
       <c r="C48" s="1">
         <v>48</v>
@@ -3222,7 +3222,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1185770779848099</v>
+        <v>0.1178955659270287</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3248,7 +3248,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1086956486105919</v>
+        <v>0.108070932328701</v>
       </c>
       <c r="C50" s="1">
         <v>44</v>
@@ -3274,7 +3274,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08893280476331711</v>
+        <v>0.08842167258262634</v>
       </c>
       <c r="C51" s="1">
         <v>36</v>
@@ -3300,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08893280476331711</v>
+        <v>0.08842167258262634</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.08893280476331711</v>
+        <v>0.08842167258262634</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.07411067187786102</v>
+        <v>0.07368472963571549</v>
       </c>
       <c r="C54" s="1">
         <v>30</v>
@@ -3378,7 +3378,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.07411067187786102</v>
+        <v>0.07368472963571549</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3404,7 +3404,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.06422924995422363</v>
+        <v>0.06386009603738785</v>
       </c>
       <c r="C56" s="1">
         <v>26</v>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03952569141983986</v>
+        <v>0.03929852321743965</v>
       </c>
       <c r="C57" s="1">
         <v>16</v>
@@ -3456,7 +3456,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03458498045802116</v>
+        <v>0.03438620641827583</v>
       </c>
       <c r="C58" s="1">
         <v>14</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.02964426949620247</v>
+        <v>0.02947389148175716</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -3508,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01976284570991993</v>
+        <v>0.01964926160871983</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01976284570991993</v>
+        <v>0.01964926160871983</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3560,7 +3560,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01976284570991993</v>
+        <v>0.01964926160871983</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3586,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="2">
-        <v>0.009881422854959965</v>
+        <v>0.009824630804359913</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009881422854959965</v>
+        <v>0.009824630804359913</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3638,7 +3638,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009881422854959965</v>
+        <v>0.009824630804359913</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>main.o</t>
+  </si>
+  <si>
+    <t>app_fourlightsgamep.o</t>
   </si>
   <si>
     <t>app_gameprocess.o</t>
@@ -326,9 +329,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$66</c:f>
+              <c:f>ram_percent!$A$3:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -357,42 +360,45 @@
                   <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>app_fourlightsgamep.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>app_gameprocess.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>app_levelconfig.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>port.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>app_countdown.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>u8x8_cad.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>app_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -400,74 +406,77 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$66</c:f>
+              <c:f>ram_percent!$B$3:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>87.06511688232422</c:v>
+                  <c:v>86.9803466796875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.471974849700928</c:v>
+                  <c:v>6.465673446655273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.305500745773315</c:v>
+                  <c:v>1.304229736328125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16497814655304</c:v>
+                  <c:v>1.163843870162964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.160445094108582</c:v>
+                  <c:v>1.159315228462219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.160445094108582</c:v>
+                  <c:v>1.159315228462219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9065977931022644</c:v>
+                  <c:v>0.9057150483131409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.215316966176033</c:v>
+                  <c:v>0.2151073217391968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2085174918174744</c:v>
+                  <c:v>0.2083144634962082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09065977483987808</c:v>
+                  <c:v>0.09736436605453491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07366106659173966</c:v>
+                  <c:v>0.09057150781154633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07252781838178635</c:v>
+                  <c:v>0.07358934730291367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.06799483299255371</c:v>
+                  <c:v>0.0724572017788887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01019922457635403</c:v>
+                  <c:v>0.06792862713336945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00566623592749238</c:v>
+                  <c:v>0.01018929481506348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.004532988648861647</c:v>
+                  <c:v>0.005660719238221645</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004532988648861647</c:v>
+                  <c:v>0.004528575111180544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004532988648861647</c:v>
+                  <c:v>0.004528575111180544</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004532988648861647</c:v>
+                  <c:v>0.004528575111180544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001133247162215412</c:v>
+                  <c:v>0.004528575111180544</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001133247162215412</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                  <c:v>0.001132143777795136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.001132143777795136</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -535,9 +544,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$66</c:f>
+              <c:f>flash_percent!$A$3:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>u8g2_fonts.o</c:v>
                 </c:pt>
@@ -563,13 +572,13 @@
                   <c:v>queue.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>app_keys.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>port.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>app_keys.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>oled.o</c:v>
@@ -578,156 +587,159 @@
                   <c:v>mc_w.l</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>app_fourlightsgamep.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>u8x8_byte.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>event_groups.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i2c1.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>usart0.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>printf3.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>exti.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>u8g2_hvline.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>u8x8_cad.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>startup_gd32f407_427.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>spi1.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>spi0.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>u8g2_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>u8x8_display.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>u8g2_ll_hvline.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>u8g2_intersection.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>u8g2_buffer.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>app_countdown.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>app_ws2812.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>u8g2_d_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>u8x8_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>puts.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>gd32f4xx_exti.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>u8x8_8x8.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>u8g2_d_memory.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>spi.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>u8x8_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -735,200 +747,203 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$66</c:f>
+              <c:f>flash_percent!$B$3:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>30.6724967956543</c:v>
+                  <c:v>29.97671508789063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.697254180908203</c:v>
+                  <c:v>8.499963760375977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.568453311920166</c:v>
+                  <c:v>4.464821338653565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.254065036773682</c:v>
+                  <c:v>4.157565116882324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.239327907562256</c:v>
+                  <c:v>4.123958587646484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.404234409332275</c:v>
+                  <c:v>3.327012062072754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.048091650009155</c:v>
+                  <c:v>3.065364122390747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.510193109512329</c:v>
+                  <c:v>2.453251361846924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.306331872940064</c:v>
+                  <c:v>2.304424047470093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.252296447753906</c:v>
+                  <c:v>2.254014730453491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.969838380813599</c:v>
+                  <c:v>2.201205015182495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.910890579223633</c:v>
+                  <c:v>1.867543578147888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.905978322029114</c:v>
+                  <c:v>1.862742781639099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.778258085250855</c:v>
+                  <c:v>1.821935176849365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.63088858127594</c:v>
+                  <c:v>1.737919807434082</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.623520135879517</c:v>
+                  <c:v>1.59389328956604</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.473694562911987</c:v>
+                  <c:v>1.586691975593567</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.454045295715332</c:v>
+                  <c:v>1.44026505947113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.385272860527039</c:v>
+                  <c:v>1.421061515808106</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.311588168144226</c:v>
+                  <c:v>1.353849053382874</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.282114267349243</c:v>
+                  <c:v>1.281835913658142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.282114267349243</c:v>
+                  <c:v>1.25303053855896</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.154394030570984</c:v>
+                  <c:v>1.25303053855896</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.144569396972656</c:v>
+                  <c:v>1.128207564353943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.12983250617981</c:v>
+                  <c:v>1.118605852127075</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.12983250617981</c:v>
+                  <c:v>1.104203224182129</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.051235437393189</c:v>
+                  <c:v>1.104203224182129</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9333398938179016</c:v>
+                  <c:v>1.027389049530029</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8940413594245911</c:v>
+                  <c:v>0.9121678471565247</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7564965486526489</c:v>
+                  <c:v>0.8737607598304749</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7073733806610107</c:v>
+                  <c:v>0.7393360137939453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7024610638618469</c:v>
+                  <c:v>0.6913272142410278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.685267984867096</c:v>
+                  <c:v>0.6865262985229492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4863192141056061</c:v>
+                  <c:v>0.6697232127189636</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4421083629131317</c:v>
+                  <c:v>0.4752874672412872</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4175467789173126</c:v>
+                  <c:v>0.4320794939994812</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3929852247238159</c:v>
+                  <c:v>0.4080750942230225</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3684236407279968</c:v>
+                  <c:v>0.3840706646442413</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3242127895355225</c:v>
+                  <c:v>0.3600662648677826</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3143881857395172</c:v>
+                  <c:v>0.3168582916259766</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2750896513462067</c:v>
+                  <c:v>0.3072565495967865</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.216141864657402</c:v>
+                  <c:v>0.2688494622707367</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.196492612361908</c:v>
+                  <c:v>0.2112388610839844</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1719310283660889</c:v>
+                  <c:v>0.1920353323221207</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1326325088739395</c:v>
+                  <c:v>0.1680309176445007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1178955659270287</c:v>
+                  <c:v>0.1296238452196121</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1178955659270287</c:v>
+                  <c:v>0.1152212023735046</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.108070932328701</c:v>
+                  <c:v>0.1152212023735046</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08842167258262634</c:v>
+                  <c:v>0.1056194305419922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08842167258262634</c:v>
+                  <c:v>0.08641590178012848</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.08842167258262634</c:v>
+                  <c:v>0.08641590178012848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07368472963571549</c:v>
+                  <c:v>0.08641590178012848</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07368472963571549</c:v>
+                  <c:v>0.0720132514834404</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06386009603738785</c:v>
+                  <c:v>0.0720132514834404</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03929852321743965</c:v>
+                  <c:v>0.06241148337721825</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03438620641827583</c:v>
+                  <c:v>0.03840706869959831</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.02947389148175716</c:v>
+                  <c:v>0.03360618278384209</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.01964926160871983</c:v>
+                  <c:v>0.02880530059337616</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01964926160871983</c:v>
+                  <c:v>0.01920353434979916</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01964926160871983</c:v>
+                  <c:v>0.01920353434979916</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.009824630804359913</c:v>
+                  <c:v>0.01920353434979916</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009824630804359913</c:v>
+                  <c:v>0.009601767174899578</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009824630804359913</c:v>
+                  <c:v>0.009601767174899578</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>0.009601767174899578</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1033,8 +1048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H66" totalsRowCount="1">
-  <autoFilter ref="A2:H65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H67" totalsRowCount="1">
+  <autoFilter ref="A2:H66"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1050,8 +1065,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H66" totalsRowCount="1">
-  <autoFilter ref="A2:H65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H67" totalsRowCount="1">
+  <autoFilter ref="A2:H66"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1351,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,28 +1382,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1396,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.06511688232422</v>
+        <v>86.9803466796875</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1422,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.471974849700928</v>
+        <v>6.465673446655273</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1448,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.305500745773315</v>
+        <v>1.304229736328125</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1474,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.16497814655304</v>
+        <v>1.163843870162964</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1500,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.160445094108582</v>
+        <v>1.159315228462219</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1526,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.160445094108582</v>
+        <v>1.159315228462219</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1552,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9065977931022644</v>
+        <v>0.9057150483131409</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1578,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.215316966176033</v>
+        <v>0.2151073217391968</v>
       </c>
       <c r="C10" s="1">
         <v>190</v>
@@ -1604,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2085174918174744</v>
+        <v>0.2083144634962082</v>
       </c>
       <c r="C11" s="1">
         <v>184</v>
@@ -1630,22 +1645,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09065977483987808</v>
+        <v>0.09736436605453491</v>
       </c>
       <c r="C12" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1">
-        <v>1241</v>
+        <v>759</v>
       </c>
       <c r="E12" s="1">
-        <v>1130</v>
+        <v>678</v>
       </c>
       <c r="F12" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1656,22 +1671,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07366106659173966</v>
+        <v>0.09057150781154633</v>
       </c>
       <c r="C13" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1">
-        <v>1726</v>
+        <v>1277</v>
       </c>
       <c r="E13" s="1">
-        <v>1582</v>
+        <v>1166</v>
       </c>
       <c r="F13" s="1">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
@@ -1682,25 +1697,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.07252781838178635</v>
+        <v>0.07358934730291367</v>
       </c>
       <c r="C14" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1">
-        <v>1022</v>
+        <v>1718</v>
       </c>
       <c r="E14" s="1">
-        <v>1002</v>
+        <v>1574</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1708,25 +1723,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.06799483299255371</v>
+        <v>0.0724572017788887</v>
       </c>
       <c r="C15" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="1">
-        <v>918</v>
+        <v>1002</v>
       </c>
       <c r="F15" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1734,25 +1749,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.01019922457635403</v>
+        <v>0.06792862713336945</v>
       </c>
       <c r="C16" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="E16" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F16" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1760,25 +1775,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.00566623592749238</v>
+        <v>0.01018929481506348</v>
       </c>
       <c r="C17" s="1">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>917</v>
+      </c>
+      <c r="E17" s="1">
+        <v>872</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
         <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>279</v>
-      </c>
-      <c r="E17" s="1">
-        <v>274</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1786,22 +1801,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.004532988648861647</v>
+        <v>0.005660719238221645</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>776</v>
+        <v>279</v>
       </c>
       <c r="E18" s="1">
-        <v>772</v>
+        <v>274</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1812,16 +1827,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004532988648861647</v>
+        <v>0.004528575111180544</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>776</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1838,16 +1853,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004532988648861647</v>
+        <v>0.004528575111180544</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1864,25 +1879,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.004532988648861647</v>
+        <v>0.004528575111180544</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>112</v>
+        <v>534</v>
       </c>
       <c r="E21" s="1">
-        <v>112</v>
+        <v>530</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1890,16 +1905,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.001133247162215412</v>
+        <v>0.004528575111180544</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1908,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1916,16 +1931,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.001133247162215412</v>
+        <v>0.001132143777795136</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>802</v>
+        <v>460</v>
       </c>
       <c r="E23" s="1">
-        <v>802</v>
+        <v>460</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1937,35 +1952,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.001132143777795136</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>960</v>
+      </c>
+      <c r="E24" s="1">
+        <v>960</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1981,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1997,36 +2038,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>30.6724967956543</v>
+        <v>29.97671508789063</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2052,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.697254180908203</v>
+        <v>8.499963760375977</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2078,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.568453311920166</v>
+        <v>4.464821338653565</v>
       </c>
       <c r="C5" s="1">
         <v>1860</v>
@@ -2101,10 +2142,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>4.254065036773682</v>
+        <v>4.157565116882324</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2127,19 +2168,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>4.239327907562256</v>
+        <v>4.123958587646484</v>
       </c>
       <c r="C7" s="1">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="D7" s="1">
         <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="F7" s="1">
         <v>84</v>
@@ -2156,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>3.404234409332275</v>
+        <v>3.327012062072754</v>
       </c>
       <c r="C8" s="1">
         <v>1386</v>
@@ -2179,19 +2220,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>3.048091650009155</v>
+        <v>3.065364122390747</v>
       </c>
       <c r="C9" s="1">
-        <v>1241</v>
+        <v>1277</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>1130</v>
+        <v>1166</v>
       </c>
       <c r="F9" s="1">
         <v>36</v>
@@ -2205,10 +2246,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>2.510193109512329</v>
+        <v>2.453251361846924</v>
       </c>
       <c r="C10" s="1">
         <v>1022</v>
@@ -2231,28 +2272,28 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>2.306331872940064</v>
+        <v>2.304424047470093</v>
       </c>
       <c r="C11" s="1">
-        <v>939</v>
+        <v>960</v>
       </c>
       <c r="D11" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="F11" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2260,51 +2301,51 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>2.252296447753906</v>
+        <v>2.254014730453491</v>
       </c>
       <c r="C12" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F12" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>1.969838380813599</v>
+        <v>2.201205015182495</v>
       </c>
       <c r="C13" s="1">
-        <v>802</v>
+        <v>917</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>802</v>
+        <v>872</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2312,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1.910890579223633</v>
+        <v>1.867543578147888</v>
       </c>
       <c r="C14" s="1">
         <v>778</v>
@@ -2335,10 +2376,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>1.905978322029114</v>
+        <v>1.862742781639099</v>
       </c>
       <c r="C15" s="1">
         <v>776</v>
@@ -2361,80 +2402,80 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>1.778258085250855</v>
+        <v>1.821935176849365</v>
       </c>
       <c r="C16" s="1">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
-        <v>724</v>
+        <v>678</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.63088858127594</v>
+        <v>1.737919807434082</v>
       </c>
       <c r="C17" s="1">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="D17" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="F17" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>76828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.623520135879517</v>
+        <v>1.59389328956604</v>
       </c>
       <c r="C18" s="1">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
       <c r="E18" s="1">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="F18" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>76828</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2442,19 +2483,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.473694562911987</v>
+        <v>1.586691975593567</v>
       </c>
       <c r="C19" s="1">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2468,16 +2509,16 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.454045295715332</v>
+        <v>1.44026505947113</v>
       </c>
       <c r="C20" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2491,19 +2532,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.385272860527039</v>
+        <v>1.421061515808106</v>
       </c>
       <c r="C21" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D21" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2512,56 +2553,56 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>1.311588168144226</v>
+        <v>1.353849053382874</v>
       </c>
       <c r="C22" s="1">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>1028</v>
       </c>
       <c r="E22" s="1">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1.282114267349243</v>
+        <v>1.281835913658142</v>
       </c>
       <c r="C23" s="1">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2569,16 +2610,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.282114267349243</v>
+        <v>1.25303053855896</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
       </c>
       <c r="D24" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>522</v>
@@ -2590,24 +2631,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>1.154394030570984</v>
+        <v>1.25303053855896</v>
       </c>
       <c r="C25" s="1">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E25" s="1">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2616,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2624,16 +2665,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.144569396972656</v>
+        <v>1.128207564353943</v>
       </c>
       <c r="C26" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2647,19 +2688,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1.12983250617981</v>
+        <v>1.118605852127075</v>
       </c>
       <c r="C27" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2668,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>1.12983250617981</v>
+        <v>1.104203224182129</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>460</v>
@@ -2694,59 +2735,59 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>1.051235437393189</v>
+        <v>1.104203224182129</v>
       </c>
       <c r="C29" s="1">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D29" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="F29" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9333398938179016</v>
+        <v>1.027389049530029</v>
       </c>
       <c r="C30" s="1">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E30" s="1">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2754,16 +2795,16 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8940413594245911</v>
+        <v>0.9121678471565247</v>
       </c>
       <c r="C31" s="1">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2780,19 +2821,19 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7564965486526489</v>
+        <v>0.8737607598304749</v>
       </c>
       <c r="C32" s="1">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="F32" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -2806,19 +2847,19 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7073733806610107</v>
+        <v>0.7393360137939453</v>
       </c>
       <c r="C33" s="1">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F33" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -2832,19 +2873,19 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7024610638618469</v>
+        <v>0.6913272142410278</v>
       </c>
       <c r="C34" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -2855,25 +2896,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.685267984867096</v>
+        <v>0.6865262985229492</v>
       </c>
       <c r="C35" s="1">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2881,25 +2922,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4863192141056061</v>
+        <v>0.6697232127189636</v>
       </c>
       <c r="C36" s="1">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2910,16 +2951,16 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4421083629131317</v>
+        <v>0.4752874672412872</v>
       </c>
       <c r="C37" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2936,16 +2977,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4175467789173126</v>
+        <v>0.4320794939994812</v>
       </c>
       <c r="C38" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2962,16 +3003,16 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3929852247238159</v>
+        <v>0.4080750942230225</v>
       </c>
       <c r="C39" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2988,16 +3029,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3684236407279968</v>
+        <v>0.3840706646442413</v>
       </c>
       <c r="C40" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3014,16 +3055,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3242127895355225</v>
+        <v>0.3600662648677826</v>
       </c>
       <c r="C41" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3040,16 +3081,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3143881857395172</v>
+        <v>0.3168582916259766</v>
       </c>
       <c r="C42" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3063,19 +3104,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2750896513462067</v>
+        <v>0.3072565495967865</v>
       </c>
       <c r="C43" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3084,24 +3125,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>0.216141864657402</v>
+        <v>0.2688494622707367</v>
       </c>
       <c r="C44" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3110,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3118,16 +3159,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.196492612361908</v>
+        <v>0.2112388610839844</v>
       </c>
       <c r="C45" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3144,16 +3185,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1719310283660889</v>
+        <v>0.1920353323221207</v>
       </c>
       <c r="C46" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3170,16 +3211,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1326325088739395</v>
+        <v>0.1680309176445007</v>
       </c>
       <c r="C47" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3196,16 +3237,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1178955659270287</v>
+        <v>0.1296238452196121</v>
       </c>
       <c r="C48" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3222,7 +3263,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1178955659270287</v>
+        <v>0.1152212023735046</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3248,16 +3289,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.108070932328701</v>
+        <v>0.1152212023735046</v>
       </c>
       <c r="C50" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3274,16 +3315,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.08842167258262634</v>
+        <v>0.1056194305419922</v>
       </c>
       <c r="C51" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3300,7 +3341,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08842167258262634</v>
+        <v>0.08641590178012848</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3326,7 +3367,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.08842167258262634</v>
+        <v>0.08641590178012848</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3352,16 +3393,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.07368472963571549</v>
+        <v>0.08641590178012848</v>
       </c>
       <c r="C54" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3378,7 +3419,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.07368472963571549</v>
+        <v>0.0720132514834404</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3404,16 +3445,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.06386009603738785</v>
+        <v>0.0720132514834404</v>
       </c>
       <c r="C56" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3427,19 +3468,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.03929852321743965</v>
+        <v>0.06241148337721825</v>
       </c>
       <c r="C57" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3448,24 +3489,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03438620641827583</v>
+        <v>0.03840706869959831</v>
       </c>
       <c r="C58" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E58" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3474,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3482,16 +3523,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.02947389148175716</v>
+        <v>0.03360618278384209</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3508,16 +3549,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.01964926160871983</v>
+        <v>0.02880530059337616</v>
       </c>
       <c r="C60" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3534,7 +3575,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01964926160871983</v>
+        <v>0.01920353434979916</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3560,7 +3601,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01964926160871983</v>
+        <v>0.01920353434979916</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3583,25 +3624,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.009824630804359913</v>
+        <v>0.01920353434979916</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3609,25 +3650,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009824630804359913</v>
+        <v>0.009601767174899578</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
         <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3638,7 +3679,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009824630804359913</v>
+        <v>0.009601767174899578</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
@@ -3660,34 +3701,60 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.009601767174899578</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -47,13 +47,13 @@
     <t>main.o</t>
   </si>
   <si>
+    <t>app_gameprocess.o</t>
+  </si>
+  <si>
+    <t>app_levelconfig.o</t>
+  </si>
+  <si>
     <t>app_fourlightsgamep.o</t>
-  </si>
-  <si>
-    <t>app_gameprocess.o</t>
-  </si>
-  <si>
-    <t>app_levelconfig.o</t>
   </si>
   <si>
     <t>queue.o</t>
@@ -360,13 +360,13 @@
                   <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>app_levelconfig.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>app_fourlightsgamep.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>app_gameprocess.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>queue.o</c:v>
@@ -411,70 +411,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>86.9803466796875</c:v>
+                  <c:v>87.00102996826172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.465673446655273</c:v>
+                  <c:v>6.46721076965332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.304229736328125</c:v>
+                  <c:v>1.304539799690247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.163843870162964</c:v>
+                  <c:v>1.164120674133301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.159315228462219</c:v>
+                  <c:v>1.15959095954895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.159315228462219</c:v>
+                  <c:v>1.15959095954895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9057150483131409</c:v>
+                  <c:v>0.9059304594993591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2151073217391968</c:v>
+                  <c:v>0.2151584774255753</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2083144634962082</c:v>
+                  <c:v>0.2083640098571777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09736436605453491</c:v>
+                  <c:v>0.09059304744005203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09057150781154633</c:v>
+                  <c:v>0.07360684871673584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07358934730291367</c:v>
+                  <c:v>0.07360684871673584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0724572017788887</c:v>
+                  <c:v>0.07247443497180939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.06792862713336945</c:v>
+                  <c:v>0.06794477999210358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01018929481506348</c:v>
+                  <c:v>0.01019171718508005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.005660719238221645</c:v>
+                  <c:v>0.005662065465003252</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004528575111180544</c:v>
+                  <c:v>0.004529652185738087</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004528575111180544</c:v>
+                  <c:v>0.004529652185738087</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004528575111180544</c:v>
+                  <c:v>0.004529652185738087</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004528575111180544</c:v>
+                  <c:v>0.004529652185738087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001132143777795136</c:v>
+                  <c:v>0.001132413046434522</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001132143777795136</c:v>
+                  <c:v>0.001132413046434522</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -563,10 +563,10 @@
                   <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>app_gameprocess.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>driver_ws2812b.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>app_gameprocess.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>queue.o</c:v>
@@ -581,13 +581,13 @@
                   <c:v>port.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>app_fourlightsgamep.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>mc_w.l</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>app_fourlightsgamep.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>u8x8_byte.o</c:v>
@@ -752,196 +752,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>29.97671508789063</c:v>
+                  <c:v>29.90349769592285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.499963760375977</c:v>
+                  <c:v>8.479203224182129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.464821338653565</c:v>
+                  <c:v>4.453916549682617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.157565116882324</c:v>
+                  <c:v>4.147410392761231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.123958587646484</c:v>
+                  <c:v>3.699624061584473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.327012062072754</c:v>
+                  <c:v>3.474533557891846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.065364122390747</c:v>
+                  <c:v>3.318886041641235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.453251361846924</c:v>
+                  <c:v>2.447259426116943</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.304424047470093</c:v>
+                  <c:v>2.284428119659424</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.254014730453491</c:v>
+                  <c:v>2.248509407043457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.201205015182495</c:v>
+                  <c:v>2.195828676223755</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.867543578147888</c:v>
+                  <c:v>2.073705196380615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.862742781639099</c:v>
+                  <c:v>1.862982153892517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.821935176849365</c:v>
+                  <c:v>1.858193039894104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.737919807434082</c:v>
+                  <c:v>1.733675003051758</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.59389328956604</c:v>
+                  <c:v>1.59000027179718</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.586691975593567</c:v>
+                  <c:v>1.582816481590271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.44026505947113</c:v>
+                  <c:v>1.436747193336487</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.421061515808106</c:v>
+                  <c:v>1.417590618133545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.353849053382874</c:v>
+                  <c:v>1.350542426109314</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.281835913658142</c:v>
+                  <c:v>1.27870500087738</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.25303053855896</c:v>
+                  <c:v>1.249970078468323</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.25303053855896</c:v>
+                  <c:v>1.249970078468323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.128207564353943</c:v>
+                  <c:v>1.125451922416687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.118605852127075</c:v>
+                  <c:v>1.115873694419861</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.104203224182129</c:v>
+                  <c:v>1.101506233215332</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.104203224182129</c:v>
+                  <c:v>1.101506233215332</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.027389049530029</c:v>
+                  <c:v>1.024879693984985</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9121678471565247</c:v>
+                  <c:v>0.9099398851394653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8737607598304749</c:v>
+                  <c:v>0.871626615524292</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7393360137939453</c:v>
+                  <c:v>0.7375302314758301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6913272142410278</c:v>
+                  <c:v>0.6896386742591858</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6865262985229492</c:v>
+                  <c:v>0.6848495006561279</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6697232127189636</c:v>
+                  <c:v>0.6680874228477478</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4752874672412872</c:v>
+                  <c:v>0.4741265773773193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4320794939994812</c:v>
+                  <c:v>0.4310241639614105</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4080750942230225</c:v>
+                  <c:v>0.4070783853530884</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3840706646442413</c:v>
+                  <c:v>0.3831325769424439</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3600662648677826</c:v>
+                  <c:v>0.3591867983341217</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3168582916259766</c:v>
+                  <c:v>0.3160843849182129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3072565495967865</c:v>
+                  <c:v>0.3065060675144196</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2688494622707367</c:v>
+                  <c:v>0.2681927978992462</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2112388610839844</c:v>
+                  <c:v>0.2107229232788086</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1920353323221207</c:v>
+                  <c:v>0.1915662884712219</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1680309176445007</c:v>
+                  <c:v>0.1676205098628998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1296238452196121</c:v>
+                  <c:v>0.1293072551488876</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1152212023735046</c:v>
+                  <c:v>0.1149397790431976</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1152212023735046</c:v>
+                  <c:v>0.1149397790431976</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1056194305419922</c:v>
+                  <c:v>0.1053614616394043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08641590178012848</c:v>
+                  <c:v>0.08620483428239822</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.08641590178012848</c:v>
+                  <c:v>0.08620483428239822</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.08641590178012848</c:v>
+                  <c:v>0.08620483428239822</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0720132514834404</c:v>
+                  <c:v>0.07183735817670822</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0720132514834404</c:v>
+                  <c:v>0.07183735817670822</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.06241148337721825</c:v>
+                  <c:v>0.06225904449820519</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03840706869959831</c:v>
+                  <c:v>0.03831325843930244</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.03360618278384209</c:v>
+                  <c:v>0.03352409973740578</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02880530059337616</c:v>
+                  <c:v>0.02873494476079941</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01920353434979916</c:v>
+                  <c:v>0.01915662921965122</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01920353434979916</c:v>
+                  <c:v>0.01915662921965122</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01920353434979916</c:v>
+                  <c:v>0.01915662921965122</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009601767174899578</c:v>
+                  <c:v>0.009578314609825611</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009601767174899578</c:v>
+                  <c:v>0.009578314609825611</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.009601767174899578</c:v>
+                  <c:v>0.009578314609825611</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>86.9803466796875</v>
+        <v>87.00102996826172</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.465673446655273</v>
+        <v>6.46721076965332</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.304229736328125</v>
+        <v>1.304539799690247</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.163843870162964</v>
+        <v>1.164120674133301</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.159315228462219</v>
+        <v>1.15959095954895</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.159315228462219</v>
+        <v>1.15959095954895</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9057150483131409</v>
+        <v>0.9059304594993591</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2151073217391968</v>
+        <v>0.2151584774255753</v>
       </c>
       <c r="C10" s="1">
         <v>190</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2083144634962082</v>
+        <v>0.2083640098571777</v>
       </c>
       <c r="C11" s="1">
         <v>184</v>
@@ -1645,22 +1645,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09736436605453491</v>
+        <v>0.09059304744005203</v>
       </c>
       <c r="C12" s="1">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>759</v>
+        <v>1451</v>
       </c>
       <c r="E12" s="1">
-        <v>678</v>
+        <v>1340</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1671,22 +1671,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.09057150781154633</v>
+        <v>0.07360684871673584</v>
       </c>
       <c r="C13" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>1277</v>
+        <v>1545</v>
       </c>
       <c r="E13" s="1">
-        <v>1166</v>
+        <v>1470</v>
       </c>
       <c r="F13" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
@@ -1697,19 +1697,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.07358934730291367</v>
+        <v>0.07360684871673584</v>
       </c>
       <c r="C14" s="1">
         <v>65</v>
       </c>
       <c r="D14" s="1">
-        <v>1718</v>
+        <v>866</v>
       </c>
       <c r="E14" s="1">
-        <v>1574</v>
+        <v>806</v>
       </c>
       <c r="F14" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>60</v>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.0724572017788887</v>
+        <v>0.07247443497180939</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.06792862713336945</v>
+        <v>0.06794477999210358</v>
       </c>
       <c r="C16" s="1">
         <v>60</v>
@@ -1775,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.01018929481506348</v>
+        <v>0.01019171718508005</v>
       </c>
       <c r="C17" s="1">
         <v>9</v>
@@ -1801,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.005660719238221645</v>
+        <v>0.005662065465003252</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004528575111180544</v>
+        <v>0.004529652185738087</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004528575111180544</v>
+        <v>0.004529652185738087</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1879,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.004528575111180544</v>
+        <v>0.004529652185738087</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1905,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.004528575111180544</v>
+        <v>0.004529652185738087</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -1931,7 +1931,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.001132143777795136</v>
+        <v>0.001132413046434522</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1957,16 +1957,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.001132143777795136</v>
+        <v>0.001132413046434522</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E24" s="1">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>29.97671508789063</v>
+        <v>29.90349769592285</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.499963760375977</v>
+        <v>8.479203224182129</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.464821338653565</v>
+        <v>4.453916549682617</v>
       </c>
       <c r="C5" s="1">
         <v>1860</v>
@@ -2145,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>4.157565116882324</v>
+        <v>4.147410392761231</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2168,22 +2168,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>4.123958587646484</v>
+        <v>3.699624061584473</v>
       </c>
       <c r="C7" s="1">
-        <v>1718</v>
+        <v>1545</v>
       </c>
       <c r="D7" s="1">
         <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>1574</v>
+        <v>1470</v>
       </c>
       <c r="F7" s="1">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>60</v>
@@ -2194,54 +2194,54 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>3.327012062072754</v>
+        <v>3.474533557891846</v>
       </c>
       <c r="C8" s="1">
-        <v>1386</v>
+        <v>1451</v>
       </c>
       <c r="D8" s="1">
-        <v>5711</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1386</v>
+        <v>1340</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8" s="1">
-        <v>5711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>3.065364122390747</v>
+        <v>3.318886041641235</v>
       </c>
       <c r="C9" s="1">
-        <v>1277</v>
+        <v>1386</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
+        <v>5711</v>
       </c>
       <c r="E9" s="1">
-        <v>1166</v>
+        <v>1386</v>
       </c>
       <c r="F9" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>2.453251361846924</v>
+        <v>2.447259426116943</v>
       </c>
       <c r="C10" s="1">
         <v>1022</v>
@@ -2275,16 +2275,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>2.304424047470093</v>
+        <v>2.284428119659424</v>
       </c>
       <c r="C11" s="1">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>2.254014730453491</v>
+        <v>2.248509407043457</v>
       </c>
       <c r="C12" s="1">
         <v>939</v>
@@ -2327,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>2.201205015182495</v>
+        <v>2.195828676223755</v>
       </c>
       <c r="C13" s="1">
         <v>917</v>
@@ -2350,80 +2350,80 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1.867543578147888</v>
+        <v>2.073705196380615</v>
       </c>
       <c r="C14" s="1">
-        <v>778</v>
+        <v>866</v>
       </c>
       <c r="D14" s="1">
-        <v>1152</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1">
-        <v>1152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>1.862742781639099</v>
+        <v>1.862982153892517</v>
       </c>
       <c r="C15" s="1">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="E15" s="1">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1.821935176849365</v>
+        <v>1.858193039894104</v>
       </c>
       <c r="C16" s="1">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D16" s="1">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>678</v>
+        <v>772</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2431,7 +2431,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.737919807434082</v>
+        <v>1.733675003051758</v>
       </c>
       <c r="C17" s="1">
         <v>724</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.59389328956604</v>
+        <v>1.59000027179718</v>
       </c>
       <c r="C18" s="1">
         <v>664</v>
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.586691975593567</v>
+        <v>1.582816481590271</v>
       </c>
       <c r="C19" s="1">
         <v>661</v>
@@ -2509,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.44026505947113</v>
+        <v>1.436747193336487</v>
       </c>
       <c r="C20" s="1">
         <v>600</v>
@@ -2535,7 +2535,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.421061515808106</v>
+        <v>1.417590618133545</v>
       </c>
       <c r="C21" s="1">
         <v>592</v>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>1.353849053382874</v>
+        <v>1.350542426109314</v>
       </c>
       <c r="C22" s="1">
         <v>564</v>
@@ -2587,7 +2587,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1.281835913658142</v>
+        <v>1.27870500087738</v>
       </c>
       <c r="C23" s="1">
         <v>534</v>
@@ -2613,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.25303053855896</v>
+        <v>1.249970078468323</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>1.25303053855896</v>
+        <v>1.249970078468323</v>
       </c>
       <c r="C25" s="1">
         <v>522</v>
@@ -2665,7 +2665,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.128207564353943</v>
+        <v>1.125451922416687</v>
       </c>
       <c r="C26" s="1">
         <v>470</v>
@@ -2691,7 +2691,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1.118605852127075</v>
+        <v>1.115873694419861</v>
       </c>
       <c r="C27" s="1">
         <v>466</v>
@@ -2717,7 +2717,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>1.104203224182129</v>
+        <v>1.101506233215332</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2743,7 +2743,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>1.104203224182129</v>
+        <v>1.101506233215332</v>
       </c>
       <c r="C29" s="1">
         <v>460</v>
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>1.027389049530029</v>
+        <v>1.024879693984985</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -2795,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9121678471565247</v>
+        <v>0.9099398851394653</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2821,7 +2821,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.8737607598304749</v>
+        <v>0.871626615524292</v>
       </c>
       <c r="C32" s="1">
         <v>364</v>
@@ -2847,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7393360137939453</v>
+        <v>0.7375302314758301</v>
       </c>
       <c r="C33" s="1">
         <v>308</v>
@@ -2873,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6913272142410278</v>
+        <v>0.6896386742591858</v>
       </c>
       <c r="C34" s="1">
         <v>288</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6865262985229492</v>
+        <v>0.6848495006561279</v>
       </c>
       <c r="C35" s="1">
         <v>286</v>
@@ -2925,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6697232127189636</v>
+        <v>0.6680874228477478</v>
       </c>
       <c r="C36" s="1">
         <v>279</v>
@@ -2951,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4752874672412872</v>
+        <v>0.4741265773773193</v>
       </c>
       <c r="C37" s="1">
         <v>198</v>
@@ -2977,7 +2977,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4320794939994812</v>
+        <v>0.4310241639614105</v>
       </c>
       <c r="C38" s="1">
         <v>180</v>
@@ -3003,7 +3003,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4080750942230225</v>
+        <v>0.4070783853530884</v>
       </c>
       <c r="C39" s="1">
         <v>170</v>
@@ -3029,7 +3029,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3840706646442413</v>
+        <v>0.3831325769424439</v>
       </c>
       <c r="C40" s="1">
         <v>160</v>
@@ -3055,7 +3055,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3600662648677826</v>
+        <v>0.3591867983341217</v>
       </c>
       <c r="C41" s="1">
         <v>150</v>
@@ -3081,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3168582916259766</v>
+        <v>0.3160843849182129</v>
       </c>
       <c r="C42" s="1">
         <v>132</v>
@@ -3107,7 +3107,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3072565495967865</v>
+        <v>0.3065060675144196</v>
       </c>
       <c r="C43" s="1">
         <v>128</v>
@@ -3133,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2688494622707367</v>
+        <v>0.2681927978992462</v>
       </c>
       <c r="C44" s="1">
         <v>112</v>
@@ -3159,7 +3159,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2112388610839844</v>
+        <v>0.2107229232788086</v>
       </c>
       <c r="C45" s="1">
         <v>88</v>
@@ -3185,7 +3185,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1920353323221207</v>
+        <v>0.1915662884712219</v>
       </c>
       <c r="C46" s="1">
         <v>80</v>
@@ -3211,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1680309176445007</v>
+        <v>0.1676205098628998</v>
       </c>
       <c r="C47" s="1">
         <v>70</v>
@@ -3237,7 +3237,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1296238452196121</v>
+        <v>0.1293072551488876</v>
       </c>
       <c r="C48" s="1">
         <v>54</v>
@@ -3263,7 +3263,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1152212023735046</v>
+        <v>0.1149397790431976</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3289,7 +3289,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1152212023735046</v>
+        <v>0.1149397790431976</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -3315,7 +3315,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1056194305419922</v>
+        <v>0.1053614616394043</v>
       </c>
       <c r="C51" s="1">
         <v>44</v>
@@ -3341,7 +3341,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08641590178012848</v>
+        <v>0.08620483428239822</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3367,7 +3367,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.08641590178012848</v>
+        <v>0.08620483428239822</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3393,7 +3393,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.08641590178012848</v>
+        <v>0.08620483428239822</v>
       </c>
       <c r="C54" s="1">
         <v>36</v>
@@ -3419,7 +3419,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.0720132514834404</v>
+        <v>0.07183735817670822</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3445,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.0720132514834404</v>
+        <v>0.07183735817670822</v>
       </c>
       <c r="C56" s="1">
         <v>30</v>
@@ -3471,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.06241148337721825</v>
+        <v>0.06225904449820519</v>
       </c>
       <c r="C57" s="1">
         <v>26</v>
@@ -3497,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03840706869959831</v>
+        <v>0.03831325843930244</v>
       </c>
       <c r="C58" s="1">
         <v>16</v>
@@ -3523,7 +3523,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.03360618278384209</v>
+        <v>0.03352409973740578</v>
       </c>
       <c r="C59" s="1">
         <v>14</v>
@@ -3549,7 +3549,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.02880530059337616</v>
+        <v>0.02873494476079941</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
@@ -3575,7 +3575,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01920353434979916</v>
+        <v>0.01915662921965122</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3601,7 +3601,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01920353434979916</v>
+        <v>0.01915662921965122</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3627,7 +3627,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.01920353434979916</v>
+        <v>0.01915662921965122</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -3653,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009601767174899578</v>
+        <v>0.009578314609825611</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3679,7 +3679,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009601767174899578</v>
+        <v>0.009578314609825611</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.009601767174899578</v>
+        <v>0.009578314609825611</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -563,25 +563,25 @@
                   <c:v>app_levelconfig.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>app_fourlightsgamep.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>app_gameprocess.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>queue.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>app_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>timers.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>port.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>app_fourlightsgamep.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>oled.o</c:v>
@@ -752,196 +752,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>29.90349769592285</c:v>
+                  <c:v>29.45352554321289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.479203224182129</c:v>
+                  <c:v>8.351612091064453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.453916549682617</c:v>
+                  <c:v>4.443500995635986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.147410392761231</c:v>
+                  <c:v>4.085001945495606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.699624061584473</c:v>
+                  <c:v>3.643953800201416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.474533557891846</c:v>
+                  <c:v>3.49064826965332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.318886041641235</c:v>
+                  <c:v>3.422250509262085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.447259426116943</c:v>
+                  <c:v>3.268944978713989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.284428119659424</c:v>
+                  <c:v>2.410434246063232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.248509407043457</c:v>
+                  <c:v>2.25005316734314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.195828676223755</c:v>
+                  <c:v>2.214674949645996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.073705196380615</c:v>
+                  <c:v>2.162786960601807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.862982153892517</c:v>
+                  <c:v>1.834948897361755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.858193039894104</c:v>
+                  <c:v>1.830231785774231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.733675003051758</c:v>
+                  <c:v>1.707587480545044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.59000027179718</c:v>
+                  <c:v>1.566074728965759</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.582816481590271</c:v>
+                  <c:v>1.558999061584473</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.436747193336487</c:v>
+                  <c:v>1.415127754211426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.417590618133545</c:v>
+                  <c:v>1.396259307861328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.350542426109314</c:v>
+                  <c:v>1.330220103263855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.27870500087738</c:v>
+                  <c:v>1.259463667869568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.249970078468323</c:v>
+                  <c:v>1.231161117553711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.249970078468323</c:v>
+                  <c:v>1.231161117553711</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.125451922416687</c:v>
+                  <c:v>1.108516693115234</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.115873694419861</c:v>
+                  <c:v>1.099082469940186</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.101506233215332</c:v>
+                  <c:v>1.084931254386902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.101506233215332</c:v>
+                  <c:v>1.084931254386902</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.024879693984985</c:v>
+                  <c:v>1.00945782661438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9099398851394653</c:v>
+                  <c:v>0.8962475657463074</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.871626615524292</c:v>
+                  <c:v>0.8585107922554016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7375302314758301</c:v>
+                  <c:v>0.726432204246521</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6896386742591858</c:v>
+                  <c:v>0.679261326789856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6848495006561279</c:v>
+                  <c:v>0.6745442152023315</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6680874228477478</c:v>
+                  <c:v>0.6580343842506409</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4741265773773193</c:v>
+                  <c:v>0.4669921398162842</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4310241639614105</c:v>
+                  <c:v>0.4245383143424988</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4070783853530884</c:v>
+                  <c:v>0.4009528458118439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3831325769424439</c:v>
+                  <c:v>0.377367377281189</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3591867983341217</c:v>
+                  <c:v>0.3537819385528565</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3160843849182129</c:v>
+                  <c:v>0.3113280832767487</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3065060675144196</c:v>
+                  <c:v>0.3018939197063446</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2681927978992462</c:v>
+                  <c:v>0.2641571760177612</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2107229232788086</c:v>
+                  <c:v>0.2075520604848862</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1915662884712219</c:v>
+                  <c:v>0.1886836886405945</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1676205098628998</c:v>
+                  <c:v>0.1650982350111008</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1293072551488876</c:v>
+                  <c:v>0.1273614913225174</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1149397790431976</c:v>
+                  <c:v>0.1132102161645889</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1149397790431976</c:v>
+                  <c:v>0.1132102161645889</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1053614616394043</c:v>
+                  <c:v>0.1037760302424431</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08620483428239822</c:v>
+                  <c:v>0.084907665848732</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.08620483428239822</c:v>
+                  <c:v>0.084907665848732</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.08620483428239822</c:v>
+                  <c:v>0.084907665848732</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07183735817670822</c:v>
+                  <c:v>0.07075638324022293</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.07183735817670822</c:v>
+                  <c:v>0.07075638324022293</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.06225904449820519</c:v>
+                  <c:v>0.06132220104336739</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03831325843930244</c:v>
+                  <c:v>0.03773673996329308</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.03352409973740578</c:v>
+                  <c:v>0.03301964700222015</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02873494476079941</c:v>
+                  <c:v>0.02830255404114723</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01915662921965122</c:v>
+                  <c:v>0.01886836998164654</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01915662921965122</c:v>
+                  <c:v>0.01886836998164654</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01915662921965122</c:v>
+                  <c:v>0.01886836998164654</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009578314609825611</c:v>
+                  <c:v>0.009434184990823269</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009578314609825611</c:v>
+                  <c:v>0.009434184990823269</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.009578314609825611</c:v>
+                  <c:v>0.009434184990823269</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -1599,13 +1599,13 @@
         <v>190</v>
       </c>
       <c r="D10" s="1">
-        <v>1860</v>
+        <v>1884</v>
       </c>
       <c r="E10" s="1">
-        <v>1720</v>
+        <v>1732</v>
       </c>
       <c r="F10" s="1">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -1703,10 +1703,10 @@
         <v>65</v>
       </c>
       <c r="D14" s="1">
-        <v>866</v>
+        <v>1480</v>
       </c>
       <c r="E14" s="1">
-        <v>806</v>
+        <v>1420</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>29.90349769592285</v>
+        <v>29.45352554321289</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.479203224182129</v>
+        <v>8.351612091064453</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.453916549682617</v>
+        <v>4.443500995635986</v>
       </c>
       <c r="C5" s="1">
-        <v>1860</v>
+        <v>1884</v>
       </c>
       <c r="D5" s="1">
         <v>190</v>
       </c>
       <c r="E5" s="1">
-        <v>1720</v>
+        <v>1732</v>
       </c>
       <c r="F5" s="1">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1">
         <v>9</v>
@@ -2145,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>4.147410392761231</v>
+        <v>4.085001945495606</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2171,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>3.699624061584473</v>
+        <v>3.643953800201416</v>
       </c>
       <c r="C7" s="1">
         <v>1545</v>
@@ -2194,25 +2194,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3.474533557891846</v>
+        <v>3.49064826965332</v>
       </c>
       <c r="C8" s="1">
-        <v>1451</v>
+        <v>1480</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1">
-        <v>1340</v>
+        <v>1420</v>
       </c>
       <c r="F8" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -2220,155 +2220,155 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>3.318886041641235</v>
+        <v>3.422250509262085</v>
       </c>
       <c r="C9" s="1">
-        <v>1386</v>
+        <v>1451</v>
       </c>
       <c r="D9" s="1">
-        <v>5711</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>1386</v>
+        <v>1340</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>5711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>2.447259426116943</v>
+        <v>3.268944978713989</v>
       </c>
       <c r="C10" s="1">
-        <v>1022</v>
+        <v>1386</v>
       </c>
       <c r="D10" s="1">
-        <v>64</v>
+        <v>5711</v>
       </c>
       <c r="E10" s="1">
-        <v>1002</v>
+        <v>1386</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>64</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.284428119659424</v>
+        <v>2.410434246063232</v>
       </c>
       <c r="C11" s="1">
-        <v>954</v>
+        <v>1022</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>2.248509407043457</v>
+        <v>2.25005316734314</v>
       </c>
       <c r="C12" s="1">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="D12" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>918</v>
+        <v>954</v>
       </c>
       <c r="F12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.195828676223755</v>
+        <v>2.214674949645996</v>
       </c>
       <c r="C13" s="1">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="F13" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>2.073705196380615</v>
+        <v>2.162786960601807</v>
       </c>
       <c r="C14" s="1">
-        <v>866</v>
+        <v>917</v>
       </c>
       <c r="D14" s="1">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>806</v>
+        <v>872</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>1.862982153892517</v>
+        <v>1.834948897361755</v>
       </c>
       <c r="C15" s="1">
         <v>778</v>
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1.858193039894104</v>
+        <v>1.830231785774231</v>
       </c>
       <c r="C16" s="1">
         <v>776</v>
@@ -2431,7 +2431,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.733675003051758</v>
+        <v>1.707587480545044</v>
       </c>
       <c r="C17" s="1">
         <v>724</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.59000027179718</v>
+        <v>1.566074728965759</v>
       </c>
       <c r="C18" s="1">
         <v>664</v>
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.582816481590271</v>
+        <v>1.558999061584473</v>
       </c>
       <c r="C19" s="1">
         <v>661</v>
@@ -2509,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.436747193336487</v>
+        <v>1.415127754211426</v>
       </c>
       <c r="C20" s="1">
         <v>600</v>
@@ -2535,7 +2535,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.417590618133545</v>
+        <v>1.396259307861328</v>
       </c>
       <c r="C21" s="1">
         <v>592</v>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>1.350542426109314</v>
+        <v>1.330220103263855</v>
       </c>
       <c r="C22" s="1">
         <v>564</v>
@@ -2587,7 +2587,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1.27870500087738</v>
+        <v>1.259463667869568</v>
       </c>
       <c r="C23" s="1">
         <v>534</v>
@@ -2613,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.249970078468323</v>
+        <v>1.231161117553711</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>1.249970078468323</v>
+        <v>1.231161117553711</v>
       </c>
       <c r="C25" s="1">
         <v>522</v>
@@ -2665,7 +2665,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.125451922416687</v>
+        <v>1.108516693115234</v>
       </c>
       <c r="C26" s="1">
         <v>470</v>
@@ -2691,7 +2691,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1.115873694419861</v>
+        <v>1.099082469940186</v>
       </c>
       <c r="C27" s="1">
         <v>466</v>
@@ -2717,7 +2717,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>1.101506233215332</v>
+        <v>1.084931254386902</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2743,7 +2743,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>1.101506233215332</v>
+        <v>1.084931254386902</v>
       </c>
       <c r="C29" s="1">
         <v>460</v>
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>1.024879693984985</v>
+        <v>1.00945782661438</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -2795,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9099398851394653</v>
+        <v>0.8962475657463074</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2821,7 +2821,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.871626615524292</v>
+        <v>0.8585107922554016</v>
       </c>
       <c r="C32" s="1">
         <v>364</v>
@@ -2847,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7375302314758301</v>
+        <v>0.726432204246521</v>
       </c>
       <c r="C33" s="1">
         <v>308</v>
@@ -2873,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6896386742591858</v>
+        <v>0.679261326789856</v>
       </c>
       <c r="C34" s="1">
         <v>288</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6848495006561279</v>
+        <v>0.6745442152023315</v>
       </c>
       <c r="C35" s="1">
         <v>286</v>
@@ -2925,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6680874228477478</v>
+        <v>0.6580343842506409</v>
       </c>
       <c r="C36" s="1">
         <v>279</v>
@@ -2951,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4741265773773193</v>
+        <v>0.4669921398162842</v>
       </c>
       <c r="C37" s="1">
         <v>198</v>
@@ -2977,7 +2977,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4310241639614105</v>
+        <v>0.4245383143424988</v>
       </c>
       <c r="C38" s="1">
         <v>180</v>
@@ -3003,7 +3003,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4070783853530884</v>
+        <v>0.4009528458118439</v>
       </c>
       <c r="C39" s="1">
         <v>170</v>
@@ -3029,7 +3029,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3831325769424439</v>
+        <v>0.377367377281189</v>
       </c>
       <c r="C40" s="1">
         <v>160</v>
@@ -3055,7 +3055,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3591867983341217</v>
+        <v>0.3537819385528565</v>
       </c>
       <c r="C41" s="1">
         <v>150</v>
@@ -3081,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3160843849182129</v>
+        <v>0.3113280832767487</v>
       </c>
       <c r="C42" s="1">
         <v>132</v>
@@ -3107,7 +3107,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3065060675144196</v>
+        <v>0.3018939197063446</v>
       </c>
       <c r="C43" s="1">
         <v>128</v>
@@ -3133,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2681927978992462</v>
+        <v>0.2641571760177612</v>
       </c>
       <c r="C44" s="1">
         <v>112</v>
@@ -3159,7 +3159,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2107229232788086</v>
+        <v>0.2075520604848862</v>
       </c>
       <c r="C45" s="1">
         <v>88</v>
@@ -3185,7 +3185,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1915662884712219</v>
+        <v>0.1886836886405945</v>
       </c>
       <c r="C46" s="1">
         <v>80</v>
@@ -3211,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1676205098628998</v>
+        <v>0.1650982350111008</v>
       </c>
       <c r="C47" s="1">
         <v>70</v>
@@ -3237,7 +3237,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1293072551488876</v>
+        <v>0.1273614913225174</v>
       </c>
       <c r="C48" s="1">
         <v>54</v>
@@ -3263,7 +3263,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1149397790431976</v>
+        <v>0.1132102161645889</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -3289,7 +3289,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1149397790431976</v>
+        <v>0.1132102161645889</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -3315,7 +3315,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1053614616394043</v>
+        <v>0.1037760302424431</v>
       </c>
       <c r="C51" s="1">
         <v>44</v>
@@ -3341,7 +3341,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.08620483428239822</v>
+        <v>0.084907665848732</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -3367,7 +3367,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.08620483428239822</v>
+        <v>0.084907665848732</v>
       </c>
       <c r="C53" s="1">
         <v>36</v>
@@ -3393,7 +3393,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.08620483428239822</v>
+        <v>0.084907665848732</v>
       </c>
       <c r="C54" s="1">
         <v>36</v>
@@ -3419,7 +3419,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.07183735817670822</v>
+        <v>0.07075638324022293</v>
       </c>
       <c r="C55" s="1">
         <v>30</v>
@@ -3445,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.07183735817670822</v>
+        <v>0.07075638324022293</v>
       </c>
       <c r="C56" s="1">
         <v>30</v>
@@ -3471,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.06225904449820519</v>
+        <v>0.06132220104336739</v>
       </c>
       <c r="C57" s="1">
         <v>26</v>
@@ -3497,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03831325843930244</v>
+        <v>0.03773673996329308</v>
       </c>
       <c r="C58" s="1">
         <v>16</v>
@@ -3523,7 +3523,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.03352409973740578</v>
+        <v>0.03301964700222015</v>
       </c>
       <c r="C59" s="1">
         <v>14</v>
@@ -3549,7 +3549,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.02873494476079941</v>
+        <v>0.02830255404114723</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
@@ -3575,7 +3575,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01915662921965122</v>
+        <v>0.01886836998164654</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3601,7 +3601,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01915662921965122</v>
+        <v>0.01886836998164654</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3627,7 +3627,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.01915662921965122</v>
+        <v>0.01886836998164654</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -3653,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009578314609825611</v>
+        <v>0.009434184990823269</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -3679,7 +3679,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009578314609825611</v>
+        <v>0.009434184990823269</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.009578314609825611</v>
+        <v>0.009434184990823269</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>GD32F407_EC12</t>
   </si>
@@ -131,6 +131,9 @@
     <t>gd32f4xx_gpio.o</t>
   </si>
   <si>
+    <t>app_randomnum.o</t>
+  </si>
+  <si>
     <t>u8x8_display.o</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>u8x8_setup.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_trng.o</t>
   </si>
   <si>
     <t>uidiv.o</t>
@@ -329,9 +335,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$67</c:f>
+              <c:f>ram_percent!$A$3:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="65"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>heap_4.o</c:v>
                 </c:pt>
@@ -398,7 +404,7 @@
                 <c:pt idx="21">
                   <c:v>app_keys.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -406,77 +412,77 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$67</c:f>
+              <c:f>ram_percent!$B$3:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>87.00102996826172</c:v>
+                  <c:v>86.97148132324219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.46721076965332</c:v>
+                  <c:v>6.465014457702637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.304539799690247</c:v>
+                  <c:v>1.304096817970276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.164120674133301</c:v>
+                  <c:v>1.163725256919861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.15959095954895</c:v>
+                  <c:v>1.159197211265564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.15959095954895</c:v>
+                  <c:v>1.159197211265564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9059304594993591</c:v>
+                  <c:v>0.9056227803230286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2151584774255753</c:v>
+                  <c:v>0.249046266078949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2083640098571777</c:v>
+                  <c:v>0.2082932442426682</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09059304744005203</c:v>
+                  <c:v>0.09056227654218674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07360684871673584</c:v>
+                  <c:v>0.07358185201883316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07360684871673584</c:v>
+                  <c:v>0.07358185201883316</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.07247443497180939</c:v>
+                  <c:v>0.07244982570409775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.06794477999210358</c:v>
+                  <c:v>0.0679217055439949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01019171718508005</c:v>
+                  <c:v>0.01018825639039278</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.005662065465003252</c:v>
+                  <c:v>0.005660142283886671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004529652185738087</c:v>
+                  <c:v>0.004528114106506109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004529652185738087</c:v>
+                  <c:v>0.004528114106506109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004529652185738087</c:v>
+                  <c:v>0.004528114106506109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004529652185738087</c:v>
+                  <c:v>0.004528114106506109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001132413046434522</c:v>
+                  <c:v>0.001132028526626527</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001132413046434522</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                  <c:v>0.001132028526626527</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -544,9 +550,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$67</c:f>
+              <c:f>flash_percent!$A$3:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="65"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>u8g2_fonts.o</c:v>
                 </c:pt>
@@ -611,10 +617,10 @@
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>printf3.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>exti.o</c:v>
@@ -650,96 +656,102 @@
                   <c:v>bsp_keys.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>app_randomnum.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>u8x8_display.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>u8g2_ll_hvline.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>list.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>u8g2_intersection.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>u8g2_buffer.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>app_countdown.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>app_ws2812.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>u8g2_d_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>delay.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>u8x8_setup.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
+                  <c:v>gd32f4xx_trng.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>puts.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>gd32f4xx_exti.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>u8x8_8x8.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>u8g2_d_memory.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>spi.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>u8x8_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -747,203 +759,209 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$67</c:f>
+              <c:f>flash_percent!$B$3:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>29.45352554321289</c:v>
+                  <c:v>28.81070518493652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.351612091064453</c:v>
+                  <c:v>8.169339179992676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.443500995635986</c:v>
+                  <c:v>5.652324199676514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.085001945495606</c:v>
+                  <c:v>3.995847225189209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.643953800201416</c:v>
+                  <c:v>3.693620920181274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.49064826965332</c:v>
+                  <c:v>3.534433126449585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.422250509262085</c:v>
+                  <c:v>3.347560167312622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.268944978713989</c:v>
+                  <c:v>3.197600603103638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.410434246063232</c:v>
+                  <c:v>2.357826709747315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.25005316734314</c:v>
+                  <c:v>2.237859010696411</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.214674949645996</c:v>
+                  <c:v>2.166339874267578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.162786960601807</c:v>
+                  <c:v>2.115584373474121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.834948897361755</c:v>
+                  <c:v>1.794901371002197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.830231785774231</c:v>
+                  <c:v>1.790287256240845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.707587480545044</c:v>
+                  <c:v>1.670319557189941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.566074728965759</c:v>
+                  <c:v>1.531895279884338</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.558999061584473</c:v>
+                  <c:v>1.52497398853302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.415127754211426</c:v>
+                  <c:v>1.384242653846741</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.396259307861328</c:v>
+                  <c:v>1.365786075592041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.330220103263855</c:v>
+                  <c:v>1.301188111305237</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.259463667869568</c:v>
+                  <c:v>1.23197603225708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.231161117553711</c:v>
+                  <c:v>1.21351945400238</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.231161117553711</c:v>
+                  <c:v>1.204291105270386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.108516693115234</c:v>
+                  <c:v>1.084323406219482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.099082469940186</c:v>
+                  <c:v>1.075095176696777</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.084931254386902</c:v>
+                  <c:v>1.06125271320343</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.084931254386902</c:v>
+                  <c:v>1.06125271320343</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.00945782661438</c:v>
+                  <c:v>0.9874264597892761</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8962475657463074</c:v>
+                  <c:v>0.8766870498657227</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8585107922554016</c:v>
+                  <c:v>0.8397738933563232</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.726432204246521</c:v>
+                  <c:v>0.7105779051780701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.679261326789856</c:v>
+                  <c:v>0.6644365191459656</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6745442152023315</c:v>
+                  <c:v>0.6598223447799683</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6580343842506409</c:v>
+                  <c:v>0.6436728835105896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4669921398162842</c:v>
+                  <c:v>0.4706425070762634</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4245383143424988</c:v>
+                  <c:v>0.456800103187561</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4009528458118439</c:v>
+                  <c:v>0.4152728021144867</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.377367377281189</c:v>
+                  <c:v>0.3922021090984345</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3537819385528565</c:v>
+                  <c:v>0.3691313862800598</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3113280832767487</c:v>
+                  <c:v>0.3460606634616852</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3018939197063446</c:v>
+                  <c:v>0.3045333921909332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2641571760177612</c:v>
+                  <c:v>0.2953051030635834</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2075520604848862</c:v>
+                  <c:v>0.2583919763565064</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1886836886405945</c:v>
+                  <c:v>0.2030222564935684</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1650982350111008</c:v>
+                  <c:v>0.1845656931400299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1273614913225174</c:v>
+                  <c:v>0.1614949852228165</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1132102161645889</c:v>
+                  <c:v>0.1245818436145783</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1132102161645889</c:v>
+                  <c:v>0.1107394173741341</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1037760302424431</c:v>
+                  <c:v>0.1107394173741341</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.084907665848732</c:v>
+                  <c:v>0.1107394173741341</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.084907665848732</c:v>
+                  <c:v>0.1015111282467842</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.084907665848732</c:v>
+                  <c:v>0.0830545648932457</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07075638324022293</c:v>
+                  <c:v>0.0830545648932457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.07075638324022293</c:v>
+                  <c:v>0.0830545648932457</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.06132220104336739</c:v>
+                  <c:v>0.06921213865280151</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03773673996329308</c:v>
+                  <c:v>0.06921213865280151</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.03301964700222015</c:v>
+                  <c:v>0.05998384952545166</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02830255404114723</c:v>
+                  <c:v>0.03691313788294792</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01886836998164654</c:v>
+                  <c:v>0.03229899704456329</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.01886836998164654</c:v>
+                  <c:v>0.02768485434353352</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01886836998164654</c:v>
+                  <c:v>0.01845656894147396</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009434184990823269</c:v>
+                  <c:v>0.01845656894147396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.009434184990823269</c:v>
+                  <c:v>0.01845656894147396</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.009434184990823269</c:v>
+                  <c:v>0.00922828447073698</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>0.00922828447073698</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00922828447073698</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1048,8 +1066,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H67" totalsRowCount="1">
-  <autoFilter ref="A2:H66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H69" totalsRowCount="1">
+  <autoFilter ref="A2:H68"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1065,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H67" totalsRowCount="1">
-  <autoFilter ref="A2:H66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H69" totalsRowCount="1">
+  <autoFilter ref="A2:H68"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1366,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1382,28 +1400,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1411,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>87.00102996826172</v>
+        <v>86.97148132324219</v>
       </c>
       <c r="C3" s="1">
         <v>76828</v>
@@ -1437,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.46721076965332</v>
+        <v>6.465014457702637</v>
       </c>
       <c r="C4" s="1">
         <v>5711</v>
@@ -1463,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1.304539799690247</v>
+        <v>1.304096817970276</v>
       </c>
       <c r="C5" s="1">
         <v>1152</v>
@@ -1489,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.164120674133301</v>
+        <v>1.163725256919861</v>
       </c>
       <c r="C6" s="1">
         <v>1028</v>
@@ -1515,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.15959095954895</v>
+        <v>1.159197211265564</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1541,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.15959095954895</v>
+        <v>1.159197211265564</v>
       </c>
       <c r="C8" s="1">
         <v>1024</v>
@@ -1567,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9059304594993591</v>
+        <v>0.9056227803230286</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
@@ -1593,25 +1611,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2151584774255753</v>
+        <v>0.249046266078949</v>
       </c>
       <c r="C10" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1">
-        <v>1884</v>
+        <v>2450</v>
       </c>
       <c r="E10" s="1">
-        <v>1732</v>
+        <v>2180</v>
       </c>
       <c r="F10" s="1">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1619,16 +1637,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2083640098571777</v>
+        <v>0.2082932442426682</v>
       </c>
       <c r="C11" s="1">
         <v>184</v>
       </c>
       <c r="D11" s="1">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E11" s="1">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1645,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.09059304744005203</v>
+        <v>0.09056227654218674</v>
       </c>
       <c r="C12" s="1">
         <v>80</v>
@@ -1671,16 +1689,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.07360684871673584</v>
+        <v>0.07358185201883316</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>1545</v>
+        <v>1601</v>
       </c>
       <c r="E13" s="1">
-        <v>1470</v>
+        <v>1526</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
@@ -1697,16 +1715,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.07360684871673584</v>
+        <v>0.07358185201883316</v>
       </c>
       <c r="C14" s="1">
         <v>65</v>
       </c>
       <c r="D14" s="1">
-        <v>1480</v>
+        <v>1532</v>
       </c>
       <c r="E14" s="1">
-        <v>1420</v>
+        <v>1472</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1723,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.07247443497180939</v>
+        <v>0.07244982570409775</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1749,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.06794477999210358</v>
+        <v>0.0679217055439949</v>
       </c>
       <c r="C16" s="1">
         <v>60</v>
@@ -1775,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.01019171718508005</v>
+        <v>0.01018825639039278</v>
       </c>
       <c r="C17" s="1">
         <v>9</v>
@@ -1801,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.005662065465003252</v>
+        <v>0.005660142283886671</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1827,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.004529652185738087</v>
+        <v>0.004528114106506109</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1853,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.004529652185738087</v>
+        <v>0.004528114106506109</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1879,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.004529652185738087</v>
+        <v>0.004528114106506109</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1905,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.004529652185738087</v>
+        <v>0.004528114106506109</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -1931,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.001132413046434522</v>
+        <v>0.001132028526626527</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1957,16 +1975,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.001132413046434522</v>
+        <v>0.001132028526626527</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="E24" s="1">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1978,35 +1996,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H67">
+      <c r="H69">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2022,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,28 +2056,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2067,7 +2085,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>29.45352554321289</v>
+        <v>28.81070518493652</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2093,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.351612091064453</v>
+        <v>8.169339179992676</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2119,25 +2137,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4.443500995635986</v>
+        <v>5.652324199676514</v>
       </c>
       <c r="C5" s="1">
-        <v>1884</v>
+        <v>2450</v>
       </c>
       <c r="D5" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1">
-        <v>1732</v>
+        <v>2180</v>
       </c>
       <c r="F5" s="1">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1">
         <v>9</v>
       </c>
       <c r="H5" s="1">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2145,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>4.085001945495606</v>
+        <v>3.995847225189209</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2171,16 +2189,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>3.643953800201416</v>
+        <v>3.693620920181274</v>
       </c>
       <c r="C7" s="1">
-        <v>1545</v>
+        <v>1601</v>
       </c>
       <c r="D7" s="1">
         <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>1470</v>
+        <v>1526</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -2197,16 +2215,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3.49064826965332</v>
+        <v>3.534433126449585</v>
       </c>
       <c r="C8" s="1">
-        <v>1480</v>
+        <v>1532</v>
       </c>
       <c r="D8" s="1">
         <v>65</v>
       </c>
       <c r="E8" s="1">
-        <v>1420</v>
+        <v>1472</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2223,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>3.422250509262085</v>
+        <v>3.347560167312622</v>
       </c>
       <c r="C9" s="1">
         <v>1451</v>
@@ -2249,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>3.268944978713989</v>
+        <v>3.197600603103638</v>
       </c>
       <c r="C10" s="1">
         <v>1386</v>
@@ -2275,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.410434246063232</v>
+        <v>2.357826709747315</v>
       </c>
       <c r="C11" s="1">
         <v>1022</v>
@@ -2301,16 +2319,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>2.25005316734314</v>
+        <v>2.237859010696411</v>
       </c>
       <c r="C12" s="1">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2327,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.214674949645996</v>
+        <v>2.166339874267578</v>
       </c>
       <c r="C13" s="1">
         <v>939</v>
@@ -2353,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>2.162786960601807</v>
+        <v>2.115584373474121</v>
       </c>
       <c r="C14" s="1">
         <v>917</v>
@@ -2379,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>1.834948897361755</v>
+        <v>1.794901371002197</v>
       </c>
       <c r="C15" s="1">
         <v>778</v>
@@ -2405,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1.830231785774231</v>
+        <v>1.790287256240845</v>
       </c>
       <c r="C16" s="1">
         <v>776</v>
@@ -2431,7 +2449,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.707587480545044</v>
+        <v>1.670319557189941</v>
       </c>
       <c r="C17" s="1">
         <v>724</v>
@@ -2457,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.566074728965759</v>
+        <v>1.531895279884338</v>
       </c>
       <c r="C18" s="1">
         <v>664</v>
@@ -2483,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.558999061584473</v>
+        <v>1.52497398853302</v>
       </c>
       <c r="C19" s="1">
         <v>661</v>
@@ -2509,7 +2527,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.415127754211426</v>
+        <v>1.384242653846741</v>
       </c>
       <c r="C20" s="1">
         <v>600</v>
@@ -2535,7 +2553,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.396259307861328</v>
+        <v>1.365786075592041</v>
       </c>
       <c r="C21" s="1">
         <v>592</v>
@@ -2561,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>1.330220103263855</v>
+        <v>1.301188111305237</v>
       </c>
       <c r="C22" s="1">
         <v>564</v>
@@ -2587,7 +2605,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1.259463667869568</v>
+        <v>1.23197603225708</v>
       </c>
       <c r="C23" s="1">
         <v>534</v>
@@ -2610,19 +2628,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.231161117553711</v>
+        <v>1.21351945400238</v>
       </c>
       <c r="C24" s="1">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2631,21 +2649,21 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.231161117553711</v>
+        <v>1.204291105270386</v>
       </c>
       <c r="C25" s="1">
         <v>522</v>
       </c>
       <c r="D25" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>522</v>
@@ -2657,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2665,7 +2683,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.108516693115234</v>
+        <v>1.084323406219482</v>
       </c>
       <c r="C26" s="1">
         <v>470</v>
@@ -2691,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1.099082469940186</v>
+        <v>1.075095176696777</v>
       </c>
       <c r="C27" s="1">
         <v>466</v>
@@ -2717,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>1.084931254386902</v>
+        <v>1.06125271320343</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2743,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>1.084931254386902</v>
+        <v>1.06125271320343</v>
       </c>
       <c r="C29" s="1">
         <v>460</v>
@@ -2769,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>1.00945782661438</v>
+        <v>0.9874264597892761</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -2795,7 +2813,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8962475657463074</v>
+        <v>0.8766870498657227</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2821,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.8585107922554016</v>
+        <v>0.8397738933563232</v>
       </c>
       <c r="C32" s="1">
         <v>364</v>
@@ -2847,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.726432204246521</v>
+        <v>0.7105779051780701</v>
       </c>
       <c r="C33" s="1">
         <v>308</v>
@@ -2873,7 +2891,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.679261326789856</v>
+        <v>0.6644365191459656</v>
       </c>
       <c r="C34" s="1">
         <v>288</v>
@@ -2899,7 +2917,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6745442152023315</v>
+        <v>0.6598223447799683</v>
       </c>
       <c r="C35" s="1">
         <v>286</v>
@@ -2925,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6580343842506409</v>
+        <v>0.6436728835105896</v>
       </c>
       <c r="C36" s="1">
         <v>279</v>
@@ -2951,16 +2969,16 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4669921398162842</v>
+        <v>0.4706425070762634</v>
       </c>
       <c r="C37" s="1">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2977,16 +2995,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4245383143424988</v>
+        <v>0.456800103187561</v>
       </c>
       <c r="C38" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3003,16 +3021,16 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4009528458118439</v>
+        <v>0.4152728021144867</v>
       </c>
       <c r="C39" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3029,16 +3047,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.377367377281189</v>
+        <v>0.3922021090984345</v>
       </c>
       <c r="C40" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3055,16 +3073,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3537819385528565</v>
+        <v>0.3691313862800598</v>
       </c>
       <c r="C41" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3081,16 +3099,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3113280832767487</v>
+        <v>0.3460606634616852</v>
       </c>
       <c r="C42" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3107,16 +3125,16 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3018939197063446</v>
+        <v>0.3045333921909332</v>
       </c>
       <c r="C43" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3130,19 +3148,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2641571760177612</v>
+        <v>0.2953051030635834</v>
       </c>
       <c r="C44" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3151,24 +3169,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2075520604848862</v>
+        <v>0.2583919763565064</v>
       </c>
       <c r="C45" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3177,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3185,16 +3203,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1886836886405945</v>
+        <v>0.2030222564935684</v>
       </c>
       <c r="C46" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3211,16 +3229,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1650982350111008</v>
+        <v>0.1845656931400299</v>
       </c>
       <c r="C47" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3237,16 +3255,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1273614913225174</v>
+        <v>0.1614949852228165</v>
       </c>
       <c r="C48" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3263,16 +3281,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1132102161645889</v>
+        <v>0.1245818436145783</v>
       </c>
       <c r="C49" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3289,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1132102161645889</v>
+        <v>0.1107394173741341</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -3315,16 +3333,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1037760302424431</v>
+        <v>0.1107394173741341</v>
       </c>
       <c r="C51" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3341,16 +3359,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.084907665848732</v>
+        <v>0.1107394173741341</v>
       </c>
       <c r="C52" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3367,16 +3385,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.084907665848732</v>
+        <v>0.1015111282467842</v>
       </c>
       <c r="C53" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3393,7 +3411,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.084907665848732</v>
+        <v>0.0830545648932457</v>
       </c>
       <c r="C54" s="1">
         <v>36</v>
@@ -3419,16 +3437,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.07075638324022293</v>
+        <v>0.0830545648932457</v>
       </c>
       <c r="C55" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3445,16 +3463,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.07075638324022293</v>
+        <v>0.0830545648932457</v>
       </c>
       <c r="C56" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3471,16 +3489,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.06132220104336739</v>
+        <v>0.06921213865280151</v>
       </c>
       <c r="C57" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3494,19 +3512,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.03773673996329308</v>
+        <v>0.06921213865280151</v>
       </c>
       <c r="C58" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3515,24 +3533,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.03301964700222015</v>
+        <v>0.05998384952545166</v>
       </c>
       <c r="C59" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3546,19 +3564,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B60" s="2">
-        <v>0.02830255404114723</v>
+        <v>0.03691313788294792</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E60" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3567,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3575,16 +3593,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.01886836998164654</v>
+        <v>0.03229899704456329</v>
       </c>
       <c r="C61" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3601,16 +3619,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.01886836998164654</v>
+        <v>0.02768485434353352</v>
       </c>
       <c r="C62" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3627,7 +3645,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.01886836998164654</v>
+        <v>0.01845656894147396</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -3650,25 +3668,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.009434184990823269</v>
+        <v>0.01845656894147396</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3676,19 +3694,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.009434184990823269</v>
+        <v>0.01845656894147396</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3702,59 +3720,111 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B66" s="2">
-        <v>0.009434184990823269</v>
+        <v>0.00922828447073698</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
         <v>4</v>
       </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.00922828447073698</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B68" s="2">
+        <v>0.00922828447073698</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H67">
+      <c r="H69">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Project/GD32F407_EC12_analysis.xlsx
+++ b/Project/GD32F407_EC12_analysis.xlsx
@@ -572,10 +572,10 @@
                   <c:v>app_fourlightsgamep.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>driver_ws2812b.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>app_gameprocess.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>driver_ws2812b.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>queue.o</c:v>
@@ -617,10 +617,10 @@
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>printf3.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>printf3.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>exti.o</c:v>
@@ -764,202 +764,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>28.81070518493652</c:v>
+                  <c:v>29.16802978515625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.169339179992676</c:v>
+                  <c:v>8.270659446716309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.652324199676514</c:v>
+                  <c:v>5.657028198242188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.995847225189209</c:v>
+                  <c:v>4.045405864715576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.693620920181274</c:v>
+                  <c:v>3.447470426559448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.534433126449585</c:v>
+                  <c:v>3.302658081054688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.347560167312622</c:v>
+                  <c:v>3.190545082092285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.197600603103638</c:v>
+                  <c:v>2.940626859664917</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.357826709747315</c:v>
+                  <c:v>2.387069702148438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.237859010696411</c:v>
+                  <c:v>2.20955753326416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.166339874267578</c:v>
+                  <c:v>2.193207740783691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.115584373474121</c:v>
+                  <c:v>2.141822814941406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.794901371002197</c:v>
+                  <c:v>1.8171626329422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.790287256240845</c:v>
+                  <c:v>1.812491297721863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.670319557189941</c:v>
+                  <c:v>1.691035628318787</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.531895279884338</c:v>
+                  <c:v>1.550894618034363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.52497398853302</c:v>
+                  <c:v>1.543887495994568</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.384242653846741</c:v>
+                  <c:v>1.401410698890686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.365786075592041</c:v>
+                  <c:v>1.382725238800049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.301188111305237</c:v>
+                  <c:v>1.317326068878174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.23197603225708</c:v>
+                  <c:v>1.247255563735962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.21351945400238</c:v>
+                  <c:v>1.219227313995361</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.204291105270386</c:v>
+                  <c:v>1.172513604164124</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.084323406219482</c:v>
+                  <c:v>1.097771763801575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.075095176696777</c:v>
+                  <c:v>1.088428974151611</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.06125271320343</c:v>
+                  <c:v>1.074414968490601</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.06125271320343</c:v>
+                  <c:v>1.074414968490601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9874264597892761</c:v>
+                  <c:v>0.9996730089187622</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8766870498657227</c:v>
+                  <c:v>0.8875601291656494</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8397738933563232</c:v>
+                  <c:v>0.850189208984375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7105779051780701</c:v>
+                  <c:v>0.719390869140625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6644365191459656</c:v>
+                  <c:v>0.6726771593093872</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6598223447799683</c:v>
+                  <c:v>0.6680057644844055</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6436728835105896</c:v>
+                  <c:v>0.6516559720039368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4706425070762634</c:v>
+                  <c:v>0.4764796495437622</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.456800103187561</c:v>
+                  <c:v>0.4624655544757843</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4152728021144867</c:v>
+                  <c:v>0.4204232394695282</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3922021090984345</c:v>
+                  <c:v>0.3970663845539093</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3691313862800598</c:v>
+                  <c:v>0.3737095296382904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3460606634616852</c:v>
+                  <c:v>0.3503526747226715</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3045333921909332</c:v>
+                  <c:v>0.3083103597164154</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2953051030635834</c:v>
+                  <c:v>0.2989676296710968</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2583919763565064</c:v>
+                  <c:v>0.2615966796875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2030222564935684</c:v>
+                  <c:v>0.2055402398109436</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1845656931400299</c:v>
+                  <c:v>0.1868547648191452</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1614949852228165</c:v>
+                  <c:v>0.1634979248046875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1245818436145783</c:v>
+                  <c:v>0.1261269748210907</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1107394173741341</c:v>
+                  <c:v>0.112112857401371</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1107394173741341</c:v>
+                  <c:v>0.112112857401371</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1107394173741341</c:v>
+                  <c:v>0.112112857401371</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1015111282467842</c:v>
+                  <c:v>0.1027701199054718</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0830545648932457</c:v>
+                  <c:v>0.0840846449136734</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0830545648932457</c:v>
+                  <c:v>0.0840846449136734</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0830545648932457</c:v>
+                  <c:v>0.0840846449136734</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.06921213865280151</c:v>
+                  <c:v>0.0700705349445343</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.06921213865280151</c:v>
+                  <c:v>0.0700705349445343</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.05998384952545166</c:v>
+                  <c:v>0.0607278011739254</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.03691313788294792</c:v>
+                  <c:v>0.0373709537088871</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.03229899704456329</c:v>
+                  <c:v>0.0326995849609375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.02768485434353352</c:v>
+                  <c:v>0.02802821435034275</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01845656894147396</c:v>
+                  <c:v>0.01868547685444355</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.01845656894147396</c:v>
+                  <c:v>0.01868547685444355</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.01845656894147396</c:v>
+                  <c:v>0.01868547685444355</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.00922828447073698</c:v>
+                  <c:v>0.009342738427221775</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.00922828447073698</c:v>
+                  <c:v>0.009342738427221775</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.00922828447073698</c:v>
+                  <c:v>0.009342738427221775</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -1461,10 +1461,10 @@
         <v>5711</v>
       </c>
       <c r="D4" s="1">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="E4" s="1">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>220</v>
       </c>
       <c r="D10" s="1">
-        <v>2450</v>
+        <v>2422</v>
       </c>
       <c r="E10" s="1">
-        <v>2180</v>
+        <v>2152</v>
       </c>
       <c r="F10" s="1">
         <v>261</v>
@@ -1643,10 +1643,10 @@
         <v>184</v>
       </c>
       <c r="D11" s="1">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="E11" s="1">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>80</v>
       </c>
       <c r="D12" s="1">
-        <v>1451</v>
+        <v>1259</v>
       </c>
       <c r="E12" s="1">
-        <v>1340</v>
+        <v>1184</v>
       </c>
       <c r="F12" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>75</v>
@@ -1695,13 +1695,13 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>1601</v>
+        <v>1476</v>
       </c>
       <c r="E13" s="1">
-        <v>1526</v>
+        <v>1416</v>
       </c>
       <c r="F13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>60</v>
@@ -1721,10 +1721,10 @@
         <v>65</v>
       </c>
       <c r="D14" s="1">
-        <v>1532</v>
+        <v>1414</v>
       </c>
       <c r="E14" s="1">
-        <v>1472</v>
+        <v>1354</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="E24" s="1">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>28.81070518493652</v>
+        <v>29.16802978515625</v>
       </c>
       <c r="C3" s="1">
         <v>12488</v>
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>8.169339179992676</v>
+        <v>8.270659446716309</v>
       </c>
       <c r="C4" s="1">
         <v>3541</v>
@@ -2137,16 +2137,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>5.652324199676514</v>
+        <v>5.657028198242188</v>
       </c>
       <c r="C5" s="1">
-        <v>2450</v>
+        <v>2422</v>
       </c>
       <c r="D5" s="1">
         <v>220</v>
       </c>
       <c r="E5" s="1">
-        <v>2180</v>
+        <v>2152</v>
       </c>
       <c r="F5" s="1">
         <v>261</v>
@@ -2163,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>3.995847225189209</v>
+        <v>4.045405864715576</v>
       </c>
       <c r="C6" s="1">
         <v>1732</v>
@@ -2189,19 +2189,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>3.693620920181274</v>
+        <v>3.447470426559448</v>
       </c>
       <c r="C7" s="1">
-        <v>1601</v>
+        <v>1476</v>
       </c>
       <c r="D7" s="1">
         <v>65</v>
       </c>
       <c r="E7" s="1">
-        <v>1526</v>
+        <v>1416</v>
       </c>
       <c r="F7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>60</v>
@@ -2215,16 +2215,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3.534433126449585</v>
+        <v>3.302658081054688</v>
       </c>
       <c r="C8" s="1">
-        <v>1532</v>
+        <v>1414</v>
       </c>
       <c r="D8" s="1">
         <v>65</v>
       </c>
       <c r="E8" s="1">
-        <v>1472</v>
+        <v>1354</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2238,54 +2238,54 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>3.347560167312622</v>
+        <v>3.190545082092285</v>
       </c>
       <c r="C9" s="1">
-        <v>1451</v>
+        <v>1366</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
+        <v>5711</v>
       </c>
       <c r="E9" s="1">
-        <v>1340</v>
+        <v>1366</v>
       </c>
       <c r="F9" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3.197600603103638</v>
+        <v>2.940626859664917</v>
       </c>
       <c r="C10" s="1">
-        <v>1386</v>
+        <v>1259</v>
       </c>
       <c r="D10" s="1">
-        <v>5711</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1">
-        <v>1386</v>
+        <v>1184</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1">
-        <v>5711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2293,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.357826709747315</v>
+        <v>2.387069702148438</v>
       </c>
       <c r="C11" s="1">
         <v>1022</v>
@@ -2319,16 +2319,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>2.237859010696411</v>
+        <v>2.20955753326416</v>
       </c>
       <c r="C12" s="1">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.166339874267578</v>
+        <v>2.193207740783691</v>
       </c>
       <c r="C13" s="1">
         <v>939</v>
@@ -2371,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>2.115584373474121</v>
+        <v>2.141822814941406</v>
       </c>
       <c r="C14" s="1">
         <v>917</v>
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>1.794901371002197</v>
+        <v>1.8171626329422</v>
       </c>
       <c r="C15" s="1">
         <v>778</v>
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1.790287256240845</v>
+        <v>1.812491297721863</v>
       </c>
       <c r="C16" s="1">
         <v>776</v>
@@ -2449,7 +2449,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.670319557189941</v>
+        <v>1.691035628318787</v>
       </c>
       <c r="C17" s="1">
         <v>724</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.531895279884338</v>
+        <v>1.550894618034363</v>
       </c>
       <c r="C18" s="1">
         <v>664</v>
@@ -2501,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.52497398853302</v>
+        <v>1.543887495994568</v>
       </c>
       <c r="C19" s="1">
         <v>661</v>
@@ -2527,7 +2527,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.384242653846741</v>
+        <v>1.401410698890686</v>
       </c>
       <c r="C20" s="1">
         <v>600</v>
@@ -2553,7 +2553,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.365786075592041</v>
+        <v>1.382725238800049</v>
       </c>
       <c r="C21" s="1">
         <v>592</v>
@@ -2579,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>1.301188111305237</v>
+        <v>1.317326068878174</v>
       </c>
       <c r="C22" s="1">
         <v>564</v>
@@ -2605,7 +2605,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1.23197603225708</v>
+        <v>1.247255563735962</v>
       </c>
       <c r="C23" s="1">
         <v>534</v>
@@ -2628,19 +2628,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.21351945400238</v>
+        <v>1.219227313995361</v>
       </c>
       <c r="C24" s="1">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D24" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2649,24 +2649,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>1.204291105270386</v>
+        <v>1.172513604164124</v>
       </c>
       <c r="C25" s="1">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E25" s="1">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2683,7 +2683,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>1.084323406219482</v>
+        <v>1.097771763801575</v>
       </c>
       <c r="C26" s="1">
         <v>470</v>
@@ -2709,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1.075095176696777</v>
+        <v>1.088428974151611</v>
       </c>
       <c r="C27" s="1">
         <v>466</v>
@@ -2735,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>1.06125271320343</v>
+        <v>1.074414968490601</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
@@ -2761,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>1.06125271320343</v>
+        <v>1.074414968490601</v>
       </c>
       <c r="C29" s="1">
         <v>460</v>
@@ -2787,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9874264597892761</v>
+        <v>0.9996730089187622</v>
       </c>
       <c r="C30" s="1">
         <v>428</v>
@@ -2813,7 +2813,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8766870498657227</v>
+        <v>0.8875601291656494</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2839,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.8397738933563232</v>
+        <v>0.850189208984375</v>
       </c>
       <c r="C32" s="1">
         <v>364</v>
@@ -2865,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7105779051780701</v>
+        <v>0.719390869140625</v>
       </c>
       <c r="C33" s="1">
         <v>308</v>
@@ -2891,7 +2891,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6644365191459656</v>
+        <v>0.6726771593093872</v>
       </c>
       <c r="C34" s="1">
         <v>288</v>
@@ -2917,7 +2917,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6598223447799683</v>
+        <v>0.6680057644844055</v>
       </c>
       <c r="C35" s="1">
         <v>286</v>
@@ -2943,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6436728835105896</v>
+        <v>0.6516559720039368</v>
       </c>
       <c r="C36" s="1">
         <v>279</v>
@@ -2969,7 +2969,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4706425070762634</v>
+        <v>0.4764796495437622</v>
       </c>
       <c r="C37" s="1">
         <v>204</v>
@@ -2995,7 +2995,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.456800103187561</v>
+        <v>0.4624655544757843</v>
       </c>
       <c r="C38" s="1">
         <v>198</v>
@@ -3021,7 +3021,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4152728021144867</v>
+        <v>0.4204232394695282</v>
       </c>
       <c r="C39" s="1">
         <v>180</v>
@@ -3047,7 +3047,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3922021090984345</v>
+        <v>0.3970663845539093</v>
       </c>
       <c r="C40" s="1">
         <v>170</v>
@@ -3073,7 +3073,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3691313862800598</v>
+        <v>0.3737095296382904</v>
       </c>
       <c r="C41" s="1">
         <v>160</v>
@@ -3099,7 +3099,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3460606634616852</v>
+        <v>0.3503526747226715</v>
       </c>
       <c r="C42" s="1">
         <v>150</v>
@@ -3125,7 +3125,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3045333921909332</v>
+        <v>0.3083103597164154</v>
       </c>
       <c r="C43" s="1">
         <v>132</v>
@@ -3151,7 +3151,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2953051030635834</v>
+        <v>0.2989676296710968</v>
       </c>
       <c r="C44" s="1">
         <v>128</v>
@@ -3177,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2583919763565064</v>
+        <v>0.2615966796875</v>
       </c>
       <c r="C45" s="1">
         <v>112</v>
@@ -3203,7 +3203,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2030222564935684</v>
+        <v>0.2055402398109436</v>
       </c>
       <c r="C46" s="1">
         <v>88</v>
@@ -3229,7 +3229,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1845656931400299</v>
+        <v>0.1868547648191452</v>
       </c>
       <c r="C47" s="1">
         <v>80</v>
@@ -3255,7 +3255,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1614949852228165</v>
+        <v>0.1634979248046875</v>
       </c>
       <c r="C48" s="1">
         <v>70</v>
@@ -3281,7 +3281,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1245818436145783</v>
+        <v>0.1261269748210907</v>
       </c>
       <c r="C49" s="1">
         <v>54</v>
@@ -3307,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1107394173741341</v>
+        <v>0.112112857401371</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -3333,7 +3333,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1107394173741341</v>
+        <v>0.112112857401371</v>
       </c>
       <c r="C51" s="1">
         <v>48</v>
@@ -3359,7 +3359,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1107394173741341</v>
+        <v>0.112112857401371</v>
       </c>
       <c r="C52" s="1">
         <v>48</v>
@@ -3385,7 +3385,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1015111282467842</v>
+        <v>0.1027701199054718</v>
       </c>
       <c r="C53" s="1">
         <v>44</v>
@@ -3411,7 +3411,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.0830545648932457</v>
+        <v>0.0840846449136734</v>
       </c>
       <c r="C54" s="1">
         <v>36</v>
@@ -3437,7 +3437,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.0830545648932457</v>
+        <v>0.0840846449136734</v>
       </c>
       <c r="C55" s="1">
         <v>36</v>
@@ -3463,7 +3463,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.0830545648932457</v>
+        <v>0.0840846449136734</v>
       </c>
       <c r="C56" s="1">
         <v>36</v>
@@ -3489,7 +3489,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.06921213865280151</v>
+        <v>0.0700705349445343</v>
       </c>
       <c r="C57" s="1">
         <v>30</v>
@@ -3515,7 +3515,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.06921213865280151</v>
+        <v>0.0700705349445343</v>
       </c>
       <c r="C58" s="1">
         <v>30</v>
@@ -3541,7 +3541,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.05998384952545166</v>
+        <v>0.0607278011739254</v>
       </c>
       <c r="C59" s="1">
         <v>26</v>
@@ -3567,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="2">
-        <v>0.03691313788294792</v>
+        <v>0.0373709537088871</v>
       </c>
       <c r="C60" s="1">
         <v>16</v>
@@ -3593,7 +3593,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.03229899704456329</v>
+        <v>0.0326995849609375</v>
       </c>
       <c r="C61" s="1">
         <v>14</v>
@@ -3619,7 +3619,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.02768485434353352</v>
+        <v>0.02802821435034275</v>
       </c>
       <c r="C62" s="1">
         <v>12</v>
@@ -3645,7 +3645,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.01845656894147396</v>
+        <v>0.01868547685444355</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -3671,7 +3671,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.01845656894147396</v>
+        <v>0.01868547685444355</v>
       </c>
       <c r="C64" s="1">
         <v>8</v>
@@ -3697,7 +3697,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.01845656894147396</v>
+        <v>0.01868547685444355</v>
       </c>
       <c r="C65" s="1">
         <v>8</v>
@@ -3723,7 +3723,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="2">
-        <v>0.00922828447073698</v>
+        <v>0.009342738427221775</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -3749,7 +3749,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.00922828447073698</v>
+        <v>0.009342738427221775</v>
       </c>
       <c r="C67" s="1">
         <v>4</v>
@@ -3775,7 +3775,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.00922828447073698</v>
+        <v>0.009342738427221775</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
